--- a/expm.xlsx
+++ b/expm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="850">
   <si>
     <t>URL</t>
   </si>
@@ -930,16 +930,13 @@
     <t>base64.c</t>
   </si>
   <si>
-    <t>base64_encode: </t>
-  </si>
-  <si>
-    <t> (ua.(((ua.0;a);(ua.0;a) + 0);))</t>
-  </si>
-  <si>
-    <t>base64_decode: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.0;a);))</t>
+    <t>base64_encode:</t>
+  </si>
+  <si>
+    <t>(ua.(((ua.0;a);(ua.0;a) + 0);))</t>
+  </si>
+  <si>
+    <t>base64_decode:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/ctypes/libffi/src/closures.c</t>
@@ -954,49 +951,40 @@
     <t>cmd.c</t>
   </si>
   <si>
-    <t>cmd_session:  </t>
+    <t>cmd_session:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0) + 0);(((ua.0;a);(0 + 0) + ((ua.0;a);(0 + 0) + 0)) + 0);))</t>
   </si>
   <si>
-    <t> (ua.(((0 + 0) + 0);(((ua.0;a);(0 + 0) + ((ua.0;a);(0 + 0) + 0)) + 0);))</t>
-  </si>
-  <si>
-    <t>cmd_left:  </t>
+    <t>cmd_left:</t>
   </si>
   <si>
     <t>((0 + 0) + 0);((0 + (0 + 0)) + 0)</t>
   </si>
   <si>
-    <t> ((0 + 0) + 0);((0 + (0 + 0)) + 0)</t>
-  </si>
-  <si>
-    <t>cmd_quit:  </t>
-  </si>
-  <si>
-    <t>cmd_send:  </t>
+    <t>cmd_quit:</t>
+  </si>
+  <si>
+    <t>cmd_send:</t>
   </si>
   <si>
     <t>((0 + 0) + 0);(((0 + 0) + 0);(0 + 0) + 0)</t>
   </si>
   <si>
-    <t>cmd_check:  </t>
-  </si>
-  <si>
-    <t>cmd_join: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.0;a);(0 + 0);))</t>
-  </si>
-  <si>
-    <t>cmd_script:  </t>
+    <t>cmd_check:</t>
+  </si>
+  <si>
+    <t>cmd_join:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.0;a);(0 + 0);))</t>
+  </si>
+  <si>
+    <t>cmd_script:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(0 + ((((0 + 0) + 0);(0 + 0) + 0);(free + 0);(ua.0;a);));))</t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(0 + ((((0 + 0) + 0);(0 + 0) + 0);(free + 0);(ua.0;a);));))</t>
   </si>
   <si>
     <t>unsigned int cmd_script(callbackp *callbacki)
@@ -1052,58 +1040,43 @@
 }</t>
   </si>
   <si>
-    <t>cmd_connect:  </t>
-  </si>
-  <si>
-    <t>  </t>
-  </si>
-  <si>
-    <t>checkcmd:  </t>
+    <t>cmd_connect:</t>
+  </si>
+  <si>
+    <t>checkcmd:</t>
   </si>
   <si>
     <t>(ua.((0 + (0 + (ua.0;a)));))</t>
   </si>
   <si>
-    <t> (ua.((0 + (0 + (ua.0;a)));))</t>
-  </si>
-  <si>
-    <t>process_cmd:  </t>
+    <t>process_cmd:</t>
   </si>
   <si>
     <t>(ua.((((0 + 0);(((0 + 0) + 0) + 0);(0 + ((0 + (((((((0 + 0) + 0) + 0) + 0) + 0) + ((0 + 0) + (0 + 0))) + 0)) + 0));(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + ((0 + 0);((0 + 0) + 0) + ((0 + 0);((0 + 0) + 0) + 0)));((0 + 0);((0 + 0) + 0);(0 + (0 + 0)) + (0 + 0)) + 0) + 0);))</t>
   </si>
   <si>
-    <t> (ua.((((0 + 0);(((0 + 0) + 0) + 0);(0 + ((0 + (((((((0 + 0) + 0) + 0) + 0) + 0) + ((0 + 0) + (0 + 0))) + 0)) + 0));(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + ((0 + 0);((0 + 0) + 0) + ((0 + 0);((0 + 0) + 0) + 0)));((0 + 0);((0 + 0) + 0);(0 + (0 + 0)) + (0 + 0)) + 0) + 0);))</t>
-  </si>
-  <si>
-    <t>handle_bad_cmd:  </t>
-  </si>
-  <si>
-    <t>unregister_cmd:  </t>
-  </si>
-  <si>
-    <t>call_cmd_hook:  </t>
-  </si>
-  <si>
-    <t>register_hook_cmd:  </t>
+    <t>handle_bad_cmd:</t>
+  </si>
+  <si>
+    <t>unregister_cmd:</t>
+  </si>
+  <si>
+    <t>call_cmd_hook:</t>
+  </si>
+  <si>
+    <t>register_hook_cmd:</t>
   </si>
   <si>
     <t>(0 + 0);(0 + 0)</t>
   </si>
   <si>
-    <t> (0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>register_bad_cmd:  </t>
-  </si>
-  <si>
-    <t>register_cmd: </t>
-  </si>
-  <si>
-    <t> (0 + 0)</t>
-  </si>
-  <si>
-    <t>do_register:  </t>
+    <t>register_bad_cmd:</t>
+  </si>
+  <si>
+    <t>register_cmd:</t>
+  </si>
+  <si>
+    <t>do_register:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/config.c</t>
@@ -1112,22 +1085,16 @@
     <t>config.c</t>
   </si>
   <si>
-    <t>ape_config_free:  </t>
+    <t>ape_config_free:</t>
   </si>
   <si>
     <t>(ua.((ua.(0 + 0);(ua.(0 + 0);free;freea);freea);))</t>
   </si>
   <si>
-    <t> (ua.((ua.(0 + 0);(ua.(0 + 0);free;freea);freea);))</t>
-  </si>
-  <si>
-    <t>ape_config_load: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>ape_config_set_key:  </t>
+    <t>ape_config_load:</t>
+  </si>
+  <si>
+    <t>ape_config_set_key:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(ua.(0 + 0);((free;) + 0);a);))</t>
@@ -1151,10 +1118,10 @@
 }</t>
   </si>
   <si>
-    <t>ape_config_get_key:  </t>
-  </si>
-  <si>
-    <t>ape_config_get_section:  </t>
+    <t>ape_config_get_key:</t>
+  </si>
+  <si>
+    <t>ape_config_get_section:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/ctypes/libffi/src/dlmalloc.c</t>
@@ -1163,43 +1130,43 @@
     <t>dlmalloc.c</t>
   </si>
   <si>
-    <t>mallopt: </t>
-  </si>
-  <si>
-    <t> ((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);0</t>
-  </si>
-  <si>
-    <t>malloc_usable_size: </t>
-  </si>
-  <si>
-    <t> ((((0 + 0) + 0) + 0) + 0)</t>
-  </si>
-  <si>
-    <t>malloc_stats: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(((0 + 0);(ua.0;a) + 0);));))</t>
-  </si>
-  <si>
-    <t>mallinfo: </t>
-  </si>
-  <si>
-    <t>malloc_max_footprint:  </t>
-  </si>
-  <si>
-    <t>malloc_footprint:  </t>
-  </si>
-  <si>
-    <t>malloc_trim:  </t>
+    <t>mallopt:</t>
+  </si>
+  <si>
+    <t>((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);0</t>
+  </si>
+  <si>
+    <t>malloc_usable_size:</t>
+  </si>
+  <si>
+    <t>((((0 + 0) + 0) + 0) + 0)</t>
+  </si>
+  <si>
+    <t>malloc_stats:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(((0 + 0);(ua.0;a) + 0);));))</t>
+  </si>
+  <si>
+    <t>mallinfo:</t>
+  </si>
+  <si>
+    <t>malloc_max_footprint:</t>
+  </si>
+  <si>
+    <t>malloc_footprint:</t>
+  </si>
+  <si>
+    <t>malloc_trim:</t>
   </si>
   <si>
     <t>(ua.((ua.((((0 + 0);((ua.((ua.0;a)));((((ua.((ua.0;a)));(0 + (0 + (0 + 0))) + 0) + (0 + 0);(((0 + 0) + 0) + 0)) + 0);((0 + 0);(0 + 0) + 0) + 0);(ua.((ua.0;a);));(0 + 0) + 0) + 0);(0 + 0);));))</t>
   </si>
   <si>
-    <t>pvalloc: </t>
-  </si>
-  <si>
-    <t> (ua.(((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);;(ua.((ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));));));))</t>
+    <t>pvalloc:</t>
+  </si>
+  <si>
+    <t>(ua.(((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);;(ua.((ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));));));))</t>
   </si>
   <si>
     <t>void* dlpvalloc(size_t bytes) {
@@ -1210,10 +1177,7 @@
 }</t>
   </si>
   <si>
-    <t>valloc:  </t>
-  </si>
-  <si>
-    <t>(ua.(((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);;(ua.((ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));));));))</t>
+    <t>valloc:</t>
   </si>
   <si>
     <t>void* dlvalloc(size_t bytes) {
@@ -1224,25 +1188,19 @@
 }</t>
   </si>
   <si>
-    <t>independent_comalloc: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(((0 + 0) + ((malloc;) + 0);(0 + 0));((0 + 0) + (ua.0;a));malloc;(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);));))</t>
+    <t>independent_comalloc:</t>
   </si>
   <si>
     <t>(ua.((ua.(((0 + 0) + ((malloc;) + 0);(0 + 0));((0 + 0) + (ua.0;a));malloc;(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);));))</t>
   </si>
   <si>
-    <t>independent_calloc:  </t>
-  </si>
-  <si>
-    <t>memalign:  </t>
+    <t>independent_calloc:</t>
+  </si>
+  <si>
+    <t>memalign:</t>
   </si>
   <si>
     <t>(ua.((ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));));))</t>
-  </si>
-  <si>
-    <t> (ua.((ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));));))</t>
   </si>
   <si>
     <t>void* dlmemalign(size_t alignment, size_t bytes) {
@@ -1250,7 +1208,7 @@
 }</t>
   </si>
   <si>
-    <t>realloc:  </t>
+    <t>realloc:</t>
   </si>
   <si>
     <t>(ua.(((malloc;) + ((ua.((0 + 0);((((0 + 0) + 0) + 0) + 0);((0 + 0);(((0 + 0);((0 + 0) + ((0 + 0);(0 + 0) + 0)) + 0) + ((0 + 0) + ((0 + 0) + 0))) + 0);(((free + 0);) + (malloc;((((0 + 0) + 0);(0 + 0);free) + 0);));));))))</t>
@@ -1292,31 +1250,25 @@
 }</t>
   </si>
   <si>
-    <t>calloc: </t>
-  </si>
-  <si>
-    <t> (ua.((((0 + 0) + 0) + 0);malloc;(((0 + 0) + 0) + 0);))</t>
+    <t>calloc:</t>
   </si>
   <si>
     <t>(ua.((((0 + 0) + 0) + 0);malloc;(((0 + 0) + 0) + 0);))</t>
   </si>
   <si>
-    <t>free:  </t>
+    <t>free:</t>
   </si>
   <si>
     <t>(ua.((((0 + 0) + 0);((((0 + 0) + ((((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + (0 + 0)) + 0)) + 0);((0 + 0) + 0);((((0 + 0);((ua.((((0 + 0);((ua.((ua.0;a)));((((ua.((ua.0;a)));(0 + (0 + (0 + 0))) + 0) + (0 + 0);(((0 + 0) + 0) + 0)) + 0);((0 + 0);(0 + 0) + 0) + 0);(ua.((ua.0;a);));(0 + 0) + 0) + 0);(0 + 0);)) + 0) + (0 + ((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0));(0 + 0))) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0) + 0) + 0);))</t>
   </si>
   <si>
-    <t>malloc:  </t>
+    <t>malloc:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);((0 + (0 + 0)) + (((0 + (0 + 0));((0 + 0) + ((0 + (0 + 0)) + 0)) + ((ua.((ua.0;a);((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + 0)) + 0) + 0);));(0 + 0) + 0)) + 0)) + (0 + ((ua.((0 + (0 + 0));((0 + 0);(ua.0;a) + 0);(((0 + 0) + 0) + 0);(ua.0;a);((((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))) + 0) + 0) + 0) + 0);));(0 + 0) + 0)));((0 + 0) + (0 + 0));(ua.(((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);(((((0 + 0);(0 + 0);(0 + 0) + 0) + 0);(0 + 0) + 0) + 0);((0 + (ua.((ua.0;a))));(((0 + 0);(0 + 0);((0 + 0) + 0) + 0) + (0 + 0);((0 + 0) + 0));((((0 + 0);((0 + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0) + 0);((0 + 0);(((((0 + 0);(0 + 0) + 0) + 0) + 0) + 0) + 0);((0 + 0);((ua.((ua.0;a);));((0 + 0);(0 + 0);(0 + 0) + (0 + 0);(0 + 0);(0 + 0)) + (ua.0;a);((((((0 + 0);(0 + 0) + 0) + 0) + 0) + 0) + (0 + 0);(ua.0;a);((((ua.((0 + 0);(0 + 0);(0 + (0 + (((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))));)) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);)))));(0 + 0) + 0);));))</t>
   </si>
   <si>
-    <t> (ua.(((0 + 0);((0 + (0 + 0)) + (((0 + (0 + 0));((0 + 0) + ((0 + (0 + 0)) + 0)) + ((ua.((ua.0;a);((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + 0)) + 0) + 0);));(0 + 0) + 0)) + 0)) + (0 + ((ua.((0 + (0 + 0));((0 + 0);(ua.0;a) + 0);(((0 + 0) + 0) + 0);(ua.0;a);((((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))) + 0) + 0) + 0) + 0);));(0 + 0) + 0)));((0 + 0) + (0 + 0));(ua.(((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);(((((0 + 0);(0 + 0);(0 + 0) + 0) + 0);(0 + 0) + 0) + 0);((0 + (ua.((ua.0;a))));(((0 + 0);(0 + 0);((0 + 0) + 0) + 0) + (0 + 0);((0 + 0) + 0));((((0 + 0);((0 + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0) + 0);((0 + 0);(((((0 + 0);(0 + 0) + 0) + 0) + 0) + 0) + 0);((0 + 0);((ua.((ua.0;a);));((0 + 0);(0 + 0);(0 + 0) + (0 + 0);(0 + 0);(0 + 0)) + (ua.0;a);((((((0 + 0);(0 + 0) + 0) + 0) + 0) + 0) + (0 + 0);(ua.0;a);((((ua.((0 + 0);(0 + 0);(0 + (0 + (((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))));)) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);)))));(0 + 0) + 0);));))</t>
-  </si>
-  <si>
-    <t>ialloc:  </t>
+    <t>ialloc:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0) + ((malloc;) + 0);(0 + 0));((0 + 0) + (ua.0;a));malloc;(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);))</t>
@@ -1328,7 +1280,7 @@
     <t>internal_memalign: )</t>
   </si>
   <si>
-    <t> (ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));)</t>
+    <t>(ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));)</t>
   </si>
   <si>
     <t>internal_memalign:  (ua.(((malloc;) + 0);(0 + 0);((ua.0;a) + 0);((0 + 0) + (0 + 0);malloc;((((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + (0 + 0));(free + 0);(free + 0);) + 0));))</t>
@@ -1415,10 +1367,10 @@
 }</t>
   </si>
   <si>
-    <t>internal_realloc: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);((((0 + 0) + 0) + 0) + 0);((0 + 0);(((0 + 0);((0 + 0) + ((0 + 0);(0 + 0) + 0)) + 0) + ((0 + 0) + ((0 + 0) + 0))) + 0);(((free + 0);) + (malloc;((((0 + 0) + 0);(0 + 0);free) + 0);));))</t>
+    <t>internal_realloc:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);((((0 + 0) + 0) + 0) + 0);((0 + 0);(((0 + 0);((0 + 0) + ((0 + 0);(0 + 0) + 0)) + 0) + ((0 + 0) + ((0 + 0) + 0))) + 0);(((free + 0);) + (malloc;((((0 + 0) + 0);(0 + 0);free) + 0);));))</t>
   </si>
   <si>
     <t>static void* internal_realloc(mstate m, void* oldmem, size_t bytes) {
@@ -1487,103 +1439,88 @@
 }</t>
   </si>
   <si>
-    <t>tmalloc_small:  </t>
+    <t>tmalloc_small:</t>
   </si>
   <si>
     <t>(ua.((ua.0;a);((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + 0)) + 0) + 0);))</t>
   </si>
   <si>
-    <t>tmalloc_large:  </t>
+    <t>tmalloc_large:</t>
   </si>
   <si>
     <t>(ua.((0 + (0 + 0));((0 + 0);(ua.0;a) + 0);(((0 + 0) + 0) + 0);(ua.0;a);((((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))) + 0) + 0) + 0) + 0);))</t>
   </si>
   <si>
-    <t> (ua.((0 + (0 + 0));((0 + 0);(ua.0;a) + 0);(((0 + 0) + 0) + 0);(ua.0;a);((((((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + ((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))) + 0) + 0) + 0) + 0);))</t>
-  </si>
-  <si>
-    <t>sys_trim:  </t>
+    <t>sys_trim:</t>
   </si>
   <si>
     <t>(ua.((((0 + 0);((ua.((ua.0;a)));((((ua.((ua.0;a)));(0 + (0 + (0 + 0))) + 0) + (0 + 0);(((0 + 0) + 0) + 0)) + 0);((0 + 0);(0 + 0) + 0) + 0);(ua.((ua.0;a);));(0 + 0) + 0) + 0);(0 + 0);))</t>
   </si>
   <si>
-    <t>release_unused_segments:  </t>
-  </si>
-  <si>
-    <t>sys_alloc:  </t>
+    <t>release_unused_segments:</t>
+  </si>
+  <si>
+    <t>sys_alloc:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0);(((((0 + 0);(0 + 0);(0 + 0) + 0) + 0);(0 + 0) + 0) + 0);((0 + (ua.((ua.0;a))));(((0 + 0);(0 + 0);((0 + 0) + 0) + 0) + (0 + 0);((0 + 0) + 0));((((0 + 0);((0 + 0);((0 + 0) + 0) + 0) + 0) + 0);(0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0) + 0);((0 + 0);(((((0 + 0);(0 + 0) + 0) + 0) + 0) + 0) + 0);((0 + 0);((ua.((ua.0;a);));((0 + 0);(0 + 0);(0 + 0) + (0 + 0);(0 + 0);(0 + 0)) + (ua.0;a);((((((0 + 0);(0 + 0) + 0) + 0) + 0) + 0) + (0 + 0);(ua.0;a);((((ua.((0 + 0);(0 + 0);(0 + (0 + (((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))));)) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))) + (ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);)))));(0 + 0) + 0);))</t>
   </si>
   <si>
-    <t>add_segment:  </t>
+    <t>add_segment:</t>
   </si>
   <si>
     <t>(ua.((ua.((ua.0;a)));(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a))) + 0);))</t>
   </si>
   <si>
-    <t>prepend_alloc: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(0 + 0);(0 + (0 + (((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))));))</t>
-  </si>
-  <si>
-    <t>  (ua.((0 + 0);(0 + 0);(0 + (0 + (((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))));))</t>
-  </si>
-  <si>
-    <t>init_bins:  </t>
-  </si>
-  <si>
-    <t>init_top: </t>
-  </si>
-  <si>
-    <t>mmap_resize:  </t>
+    <t>prepend_alloc:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(0 + 0);(0 + (0 + (((0 + (0 + ((0 + (0 + 0)) + 0));(0 + 0)) + ((0 + 0) + (0 + ((ua.0;a);(0 + 0) + 0)));(((0 + 0) + ((0 + 0) + 0));((((0 + 0) + 0);((0 + 0) + 0) + 0) + 0) + 0)) + 0);((0 + (0 + 0)) + (0 + (0 + 0));(0 + (0 + 0);(ua.0;a)))));))</t>
+  </si>
+  <si>
+    <t>init_bins:</t>
+  </si>
+  <si>
+    <t>init_top:</t>
+  </si>
+  <si>
+    <t>mmap_resize:</t>
   </si>
   <si>
     <t>(0 + 0);((0 + 0) + ((0 + 0);(0 + 0) + 0))</t>
   </si>
   <si>
-    <t> (0 + 0);((0 + 0) + ((0 + 0);(0 + 0) + 0))</t>
-  </si>
-  <si>
-    <t>mmap_alloc:  </t>
+    <t>mmap_alloc:</t>
   </si>
   <si>
     <t>(((0 + 0);(0 + 0);(0 + 0) + 0) + 0)</t>
   </si>
   <si>
-    <t>internal_malloc_stats:  </t>
+    <t>internal_malloc_stats:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);(ua.0;a) + 0);))</t>
   </si>
   <si>
-    <t> (ua.(((0 + 0);(ua.0;a) + 0);))</t>
-  </si>
-  <si>
-    <t>internal_mallinfo:  </t>
-  </si>
-  <si>
-    <t>change_mparam: </t>
-  </si>
-  <si>
-    <t>init_mparams: </t>
-  </si>
-  <si>
-    <t> ((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0)</t>
-  </si>
-  <si>
-    <t>has_segment_link:  </t>
+    <t>internal_mallinfo:</t>
+  </si>
+  <si>
+    <t>change_mparam:</t>
+  </si>
+  <si>
+    <t>init_mparams:</t>
+  </si>
+  <si>
+    <t>((0 + 0);(0 + (0 + (0 + (0 + (0 + (0 + 0)))))) + 0)</t>
+  </si>
+  <si>
+    <t>has_segment_link:</t>
   </si>
   <si>
     <t>(ua.((ua.0;a)))</t>
   </si>
   <si>
-    <t> (ua.((ua.0;a)))</t>
-  </si>
-  <si>
-    <t>segment_holding:  </t>
+    <t>segment_holding:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/dns.c</t>
@@ -1592,13 +1529,13 @@
     <t>dns.c</t>
   </si>
   <si>
-    <t>ape_dns_init:  </t>
-  </si>
-  <si>
-    <t>ape_dns_timeout:  </t>
-  </si>
-  <si>
-    <t>ape_gethostbyname:  </t>
+    <t>ape_dns_init:</t>
+  </si>
+  <si>
+    <t>ape_dns_timeout:</t>
+  </si>
+  <si>
+    <t>ape_gethostbyname:</t>
   </si>
   <si>
     <t>(0 + (0 + 0));(0 + 0);(0 + (free;free;free;))</t>
@@ -1633,17 +1570,13 @@
 return;
 }
 dns_timeouts(NULL, -1, 0);
-}
-</t>
-  </si>
-  <si>
-    <t>dnscb:  </t>
+}</t>
+  </si>
+  <si>
+    <t>dnscb:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(ua.0;a);((0 + 0) + 0);((free;) + 0);(0 + 0);(0 + 0);(ua.0;a);free;free;free;free;))</t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.0;a);((0 + 0) + 0);((free;) + 0);(0 + 0);(0 + 0);(ua.0;a);free;free;free;free;))</t>
   </si>
   <si>
     <t>static void dnscb(struct dns_ctx *ctx, void *result, void *data) {
@@ -1703,25 +1636,22 @@
 }</t>
   </si>
   <si>
-    <t>query_free:  </t>
+    <t>query_free:</t>
   </si>
   <si>
     <t>free;free;free</t>
   </si>
   <si>
-    <t> free;free;free</t>
-  </si>
-  <si>
-    <t>ape_dns_write:  </t>
-  </si>
-  <si>
-    <t>ape_dns_read:  </t>
-  </si>
-  <si>
-    <t>ape_dns_io:  </t>
-  </si>
-  <si>
-    <t>query_new:  </t>
+    <t>ape_dns_write:</t>
+  </si>
+  <si>
+    <t>ape_dns_read:</t>
+  </si>
+  <si>
+    <t>ape_dns_io:</t>
+  </si>
+  <si>
+    <t>query_new:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/deps/udns-0.0.9/dnsget.c</t>
@@ -1730,19 +1660,7 @@
     <t>dnsget.c</t>
   </si>
   <si>
-    <t>main:  </t>
-  </si>
-  <si>
     <t>(0 + 0);((0 + 0) + 0);((0 + 0) + (0 + (0 + 0)));(ua.0;a);((0 + 0) + 0);((ua.(0 + 0);(((((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);free) + 0);((0 + 0) + 0);a) + 0);((0 + 0) + 0);(0 + 0);(ua.(0 + 0);(0 + (0 + (0 + 0)));(0 + 0);(ua.(malloc;malloc;((0 + 0) + ((0 + 0) + 0));));(0 + 0);(0 + ((0 + 0);(0 + (0 + 0));free;free;));a);(ua.0;a);(ua.0;a);(0 + (0 + 0))</t>
-  </si>
-  <si>
-    <t> (0 + 0);((0 + 0) + 0);((0 + 0) + (0 + (0 + 0)));(ua.0;a);((0 + 0) + 0);((ua.(0 + 0);(((((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);free) + 0);((0 + 0) + 0);a) + 0);((0 + 0) + 0);(0 + 0);(ua.(0 + 0);(0 + (0 + (0 + 0)));(0 + 0);(ua.(malloc;malloc;((0 + 0) + ((0 + 0) + 0));));(0 + 0);(0 + ((0 + 0);(0 + (0 + 0));free;free;));a);(ua.0;a);(ua.0;a);(0 + (0 + 0))</t>
-  </si>
-  <si>
-    <t>dnscb: </t>
-  </si>
-  <si>
-    <t> (ua.((((0 + 0);(0 + (0 + 0));free;free;) + 0);(ua.0;a);((0 + 0) + 0);(((0 + 0);(0 + (0 + 0));free;free;;free;) + 0);((0 + 0);(0 + 0);(ua.0;a) + 0);free;free;free;))</t>
   </si>
   <si>
     <t>(ua.((((0 + 0);(0 + (0 + 0));free;free;) + 0);(ua.0;a);((0 + 0) + 0);(((0 + 0);(0 + (0 + 0));free;free;;free;) + 0);((0 + 0);(0 + 0);(ua.0;a) + 0);free;free;free;))</t>
@@ -1805,85 +1723,67 @@
 }</t>
   </si>
   <si>
-    <t>dbgcb: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);((0 + 0) + 0);((0 + 0) + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);0;(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);));((ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);)) + 0);((ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);)) + 0);))</t>
-  </si>
-  <si>
-    <t>printsection: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);))</t>
+    <t>dbgcb:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);((0 + 0) + 0);((0 + 0) + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);0;(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);));((ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);)) + 0);((ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);)) + 0);))</t>
+  </si>
+  <si>
+    <t>printsection:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(0 + 0);(ua.0;a);(0 + 0);))</t>
   </si>
   <si>
     <t>printrr:</t>
   </si>
   <si>
-    <t>  (((((0 + 0) + 0) + 0);(0 + (0 + 0)) + 0) + 0);0</t>
-  </si>
-  <si>
-    <t> (((((0 + 0) + 0) + 0);(0 + (0 + 0)) + 0) + 0);0</t>
-  </si>
-  <si>
-    <t>printdate:  </t>
-  </si>
-  <si>
-    <t>printb64: </t>
-  </si>
-  <si>
-    <t>printhex:  </t>
-  </si>
-  <si>
-    <t>printtxt:  </t>
+    <t>(((((0 + 0) + 0) + 0);(0 + (0 + 0)) + 0) + 0);0</t>
+  </si>
+  <si>
+    <t>printdate:</t>
+  </si>
+  <si>
+    <t>printb64:</t>
+  </si>
+  <si>
+    <t>printhex:</t>
+  </si>
+  <si>
+    <t>printtxt:</t>
   </si>
   <si>
     <t>(ua.(((ua.0;a) + 0);))</t>
   </si>
   <si>
-    <t> (ua.(((ua.0;a) + 0);))</t>
-  </si>
-  <si>
-    <t>dnserror:  </t>
+    <t>dnserror:</t>
   </si>
   <si>
     <t>(0 + 0);(0 + (0 + 0));free;free</t>
   </si>
   <si>
-    <t> (0 + 0);(0 + (0 + 0));free;free</t>
-  </si>
-  <si>
     <t>(ua.(malloc;malloc;((0 + 0) + ((0 + 0) + 0));))</t>
   </si>
   <si>
-    <t>  (ua.(malloc;malloc;((0 + 0) + ((0 + 0) + 0));))</t>
-  </si>
-  <si>
     <t>free;free</t>
   </si>
   <si>
-    <t> free;free</t>
-  </si>
-  <si>
-    <t>dns_xntop:  </t>
-  </si>
-  <si>
-    <t>die:  </t>
-  </si>
-  <si>
-    <t>getopt:  </t>
+    <t>dns_xntop:</t>
+  </si>
+  <si>
+    <t>getopt:</t>
   </si>
   <si>
     <t>(0 + 0);(0 + 0);(0 + ((0 + 0);(0 + 0);(0 + 0);((0 + 0) + 0) + 0));(0 + 0);((0 + 0) + ((0 + 0) + 0));((0 + (((0 + 0);(0 + 0) + 0) + 0)) + 0)</t>
   </si>
   <si>
-    <t>printerr:  </t>
-  </si>
-  <si>
-    <t>dns_get32:  </t>
-  </si>
-  <si>
-    <t>dns_get16:  </t>
+    <t>printerr:</t>
+  </si>
+  <si>
+    <t>dns_get32:</t>
+  </si>
+  <si>
+    <t>dns_get16:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/dtoa.c</t>
@@ -1892,16 +1792,13 @@
     <t>dtoa.c</t>
   </si>
   <si>
-    <t>last_argument:  </t>
+    <t>last_argument:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(0 + 0);(ua.(malloc;(0 + 0);(ua.0;a);(0 + (0 + 0));(ua.((0 + 0) + 0);((((((malloc;(0 + 0);free) + 0);) + 0) + 0) + 0)a);));(((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);)) + (0 + 0);;(0 + 0)) + ((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);)) + 0));(free + 0);free;))</t>
   </si>
   <si>
-    <t> (ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(0 + 0);(ua.(malloc;(0 + 0);(ua.0;a);(0 + (0 + 0));(ua.((0 + 0) + 0);((((((malloc;(0 + 0);free) + 0);) + 0) + 0) + 0)a);));(((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);)) + (0 + 0);;(0 + 0)) + ((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);)) + 0));(free + 0);free;))</t>
-  </si>
-  <si>
-    <t>argify:  </t>
+    <t>argify:</t>
   </si>
   <si>
     <t>(ua.(malloc;(0 + 0);(ua.0;a);(0 + (0 + 0));(ua.((0 + 0) + 0);((((((malloc;(0 + 0);free) + 0);) + 0) + 0) + 0)a);))</t>
@@ -1910,31 +1807,31 @@
     <t>argify:  (ua.(malloc;(0 + 0);(ua.0;a);(0 + (0 + 0));(ua.((0 + 0) + 0);((((((malloc;(0 + 0);free) + 0);) + 0) + 0) + 0)a);))</t>
   </si>
   <si>
-    <t>bk_kill_word:  </t>
+    <t>bk_kill_word:</t>
   </si>
   <si>
     <t>(ua.((ua.((ua.0;a);));(((ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));) + 0);))</t>
   </si>
   <si>
-    <t> (ua.((ua.((ua.0;a);));(((ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));) + 0);))</t>
+    <t>(ua.((ua.((ua.0;a);));(((ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));) + 0);))</t>
   </si>
   <si>
     <t>bk_word:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>fd_kill_word:  </t>
-  </si>
-  <si>
-    <t>fd_word: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.((ua.0;a);));))</t>
+    <t>fd_kill_word:</t>
+  </si>
+  <si>
+    <t>fd_word:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.((ua.0;a);));))</t>
   </si>
   <si>
     <t>fd_word:  (ua.((ua.((ua.0;a);));))</t>
   </si>
   <si>
-    <t>move_to_char:  </t>
+    <t>move_to_char:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);))</t>
@@ -1943,16 +1840,16 @@
     <t>move_to_char:  (ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.0;a);))</t>
   </si>
   <si>
-    <t>copy_region:  </t>
+    <t>copy_region:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);;(0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + (ua.((free + 0);(0 + 0);malloc;(0 + 0);)));))</t>
   </si>
   <si>
-    <t> (ua.(((0 + 0);;(0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + (ua.(free;(0 + 0);malloc;(0 + 0);)));))</t>
-  </si>
-  <si>
-    <t>yank:  </t>
+    <t>(ua.(((0 + 0);;(0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + (ua.(free;(0 + 0);malloc;(0 + 0);)));))</t>
+  </si>
+  <si>
+    <t>yank:</t>
   </si>
   <si>
     <t>(ua.(((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0) + 0);))</t>
@@ -1961,16 +1858,16 @@
     <t>yank:  (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0);))</t>
   </si>
   <si>
-    <t>exchange:  </t>
+    <t>exchange:</t>
   </si>
   <si>
     <t>(0 + 0);(0 + 0);(0 + 0);(0 + 0);((0 + (0 + 0);;(0 + 0)) + 0);(0 + 0)</t>
   </si>
   <si>
-    <t>mk_set:  </t>
-  </si>
-  <si>
-    <t>wipe:  </t>
+    <t>mk_set:</t>
+  </si>
+  <si>
+    <t>wipe:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);;(0 + 0) + 0);((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
@@ -1979,7 +1876,7 @@
     <t>wipe:  (ua.(((0 + 0);;(0 + 0) + 0);((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
   </si>
   <si>
-    <t>quote:  </t>
+    <t>quote:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));))</t>
@@ -1988,7 +1885,7 @@
     <t>quote:  (ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));))</t>
   </si>
   <si>
-    <t>transpose:  </t>
+    <t>transpose:</t>
   </si>
   <si>
     <t>(ua.((((ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);)) + 0);(ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);));((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));;((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0)))) + 0);))</t>
@@ -1997,31 +1894,31 @@
     <t>transpose:  (ua.((((ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);)) + 0);(ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);));((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));;((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0)))) + 0);))</t>
   </si>
   <si>
-    <t>accept_line:  </t>
-  </si>
-  <si>
-    <t>end_line:  </t>
+    <t>accept_line:</t>
+  </si>
+  <si>
+    <t>end_line:</t>
   </si>
   <si>
     <t>end_line:  (0 + 0)</t>
   </si>
   <si>
-    <t>del_char: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
+    <t>del_char:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
   </si>
   <si>
     <t>del_char:  (ua.((0 + 0);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
   </si>
   <si>
-    <t>beg_line:  </t>
+    <t>beg_line:</t>
   </si>
   <si>
     <t>beg_line:  (0 + 0)</t>
   </si>
   <si>
-    <t>add_history:  </t>
+    <t>add_history:</t>
   </si>
   <si>
     <t>(ua.((0 + (0 + 0));(ua.((0 + 0);(0 + (free;(ua.0;a);));));))</t>
@@ -2030,22 +1927,22 @@
     <t>add_history:  (ua.((0 + (0 + 0));(ua.((0 + 0);(0 + (free;(ua.0;a);));));))</t>
   </si>
   <si>
-    <t>readline: </t>
-  </si>
-  <si>
-    <t> (ua.((malloc;(0 + 0) + 0);(0 + 0);(0 + (0 + 0));;(ua.((0 + 0);(0 + (free;(ua.0;a);));));malloc;(0 + 0);(ua.((ua.0;a);));(ua.((ua.(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.((free + 0);(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);));((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);));0;)a);(0 + 0);free;));((ua.((ua.0;a);));(0 + 0) + 0);free;free;(0 + 0);))</t>
+    <t>readline:</t>
+  </si>
+  <si>
+    <t>(ua.((malloc;(0 + 0) + 0);(0 + 0);(0 + (0 + 0));;(ua.((0 + 0);(0 + (free;(ua.0;a);));));malloc;(0 + 0);(ua.((ua.0;a);));(ua.((ua.(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.((free + 0);(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);));((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);));0;)a);(0 + 0);free;));((ua.((ua.0;a);));(0 + 0) + 0);free;free;(0 + 0);))</t>
   </si>
   <si>
     <t>readline:  (ua.((malloc;(0 + 0) + 0);(0 + 0);(0 + (0 + 0));;(ua.((0 + 0);(0 + (free;(ua.0;a);));));malloc;(0 + 0);(ua.((ua.0;a);));(ua.((ua.(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.(free;(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);));((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);));0;)a);(0 + 0);free;));((ua.((ua.0;a);));(0 + 0) + 0);free;free;(0 + 0);))</t>
   </si>
   <si>
-    <t>rl_initialize:  </t>
-  </si>
-  <si>
-    <t>rl_reset_terminal:  </t>
-  </si>
-  <si>
-    <t>hist_add:  </t>
+    <t>rl_initialize:</t>
+  </si>
+  <si>
+    <t>rl_reset_terminal:</t>
+  </si>
+  <si>
+    <t>hist_add:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(0 + (free;(ua.0;a);));))</t>
@@ -2054,7 +1951,7 @@
     <t>hist_add:  (ua.((0 + 0);(0 + (free;(ua.0;a);));))</t>
   </si>
   <si>
-    <t>editinput:  </t>
+    <t>editinput:</t>
   </si>
   <si>
     <t>(ua.((ua.(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.((free + 0);(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);));((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);));0;)a);(0 + 0);free;))</t>
@@ -2063,19 +1960,19 @@
     <t>editinput:  (ua.((ua.(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.(free;(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);));((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);));0;)a);(0 + 0);free;))</t>
   </si>
   <si>
-    <t>TTYspecial:  </t>
+    <t>TTYspecial:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.((free + 0);(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);))</t>
   </si>
   <si>
-    <t> (ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.(free;(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);))</t>
-  </si>
-  <si>
-    <t>emacs: </t>
-  </si>
-  <si>
-    <t> (ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);))</t>
+    <t>(ua.((0 + 0);(((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + (((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));));) + 0));((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);)) + 0);(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.(free;(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));));) + 0);(((0 + 0) + 0) + 0);(0 + 0);(0 + 0);))</t>
+  </si>
+  <si>
+    <t>emacs:</t>
+  </si>
+  <si>
+    <t>(ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);))</t>
   </si>
   <si>
     <t>emacs:  (ua.((((ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);)) + 0) + 0);(ua.0;a);(0 + (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;)));(0 + 0);))</t>
@@ -2084,16 +1981,16 @@
     <t>meta:  (ua.((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);((ua.0;a) + 0);(((0 + 0);;(0 + 0) + 0) + 0);(ua.0;a);(0 + 0);;(0 + 0);))</t>
   </si>
   <si>
-    <t>insert_char: </t>
-  </si>
-  <si>
-    <t> (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;))</t>
+    <t>insert_char:</t>
+  </si>
+  <si>
+    <t>(ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;))</t>
   </si>
   <si>
     <t>insert_char:  (ua.((((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + (((ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));) + 0));malloc;(0 + 0);(ua.0;a);(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));free;))</t>
   </si>
   <si>
-    <t>kill_line:  </t>
+    <t>kill_line:</t>
   </si>
   <si>
     <t>(ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.((free + 0);(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));))</t>
@@ -2102,7 +1999,7 @@
     <t>kill_line:  (ua.(((((ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + (((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0);;(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));)) + 0));) + 0);(ua.(free;(0 + 0);malloc;(0 + 0);));(ua.((ua.0;a);(ua.0;a);));))</t>
   </si>
   <si>
-    <t>bk_del_char:  </t>
+    <t>bk_del_char:</t>
   </si>
   <si>
     <t>(ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
@@ -2111,22 +2008,22 @@
     <t>bk_del_char:  (ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
   </si>
   <si>
-    <t>bk_char:  </t>
+    <t>bk_char:</t>
   </si>
   <si>
     <t>bk_char:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>delete_string: </t>
-  </si>
-  <si>
-    <t> (ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));))</t>
+    <t>delete_string:</t>
+  </si>
+  <si>
+    <t>(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.((free + 0);(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));))</t>
   </si>
   <si>
     <t>delete_string:  (ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));))</t>
   </si>
   <si>
-    <t>save_yank:  </t>
+    <t>save_yank:</t>
   </si>
   <si>
     <t>(ua.((free + 0);(0 + 0);malloc;(0 + 0);))</t>
@@ -2135,13 +2032,13 @@
     <t>save_yank:  (ua.(free;(0 + 0);malloc;(0 + 0);))</t>
   </si>
   <si>
-    <t>fd_char:  </t>
+    <t>fd_char:</t>
   </si>
   <si>
     <t>fd_char:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>h_search:  </t>
+    <t>h_search:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));));(ua.((ua.0;a);));(0 + 0);(ua.((ua.0;a);));(((ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));));(ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));)) + 0) + 0);(ua.(((((free + 0);) + 0) + (0 + (0 + 0)));(0 + 0);(ua.0;a);));(ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));));((0 + 0);;(0 + 0);;(ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));)) + 0);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
@@ -2150,7 +2047,7 @@
     <t>h_search:  (ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));));(ua.((ua.0;a);));(0 + 0);(ua.((ua.0;a);));(((ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));));(ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));)) + 0) + 0);(ua.(((((free + 0);) + 0) + (0 + (0 + 0)));(0 + 0);(ua.0;a);));(ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));));((0 + 0);;(0 + 0);;(ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));)) + 0);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
   </si>
   <si>
-    <t>search_hist:  </t>
+    <t>search_hist:</t>
   </si>
   <si>
     <t>(ua.(((((free + 0);) + 0) + (0 + (0 + 0)));(0 + 0);(ua.0;a);))</t>
@@ -2159,13 +2056,13 @@
     <t>search_hist:  (ua.(((((free + 0);) + 0) + (0 + (0 + 0)));(0 + 0);(ua.0;a);))</t>
   </si>
   <si>
-    <t>substrcmp: </t>
+    <t>substrcmp:</t>
   </si>
   <si>
     <t>substrcmp:  (ua.((0 + 0);(ua.0;a);))</t>
   </si>
   <si>
-    <t>h_last:  </t>
+    <t>h_last:</t>
   </si>
   <si>
     <t>(ua.((ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
@@ -2174,28 +2071,28 @@
     <t>h_last:  (ua.((ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
   </si>
   <si>
-    <t>h_first:  </t>
+    <t>h_first:</t>
   </si>
   <si>
     <t>h_first:  (ua.((ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
   </si>
   <si>
-    <t>h_prev: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));));))</t>
+    <t>h_prev:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));));))</t>
   </si>
   <si>
     <t>h_prev:  (ua.((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));));))</t>
   </si>
   <si>
-    <t>h_next: </t>
+    <t>h_next:</t>
   </si>
   <si>
     <t>h_next:  (ua.((ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));));))</t>
   </si>
   <si>
-    <t>do_hist:  </t>
+    <t>do_hist:</t>
   </si>
   <si>
     <t>(ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
@@ -2204,7 +2101,7 @@
     <t>do_hist:  (ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));));))</t>
   </si>
   <si>
-    <t>do_insert_hist:  </t>
+    <t>do_insert_hist:</t>
   </si>
   <si>
     <t>(ua.(((0 + 0);;(0 + 0) + 0);(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);));(ua.((ua.0;a);(ua.0;a);));(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);));))</t>
@@ -2219,7 +2116,7 @@
     <t>next_hist:  (0 + 0)</t>
   </si>
   <si>
-    <t>toggle_meta_mode:  </t>
+    <t>toggle_meta_mode:</t>
   </si>
   <si>
     <t>(ua.((ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));));))</t>
@@ -2228,7 +2125,7 @@
     <t>toggle_meta_mode:  (ua.((ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));));))</t>
   </si>
   <si>
-    <t>redisplay:  </t>
+    <t>redisplay:</t>
   </si>
   <si>
     <t>(ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));))</t>
@@ -2237,7 +2134,7 @@
     <t>redisplay:  (ua.((ua.((ua.0;a);));(ua.((ua.0;a);));(ua.((ua.0;a);));))</t>
   </si>
   <si>
-    <t>insert_string:  </t>
+    <t>insert_string:</t>
   </si>
   <si>
     <t>(ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);))</t>
@@ -2246,7 +2143,7 @@
     <t>insert_string:  (ua.(((malloc;(0 + 0);(free + 0);) + 0);(ua.0;a);(ua.((ua.0;a);));(0 + 0);))</t>
   </si>
   <si>
-    <t>clear_line:  </t>
+    <t>clear_line:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);;(ua.((ua.0;a);(ua.0;a);));))</t>
@@ -2258,7 +2155,7 @@
     <t>ceol:  (ua.((ua.0;a);(ua.0;a);))</t>
   </si>
   <si>
-    <t>case_up_word:  </t>
+    <t>case_up_word:</t>
   </si>
   <si>
     <t>(ua.((ua.((ua.((ua.0;a);));((0 + 0);(0 + 0);(ua.0;a) + 0);));))</t>
@@ -2267,28 +2164,28 @@
     <t>case_up_word:  (ua.((ua.((ua.((ua.0;a);));((0 + 0);(0 + 0);(ua.0;a) + 0);));))</t>
   </si>
   <si>
-    <t>case_down_word:  </t>
+    <t>case_down_word:</t>
   </si>
   <si>
     <t>case_down_word:  (ua.((ua.((ua.((ua.0;a);));((0 + 0);(0 + 0);(ua.0;a) + 0);));))</t>
   </si>
   <si>
-    <t>do_case: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.((ua.0;a);));((0 + 0);(0 + 0);(ua.0;a) + 0);))</t>
+    <t>do_case:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.((ua.0;a);));((0 + 0);(0 + 0);(ua.0;a) + 0);))</t>
   </si>
   <si>
     <t>do_case:  (ua.((ua.((ua.0;a);));((0 + 0);(0 + 0);(ua.0;a) + 0);))</t>
   </si>
   <si>
-    <t>do_forward: </t>
+    <t>do_forward:</t>
   </si>
   <si>
     <t>do_forward:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>do_macro:  </t>
+    <t>do_macro:</t>
   </si>
   <si>
     <t>((0 + 0);;(0 + 0) + 0)</t>
@@ -2297,7 +2194,7 @@
     <t>do_macro:  ((0 + 0);;(0 + 0) + 0)</t>
   </si>
   <si>
-    <t>ring_bell:  </t>
+    <t>ring_bell:</t>
   </si>
   <si>
     <t>(0 + 0);;(0 + 0)</t>
@@ -2306,7 +2203,7 @@
     <t>ring_bell:  (0 + 0);;(0 + 0)</t>
   </si>
   <si>
-    <t>right:  </t>
+    <t>right:</t>
   </si>
   <si>
     <t>((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0)</t>
@@ -2315,16 +2212,16 @@
     <t>right:  ((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))));(0 + 0)</t>
   </si>
   <si>
-    <t>left: </t>
-  </si>
-  <si>
-    <t> (ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);))</t>
+    <t>left:</t>
+  </si>
+  <si>
+    <t>(ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);))</t>
   </si>
   <si>
     <t>left:  (ua.(((ua.((ua.0;a);)) + (0 + 0));(((((ua.((ua.0;a);)) + (0 + 0)) + 0) + ((((ua.((ua.0;a);)) + (0 + 0));((ua.((ua.0;a);)) + (0 + 0)) + 0) + 0)) + 0);(0 + 0);))</t>
   </si>
   <si>
-    <t>reposition:  </t>
+    <t>reposition:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);))</t>
@@ -2333,34 +2230,34 @@
     <t>reposition:  (ua.((0 + 0);;(ua.((ua.0;a);));(ua.0;a);))</t>
   </si>
   <si>
-    <t>TTYinfo: </t>
-  </si>
-  <si>
-    <t> (0 + 0);(0 + (0 + 0))</t>
+    <t>TTYinfo:</t>
+  </si>
+  <si>
+    <t>(0 + 0);(0 + (0 + 0))</t>
   </si>
   <si>
     <t>TTYinfo:  (0 + 0);(0 + (0 + 0))</t>
   </si>
   <si>
-    <t>TTYbackn: </t>
+    <t>TTYbackn:</t>
   </si>
   <si>
     <t>TTYbackn:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>TTYget:  </t>
+    <t>TTYget:</t>
   </si>
   <si>
     <t>TTYget:  (0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
   </si>
   <si>
-    <t>TTYstring:  </t>
+    <t>TTYstring:</t>
   </si>
   <si>
     <t>TTYstring:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>TTYshow:  </t>
+    <t>TTYshow:</t>
   </si>
   <si>
     <t>((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))))</t>
@@ -2369,7 +2266,7 @@
     <t>TTYshow:  ((0 + 0);;(0 + 0) + (((0 + 0);;(0 + 0) + 0) + (((0 + 0);;(0 + 0);;(0 + 0) + (0 + 0)) + (0 + 0))))</t>
   </si>
   <si>
-    <t>TTYputs: </t>
+    <t>TTYputs:</t>
   </si>
   <si>
     <t>TTYputs:  (ua.((ua.0;a);))</t>
@@ -2387,10 +2284,7 @@
     <t>entry.c</t>
   </si>
   <si>
-    <t>main: </t>
-  </si>
-  <si>
-    <t> (ua.0;a);((ua.0;a) + 0);(0 + 0);(0 + 0);(0 + (0 + 0));(0 + 0);(0 + 0);((0 + 0) + 0);((0 + 0) + 0);(0 + 0);((((0 + 0) + 0);(0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0);((0 + 0);(((0 + 0) + 0);(0 + 0) + 0);(((0 + 0) + 0);(0 + 0) + 0);(0 + 0);(((0 + 0) + 0);(0 + 0) + 0);(((0 + 0) + 0);(0 + 0) + 0);(0 + 0) + 0) + (0 + 0));((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0) + (0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0));(0 + 0);free;free;(ua.(0 + 0);(free + 0);a);free;free</t>
+    <t>(ua.0;a);((ua.0;a) + 0);(0 + 0);(0 + 0);(0 + (0 + 0));(0 + 0);(0 + 0);((0 + 0) + 0);((0 + 0) + 0);(0 + 0);((((0 + 0) + 0);(0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0);((0 + 0);(((0 + 0) + 0);(0 + 0) + 0);(((0 + 0) + 0);(0 + 0) + 0);(0 + 0);(((0 + 0) + 0);(0 + 0) + 0);(((0 + 0) + 0);(0 + 0) + 0);(0 + 0) + 0) + (0 + 0));((0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0) + (0 + 0);(0 + 0);(0 + 0);(0 + 0);(0 + 0));(0 + 0);free;free;(ua.(0 + 0);(free + 0);a);free;free</t>
   </si>
   <si>
     <t>int main(int argc, char **argv)
@@ -2624,22 +2518,19 @@
 }</t>
   </si>
   <si>
-    <t>ape_daemon: </t>
-  </si>
-  <si>
-    <t> (0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>write_pid_file:  </t>
+    <t>ape_daemon:</t>
+  </si>
+  <si>
+    <t>write_pid_file:</t>
   </si>
   <si>
     <t>write_pid_file:  (0 + 0)</t>
   </si>
   <si>
-    <t>inc_rlimit:  </t>
-  </si>
-  <si>
-    <t>signal_handler:  </t>
+    <t>inc_rlimit:</t>
+  </si>
+  <si>
+    <t>signal_handler:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/events.c</t>
@@ -2648,28 +2539,28 @@
     <t>events.c</t>
   </si>
   <si>
-    <t>events_reload:  </t>
-  </si>
-  <si>
-    <t>events_revent:  </t>
-  </si>
-  <si>
-    <t>events_growup:  </t>
-  </si>
-  <si>
-    <t>events_get_current_fd:  </t>
-  </si>
-  <si>
-    <t>events_poll:  </t>
-  </si>
-  <si>
-    <t>events_remove:  </t>
-  </si>
-  <si>
-    <t>events_add: </t>
-  </si>
-  <si>
-    <t>events_free:  </t>
+    <t>events_reload:</t>
+  </si>
+  <si>
+    <t>events_revent:</t>
+  </si>
+  <si>
+    <t>events_growup:</t>
+  </si>
+  <si>
+    <t>events_get_current_fd:</t>
+  </si>
+  <si>
+    <t>events_poll:</t>
+  </si>
+  <si>
+    <t>events_remove:</t>
+  </si>
+  <si>
+    <t>events_add:</t>
+  </si>
+  <si>
+    <t>events_free:</t>
   </si>
   <si>
     <t>void events_free(acetables *g_ape)
@@ -2692,10 +2583,7 @@
     <t>(0 + 0);(ua.0;a);(0 + 0);(ua.0;a)</t>
   </si>
   <si>
-    <t> (0 + 0);(ua.0;a);(0 + 0);(ua.0;a)</t>
-  </si>
-  <si>
-    <t> (ua.((((ua.0;a);free) + 0);))</t>
+    <t>(ua.((((ua.0;a);free) + 0);))</t>
   </si>
   <si>
     <t>static void dnscb(struct dns_ctx *ctx, struct dns_rr_ptr *rr, void *data) {
@@ -2714,7 +2602,7 @@
 }</t>
   </si>
   <si>
-    <t>n2ip:  </t>
+    <t>n2ip:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/extend.c</t>
@@ -2723,25 +2611,19 @@
     <t>extend.c</t>
   </si>
   <si>
-    <t>clear_properties:  </t>
+    <t>clear_properties:</t>
   </si>
   <si>
     <t>(ua.((ua.(0 + 0);(free;);freea);))</t>
   </si>
   <si>
-    <t> (ua.((ua.(0 + 0);(free;);freea);))</t>
-  </si>
-  <si>
     <t>bug</t>
   </si>
   <si>
-    <t>del_property:  </t>
+    <t>del_property:</t>
   </si>
   <si>
     <t>(ua.((ua.(0 + 0);(((free;);free;) + 0);a);))</t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);(((free;);free;) + 0);a);))</t>
   </si>
   <si>
     <t>void del_property(extend **entry, const char *key)
@@ -2765,59 +2647,49 @@
 }
 entry = &amp;(*entry)-&gt;next;
 }
-}
-</t>
-  </si>
-  <si>
-    <t>get_property_val:  </t>
+}</t>
+  </si>
+  <si>
+    <t>get_property_val:</t>
   </si>
   <si>
     <t>(ua.((ua.((ua.0;a);));(0 + 0);))</t>
   </si>
   <si>
-    <t> (ua.((ua.((ua.0;a);));(0 + 0);))</t>
-  </si>
-  <si>
-    <t>get_property:  </t>
-  </si>
-  <si>
-    <t>  (ua.((ua.0;a);))</t>
-  </si>
-  <si>
-    <t>add_property:  </t>
+    <t>get_property:</t>
+  </si>
+  <si>
+    <t>add_property:</t>
   </si>
   <si>
     <t>(0 + 0);0</t>
   </si>
   <si>
-    <t> (0 + 0);0</t>
-  </si>
-  <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/hash.c</t>
   </si>
   <si>
     <t>hash.c</t>
   </si>
   <si>
-    <t>hashtbl_seek: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.((ua.0;a);));(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>hashtbl_erase: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.((ua.0;a);));(ua.(0 + 0);(((0 + 0);(0 + 0);(0 + 0);free;free;) + 0);a);))</t>
-  </si>
-  <si>
-    <t>hashtbl_append: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.((ua.0;a);));(((ua.(0 + 0);((free;free;) + 0)a);) + 0);(0 + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.((ua.0;a);));(((ua.(0 + 0);((free;free;) + 0)a);) + 0);))</t>
+    <t>hashtbl_seek:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.((ua.0;a);));(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>hashtbl_erase:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.((ua.0;a);));(ua.(0 + 0);(((0 + 0);(0 + 0);(0 + 0);free;free;) + 0);a);))</t>
+  </si>
+  <si>
+    <t>hashtbl_append:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.((ua.0;a);));(((ua.(0 + 0);((free;free;) + 0)a);) + 0);(0 + 0);))</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.((ua.0;a);));(((ua.(0 + 0);((free;free;) + 0)a);) + 0);))</t>
   </si>
   <si>
     <t>void hashtbl_append(HTBL *htbl, const char *key, void *structaddr)
@@ -2858,16 +2730,16 @@
 }</t>
   </si>
   <si>
-    <t>hashtbl_free: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);(ua.(0 + 0);free;freea);a);free;free;))</t>
-  </si>
-  <si>
-    <t>hashtbl_init:  </t>
-  </si>
-  <si>
-    <t>hach_string:  </t>
+    <t>hashtbl_free:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);(ua.(0 + 0);free;freea);a);free;free;))</t>
+  </si>
+  <si>
+    <t>hashtbl_init:</t>
+  </si>
+  <si>
+    <t>hach_string:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/http.c</t>
@@ -2876,214 +2748,685 @@
     <t>http.c</t>
   </si>
   <si>
-    <t>free_header_line: </t>
+    <t>free_header_line:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);freea);))</t>
+  </si>
+  <si>
+    <t>http_headers_free:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.(0 + 0);free;freea);free;))</t>
+  </si>
+  <si>
+    <t>http_send_headers:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + (ua.0;a));))</t>
+  </si>
+  <si>
+    <t>http_headers_set_field:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(0 + 0);(0 + 0);(ua.0;a);((0 + 0) + free);))</t>
+  </si>
+  <si>
+    <t>http_headers_init:</t>
+  </si>
+  <si>
+    <t>(0 + ((0 + 0) + 0))</t>
+  </si>
+  <si>
+    <t>parse_uri:</t>
+  </si>
+  <si>
+    <t>(0 + 0);(0 + 0);((0 + 0) + 0);((0 + 0) + 0)</t>
+  </si>
+  <si>
+    <t>process_http:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + (0 + 0)));(0 + 0);(((0 + 0);(0 + 0) + 0) + 0);((0 + 0);0;(0 + (ua.0;a));(0 + 0);(0 + (((0 + (0 + (0 + 0))) + 0) + (ua.((ua.((((0 + 0) + 0) + 0) + 0);(0 + 0);((((free;) + ((free;) + 0)) + (((free;) + 0) + ((free;) + 0)));(0 + 0););a);((free;) + 0);));((0 + 0) + 0);((((0 + (0 + 0)) + 0) + 0) + ((0 + 0) + 0))));a;(0 + 0););))</t>
+  </si>
+  <si>
+    <t>process_websocket:  (</t>
+  </si>
+  <si>
+    <t>ua.((0 + (0 + 0));(0 + 0);((ua.((ua.0;a);)) + 0);((ua.((ua.0;a);)) + 0);(0 + 0);(ua.0;a);((a + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + 0));(0 + 0);((ua.((ua.0;a);)) + 0);((ua.((ua.0;a);)) + 0);(0 + 0);(ua.0;a);((a + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>process_websocket_frame_06:</t>
+  </si>
+  <si>
+    <t>process_websocket_frame:</t>
+  </si>
+  <si>
+    <t>get_header_line:</t>
+  </si>
+  <si>
+    <t>parse_header_line:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.((((0 + 0) + 0) + 0) + 0);(0 + 0);((((free;) + ((free;) + 0)) + (((free;) + 0) + ((free;) + 0)));(0 + 0););a);((free;) + 0);))</t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/src/json.c</t>
+  </si>
+  <si>
+    <t>json.c</t>
+  </si>
+  <si>
+    <t>json_lookup:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + 0));(ua.((0 + 0) + 0);(((((free;(0 + 0);) + 0);) + 0) + 0);a);free;))</t>
+  </si>
+  <si>
+    <t>json_aff:  (ua.((ua.0;a);))</t>
+  </si>
+  <si>
+    <t> (ua.((ua.0;a);))</t>
+  </si>
+  <si>
+    <t>tr.c:1597: Warning: Variable-sized local variable integer_str</t>
+  </si>
+  <si>
+    <t>init_json_parser:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));a);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));))</t>
+  </si>
+  <si>
+    <t> (ua.((ua.(0 + 0);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));a);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));))</t>
+  </si>
+  <si>
+    <t>json_callback:</t>
+  </si>
+  <si>
+    <t>0;((0 + 0) + 0)</t>
+  </si>
+  <si>
+    <t> 0;((0 + 0) + 0)</t>
+  </si>
+  <si>
+    <t>json_merge:</t>
+  </si>
+  <si>
+    <t>json_set_element_null:</t>
+  </si>
+  <si>
+    <t>((0 + 0) + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t> (0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_boolean:  </t>
+  </si>
+  <si>
+    <t>((0 + 0) + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>(0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_float:  </t>
+  </si>
+  <si>
+    <t>json_set_element_int: </t>
+  </si>
+  <si>
+    <t> ((0 + 0) + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>  (0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_obj:  </t>
+  </si>
+  <si>
+    <t>json_set_element_strZ:  </t>
+  </si>
+  <si>
+    <t>(0 + 0);((0 + 0) + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t> (0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_strN:  </t>
+  </si>
+  <si>
+    <t> (0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_property_strZ:  </t>
+  </si>
+  <si>
+    <t>  (0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_property_strN:  </t>
+  </si>
+  <si>
+    <t>json_set_property_null: </t>
+  </si>
+  <si>
+    <t>json_set_property_boolean:  </t>
+  </si>
+  <si>
+    <t>json_set_property_floatN:  </t>
+  </si>
+  <si>
+    <t>json_set_property_intZ:  </t>
+  </si>
+  <si>
+    <t>(0 + 0);((0 + 0) + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_property_intN:  </t>
+  </si>
+  <si>
+    <t>json_set_property_objZ:  </t>
+  </si>
+  <si>
+    <t>json_set_property_objN: </t>
+  </si>
+  <si>
+    <t>json_new_array:</t>
+  </si>
+  <si>
+    <t>json_new_object:</t>
+  </si>
+  <si>
+    <t>json_item_copy:  </t>
+  </si>
+  <si>
+    <t>free_json_item:  </t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);))</t>
+  </si>
+  <si>
+    <t> (ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);))</t>
+  </si>
+  <si>
+    <t>init_json_item:</t>
+  </si>
+  <si>
+    <t>json_to_string: </t>
+  </si>
+  <si>
+    <t> (ua.(((ua.((ua.0;a);)) + 0);(ua.(0 + 0);((free + 0) + 0);((ua.((ua.0;a);));(free + 0) + (((0 + 0) + 0) + ((0 + 0) + (0 + (0 + (0 + (0 + 0)))))));(0;a + 0);((0 + 0) + 0);(free + 0)a);))</t>
+  </si>
+  <si>
+    <t>escape_json_string:  </t>
+  </si>
+  <si>
+    <t>json_evaluate_string_size: </t>
+  </si>
+  <si>
+    <t>json_concat:  </t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>json_attach:</t>
+  </si>
+  <si>
+    <t>json_free:  </t>
+  </si>
+  <si>
+    <t>(ua.(free;(free + 0);(a + 0);(ua.0;a);free;))</t>
+  </si>
+  <si>
+    <t> (ua.(free;free;(a + 0);(ua.0;a);free;))</t>
+  </si>
+  <si>
+    <t>json_copy: </t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(a + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>set_json:  </t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/src/log.c</t>
+  </si>
+  <si>
+    <t>log.c</t>
+  </si>
+  <si>
+    <t>ape_log: </t>
+  </si>
+  <si>
+    <t> ((0 + 0) + ((0 + ((free + 0);));free))</t>
+  </si>
+  <si>
+    <t>ape_log_init: </t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(0 + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);((ua.0;a) + (((0 + 0) + ((0 + 0) + 0)) + 0));(0 + 0) + (0 + 0);(0 + 0));))</t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/modules/deps/mysac/mysac.c</t>
+  </si>
+  <si>
+    <t>mysac.c</t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/config/nsinstall.c</t>
+  </si>
+  <si>
+    <t>nsinstall.c</t>
+  </si>
+  <si>
+    <t>main: </t>
+  </si>
+  <si>
+    <t> (ua.0;a);(0 + 0);(0 + ((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));(0 + 0) + 0));(0 + 0);(0 + 0);((0 + 0);((0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0) + 0);(ua.(0 + 0);(((0 + 0) + 0);((0 + 0) + 0);(0 + ((0 + 0) + 0)) + ((0 + 0);(0 + (0 + ((0 + 0) + 0)));((0 + (0 + (0 + 0))) + (((0 + 0) + 0) + 0));((0 + 0) + 0);(free + 0) + (((ua.((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));((free;) + 0);(0 + (free;));(ua.0;a);free;free;free;)) + (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))) + (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);)))));freea);free;free</t>
+  </si>
+  <si>
+    <t>copydir: </t>
+  </si>
+  <si>
+    <t> (ua.((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));((free;) + 0);(0 + (free;));(ua.0;a);free;free;free;))</t>
+  </si>
+  <si>
+    <t>static void dnscb(struct dns_ctx *ctx, struct dns_rr_ptr *rr, void *data) { const char *ip = n2ip((unsigned char *)&amp;data); int i; --curq; if (rr) { printf("%s", ip); for(i = 0; i &lt; rr-&gt;dnsptr_nrr; ++i) printf(" %s", rr-&gt;dnsptr_ptr[i]); putchar('\n'); free(rr); } else fprintf(stderr, "%s: %s\n", ip, dns_strerror(dns_status(ctx))); }</t>
+  </si>
+  <si>
+    <t>copyfile:  </t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))</t>
+  </si>
+  <si>
+    <t> (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))</t>
+  </si>
+  <si>
+    <t>togid: </t>
+  </si>
+  <si>
+    <t> (0 + 0);((0 + 0) + 0)</t>
+  </si>
+  <si>
+    <t>togid:  (0 + 0);((0 + 0) + 0)</t>
+  </si>
+  <si>
+    <t>touid:  </t>
+  </si>
+  <si>
+    <t>touid:  (0 + 0);((0 + 0) + 0)</t>
+  </si>
+  <si>
+    <t>mkdirs:  </t>
+  </si>
+  <si>
+    <t>(ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)))</t>
+  </si>
+  <si>
+    <t> (ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)))</t>
+  </si>
+  <si>
+    <t>usage:  </t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/config/mkdepend/parse.c</t>
+  </si>
+  <si>
+    <t>parse.c</t>
+  </si>
+  <si>
+    <t>find_includes: </t>
+  </si>
+  <si>
+    <t> (ua.((ua.(0 + 0);(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;));(a;(ua.0;a);((ua.((ua.0;a);)) + 0);(0 + (0 + 0));(ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))));((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + 0) + ((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + a;(ua.0;a);((ua.((ua.0;a);)) + 0)) + (ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))))));((ua.((ua.0;a);)) + 0);(0 + 0);(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);));));((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + 0);(0 + 0);)a);))</t>
+  </si>
+  <si>
+    <t> (ua.((ua.(0 + 0);(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;));(a;(ua.0;a);((ua.((ua.0;a);)) + 0);(0 + (0 + 0));(ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))));((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + 0) + ((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + a;(ua.0;a);((ua.((ua.0;a);)) + 0)) + (ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))))));((ua.((ua.0;a);)) + 0);(0 + 0);(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);));));((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + 0);(0 + 0);)a);))</t>
+  </si>
+  <si>
+    <t>undefine:  </t>
+  </si>
+  <si>
+    <t>merge2defines:  </t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + (0 + 0)));(ua.0;a);(malloc;(0 + 0) + 0);(ua.0;a);(ua.0;a);(ua.0;a);(free + 0);))</t>
+  </si>
+  <si>
+    <t> (ua.((0 + (0 + (0 + 0)));(ua.0;a);(malloc;(0 + 0) + 0);(ua.0;a);(ua.0;a);(ua.0;a);free;))</t>
+  </si>
+  <si>
+    <t>slookup:  </t>
+  </si>
+  <si>
+    <t> (ua.(((ua.0;a) + 0);))</t>
+  </si>
+  <si>
+    <t>define:  </t>
+  </si>
+  <si>
+    <t>(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);));))</t>
+  </si>
+  <si>
+    <t> (ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);));))</t>
+  </si>
+  <si>
+    <t>define2: </t>
+  </si>
+  <si>
+    <t> (ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);))</t>
+  </si>
+  <si>
+    <t> (ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);))</t>
+  </si>
+  <si>
+    <t>zero_value:  </t>
+  </si>
+  <si>
+    <t>zero_value:  (0 + 0)</t>
+  </si>
+  <si>
+    <t>isdefined: </t>
+  </si>
+  <si>
+    <t> (ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);))</t>
+  </si>
+  <si>
+    <t>fdefined:  </t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));))</t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));))</t>
+  </si>
+  <si>
+    <t>deftype: </t>
+  </si>
+  <si>
+    <t> (ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;))</t>
+  </si>
+  <si>
+    <t>gobble: </t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/src/pipe.c</t>
+  </si>
+  <si>
+    <t>pipe.c</t>
+  </si>
+  <si>
+    <t>get_json_object_pipe: </t>
+  </si>
+  <si>
+    <t>get_json_object_pipe_custom: </t>
+  </si>
+  <si>
+    <t> (ua.((((ua.0;a);(0 + 0) + 0) + 0);))</t>
+  </si>
+  <si>
+    <t> (ua.(((ua.0;a);(0 + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>post_json_custom: </t>
+  </si>
+  <si>
+    <t> (0 + 0)</t>
+  </si>
+  <si>
+    <t>get_pipe_strict:  </t>
+  </si>
+  <si>
+    <t>(0 + 0);(((0 + 0) + 0) + 0)</t>
+  </si>
+  <si>
+    <t>get_pipe: </t>
+  </si>
+  <si>
+    <t>unlink_all_pipe: </t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(ua.(0 + 0);(0 + 0);freea);))</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.(0 + 0);(0 + 0);freea);))</t>
+  </si>
+  <si>
+    <t>link_pipe: </t>
+  </si>
+  <si>
+    <t> (0 + (0 + 0))</t>
+  </si>
+  <si>
+    <t>destroy_pipe:  </t>
+  </si>
+  <si>
+    <t> free</t>
+  </si>
+  <si>
+    <t>init_pipe: </t>
+  </si>
+  <si>
+    <t> (ua.((ua.((ua.0;a);));))</t>
+  </si>
+  <si>
+    <t>gen_sessid_new:  </t>
+  </si>
+  <si>
+    <t>  (ua.((ua.0;a);))</t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/src/plugins.c</t>
+  </si>
+  <si>
+    <t>plugins.c</t>
+  </si>
+  <si>
+    <t>plugin_get_conf: </t>
+  </si>
+  <si>
+    <t>plugin_read_config: </t>
+  </si>
+  <si>
+    <t> (ua.(((ua.((0 + 0);(ua.0;a);));(0 + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>plugin_parse_conf: </t>
+  </si>
+  <si>
+    <t>  (ua.((0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>free_all_plugins: </t>
   </si>
   <si>
     <t> (ua.((ua.(0 + 0);freea);))</t>
   </si>
   <si>
-    <t>  (ua.((ua.(0 + 0);freea);))</t>
-  </si>
-  <si>
-    <t>http_headers_free: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.(0 + 0);free;freea);free;))</t>
-  </si>
-  <si>
-    <t>  (ua.((0 + 0);(ua.(0 + 0);free;freea);free;))</t>
-  </si>
-  <si>
-    <t>http_send_headers:  </t>
-  </si>
-  <si>
-    <t>(ua.((0 + (ua.0;a));))</t>
-  </si>
-  <si>
-    <t>  (ua.((0 + (ua.0;a));))</t>
-  </si>
-  <si>
-    <t>http_headers_set_field:  </t>
-  </si>
-  <si>
-    <t>(ua.((0 + 0);(0 + 0);(0 + 0);(ua.0;a);((0 + 0) + free);))</t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(0 + 0);(0 + 0);(ua.0;a);((0 + 0) + free);))</t>
-  </si>
-  <si>
-    <t>http_headers_init:  </t>
-  </si>
-  <si>
-    <t>(0 + ((0 + 0) + 0))</t>
-  </si>
-  <si>
-    <t> (0 + ((0 + 0) + 0))</t>
-  </si>
-  <si>
-    <t>parse_uri:  </t>
-  </si>
-  <si>
-    <t>(0 + 0);(0 + 0);((0 + 0) + 0);((0 + 0) + 0)</t>
-  </si>
-  <si>
-    <t> (0 + 0);(0 + 0);((0 + 0) + 0);((0 + 0) + 0)</t>
-  </si>
-  <si>
-    <t>process_http:  </t>
-  </si>
-  <si>
-    <t>(ua.((0 + (0 + (0 + 0)));(0 + 0);(((0 + 0);(0 + 0) + 0) + 0);((0 + 0);0;(0 + (ua.0;a));(0 + 0);(0 + (((0 + (0 + (0 + 0))) + 0) + (ua.((ua.((((0 + 0) + 0) + 0) + 0);(0 + 0);((((free;) + ((free;) + 0)) + (((free;) + 0) + ((free;) + 0)));(0 + 0););a);((free;) + 0);));((0 + 0) + 0);((((0 + (0 + 0)) + 0) + 0) + ((0 + 0) + 0))));a;(0 + 0););))</t>
-  </si>
-  <si>
-    <t> (ua.((0 + (0 + (0 + 0)));(0 + 0);(((0 + 0);(0 + 0) + 0) + 0);((0 + 0);0;(0 + (ua.0;a));(0 + 0);(0 + (((0 + (0 + (0 + 0))) + 0) + (ua.((ua.((((0 + 0) + 0) + 0) + 0);(0 + 0);((((free;) + ((free;) + 0)) + (((free;) + 0) + ((free;) + 0)));(0 + 0););a);((free;) + 0);));((0 + 0) + 0);((((0 + (0 + 0)) + 0) + 0) + ((0 + 0) + 0))));a;(0 + 0););))</t>
-  </si>
-  <si>
-    <t>process_websocket:  (</t>
-  </si>
-  <si>
-    <t>ua.((0 + (0 + 0));(0 + 0);((ua.((ua.0;a);)) + 0);((ua.((ua.0;a);)) + 0);(0 + 0);(ua.0;a);((a + 0) + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.((0 + (0 + 0));(0 + 0);((ua.((ua.0;a);)) + 0);((ua.((ua.0;a);)) + 0);(0 + 0);(ua.0;a);((a + 0) + 0);))</t>
-  </si>
-  <si>
-    <t>process_websocket_frame_06:  </t>
-  </si>
-  <si>
-    <t>process_websocket_frame:  </t>
-  </si>
-  <si>
-    <t>get_header_line: </t>
-  </si>
-  <si>
-    <t>parse_header_line:  </t>
-  </si>
-  <si>
-    <t>(ua.((ua.((((0 + 0) + 0) + 0) + 0);(0 + 0);((((free;) + ((free;) + 0)) + (((free;) + 0) + ((free;) + 0)));(0 + 0););a);((free;) + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.((ua.((((0 + 0) + 0) + 0) + 0);(0 + 0);((((free;) + ((free;) + 0)) + (((free;) + 0) + ((free;) + 0)));(0 + 0););a);((free;) + 0);))</t>
-  </si>
-  <si>
-    <t>https://github.com/APE-Project/APE_Server/blob/master/src/json.c</t>
-  </si>
-  <si>
-    <t>json.c</t>
-  </si>
-  <si>
-    <t>json_lookup: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + (0 + 0));(ua.((0 + 0) + 0);(((((free;(0 + 0);) + 0);) + 0) + 0);a);free;))</t>
-  </si>
-  <si>
-    <t>json_aff:  (ua.((ua.0;a);))</t>
-  </si>
-  <si>
-    <t>init_json_parser: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));a);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));))</t>
-  </si>
-  <si>
-    <t>json_callback:  </t>
-  </si>
-  <si>
-    <t>0;((0 + 0) + 0)</t>
-  </si>
-  <si>
-    <t>json_merge:  </t>
-  </si>
-  <si>
-    <t>json_set_element_null:  </t>
-  </si>
-  <si>
-    <t>((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_boolean:  ((0 + 0) + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_float:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_int:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_obj:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_strZ:  (0 + 0);((0 + 0) + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_strN:  ((0 + 0) + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_strZ:  (0 + 0);((0 + 0) + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_strN:  ((0 + 0) + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_null:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_boolean:  ((0 + 0) + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_floatN:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_intZ:  (0 + 0);((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_intN:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_objZ:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_objN:  ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_new_array:  </t>
-  </si>
-  <si>
-    <t>json_new_object:  </t>
-  </si>
-  <si>
-    <t>json_item_copy:  (ua.((ua.0;a);))</t>
-  </si>
-  <si>
-    <t>free_json_item:  (ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);))</t>
-  </si>
-  <si>
-    <t>init_json_item:  </t>
-  </si>
-  <si>
-    <t>json_to_string:  (ua.(((ua.((ua.0;a);)) + 0);(ua.(0 + 0);((free + 0) + 0);((ua.((ua.0;a);));(free + 0) + (((0 + 0) + 0) + ((0 + 0) + (0 + (0 + (0 + (0 + 0)))))));(0;a + 0);((0 + 0) + 0);(free + 0)a);))</t>
-  </si>
-  <si>
-    <t>escape_json_string:  (ua.((ua.0;a);))</t>
-  </si>
-  <si>
-    <t>json_evaluate_string_size:  (ua.((ua.0;a);))</t>
-  </si>
-  <si>
-    <t>json_concat:  (ua.((0 + 0);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>json_attach:  </t>
-  </si>
-  <si>
-    <t>json_free:  (ua.(free;(free + 0);(a + 0);(ua.0;a);free;))</t>
-  </si>
-  <si>
-    <t>json_copy:  (ua.((0 + 0);(a + 0);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>set_json:  (0 + 0);(0 + 0);(0 + 0)</t>
+    <t>findandloadplugin: </t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(ua.(0 + 0);(0 + 0);((((free;) + 0);(0 + 0);(0 + 0);) + 0);a);))</t>
+  </si>
+  <si>
+    <t>void findandloadplugin(acetables *g_ape)
+{
+int i;
+char modules_path[1024];
+sprintf(modules_path, "%s*.so", CONFIG_VAL(Config, modules, g_ape-&gt;srv));
+void (*load)(ace_plugins *module);
+glob_t globbuf;
+glob(modules_path, 0, NULL, &amp;globbuf);
+for (i = 0; i &lt; globbuf.gl_pathc; i++) {
+ace_plugins *pcurrent;
+pcurrent = loadplugin(globbuf.gl_pathv[i]);
+if (pcurrent != NULL) {
+ace_plugins *plist = g_ape-&gt;plugins;
+load = dlsym(pcurrent-&gt;hPlug, "ape_module_init");
+if (load == NULL) {
+printf("[Module] Failed to load %s [No load entry point]\n", globbuf.gl_pathv[i]);
+free(pcurrent);
+continue;
+}
+memset(&amp;pcurrent-&gt;fire, 0, sizeof(pcurrent-&gt;fire)); /* unfire all events */
+/* Calling entry point load function */
+load(pcurrent);
+plugin_read_config(pcurrent, CONFIG_VAL(Config, modules_conf, g_ape-&gt;srv));
+if (!g_ape-&gt;is_daemon) {
+printf("[Module] [%s] Loading module : %s (%s) - %s\n", pcurrent-&gt;modulename, pcurrent-&gt;infos-&gt;name, pcurrent-&gt;infos-&gt;version, pcurrent-&gt;infos-&gt;author);
+}
+pcurrent-&gt;next = plist;
+g_ape-&gt;plugins = pcurrent;
+/* Calling init module */	
+pcurrent-&gt;loader(g_ape);
+}
+}
+globfree(&amp;globbuf);
+}</t>
+  </si>
+  <si>
+    <t>loadplugin: </t>
+  </si>
+  <si>
+    <t>https://github.com/APE-Project/APE_Server/blob/master/src/raw.c</t>
+  </si>
+  <si>
+    <t>raw.c</t>
+  </si>
+  <si>
+    <t>destroy_raw_pool: </t>
+  </si>
+  <si>
+    <t> (ua.((ua.(0 + 0);((((free;free;) + 0);) + 0);(((free + 0);) + 0);a);(free + 0);))</t>
+  </si>
+  <si>
+    <t> (ua.((ua.(0 + 0);((((free;free;) + 0);) + 0);(((free + 0);) + 0);a);free;))</t>
+  </si>
+  <si>
+    <t>expend_raw_pool: </t>
+  </si>
+  <si>
+    <t>init_raw_pool: </t>
+  </si>
+  <si>
+    <t>send_raws: </t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(ua.0;a);(0 + 0);((0 + 0) + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);));(0 + (0 + (0 + 0))) + 0);(ua.(0 + 0);(0 + 0);((0 + 0) + ((0 + 0) + ((0 + 0) + 0)));((free;free;) + 0);(0 + ((0 + 0) + 0))a);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>  (ua.((0 + 0);(ua.0;a);(0 + 0);(0 + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);));(0 + (0 + (0 + 0))) + 0);(ua.(0 + 0);(0 + 0);((0 + 0) + ((0 + 0) + ((0 + 0) + 0)));((free;free;) + 0);(0 + ((0 + 0) + 0))a);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>raws_size:  </t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t> (ua.((0 + 0);(0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>send_raw_inline: </t>
+  </si>
+  <si>
+    <t> (ua.(0;((0 + 0) + 0);((0 + 0);(ua.0;a);(0 + (0 + (0 + 0))) + 0);((0 + 0) + 0);((free;free;) + 0);))</t>
+  </si>
+  <si>
+    <t> (ua.(0;(0 + 0);((0 + 0);(ua.0;a);(0 + (0 + (0 + 0))) + 0);(0 + 0);((free;free;) + 0);))</t>
+  </si>
+  <si>
+    <t>post_to_pipe: </t>
+  </si>
+  <si>
+    <t> (ua.(((0 + 0) + 0);((free;;(ua.((0 + 0);(ua.0;a);)) + 0) + 0);(free;;(ua.((ua.0;a);));((free;;(ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + 0) + 0););))</t>
+  </si>
+  <si>
+    <t>(ua.(((0 + 0) + 0);(free;;(ua.((0 + 0);(ua.0;a);)) + 0);(free;;(ua.((ua.0;a);));((free;;(ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + 0) + 0););))</t>
+  </si>
+  <si>
+    <t>post_raw_pipe: </t>
+  </si>
+  <si>
+    <t> (ua.((((ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + (ua.((ua.0;a);))) + 0);))</t>
+  </si>
+  <si>
+    <t>post_raw_pipe:  (ua.(((ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + (ua.((ua.0;a);)));))</t>
+  </si>
+  <si>
+    <t>proxy_post_raw: </t>
+  </si>
+  <si>
+    <t>proxy_post_raw:  (ua.((ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw_channel_restricted: </t>
+  </si>
+  <si>
+    <t> (ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw_channel_restricted:  (ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw_channel:  </t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw_channel:  (ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw_restricted:  </t>
+  </si>
+  <si>
+    <t>post_raw_restricted:  (ua.((0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw:  </t>
+  </si>
+  <si>
+    <t>post_raw:  (ua.((ua.0;a);))</t>
+  </si>
+  <si>
+    <t>post_raw_sub:  </t>
+  </si>
+  <si>
+    <t>(ua.(((ua.0;a) + 0);(0 + 0);(0 + 0);))</t>
+  </si>
+  <si>
+    <t>post_raw_sub:  (ua.(((ua.0;a) + 0);(0 + 0);(0 + 0);))</t>
+  </si>
+  <si>
+    <t>copy_raw_z:  </t>
+  </si>
+  <si>
+    <t>copy_raw:  </t>
+  </si>
+  <si>
+    <t>free_raw:  </t>
+  </si>
+  <si>
+    <t>((free;free;) + 0)</t>
+  </si>
+  <si>
+    <t>free_raw:  ((free;free;) + 0)</t>
+  </si>
+  <si>
+    <t>forge_raw:  </t>
+  </si>
+  <si>
+    <t>forge_raw:  free</t>
   </si>
 </sst>
 </file>
@@ -3208,7 +3551,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
@@ -3254,6 +3597,9 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3332,21 +3678,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G415"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.2470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="51.7254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.3450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.6627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.6509803921569"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="25.9529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="10.9607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.0117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.6039215686274"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.9137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.9019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.0941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.0274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="1" s="2">
@@ -4770,7 +5116,7 @@
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="131" s="11">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="131" s="11">
       <c r="A131" s="11" t="s">
         <v>254</v>
       </c>
@@ -4800,206 +5146,203 @@
         <v>260</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>267</v>
-      </c>
       <c r="E135" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="136">
       <c r="C136" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="137">
+      <c r="C137" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D136" s="10" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="138">
+      <c r="C138" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="D138" s="10" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="137">
-      <c r="C137" s="1" t="s">
+      <c r="E138" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="139">
+      <c r="C139" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="138">
-      <c r="C138" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="140">
+      <c r="C140" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="D140" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>274</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="139">
-      <c r="C139" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="140">
-      <c r="C140" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D140" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1047.5" outlineLevel="0" r="141">
       <c r="C141" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D141" s="12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="142">
       <c r="C142" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="143">
+        <v>278</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="143">
       <c r="C143" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="144">
       <c r="C144" s="1" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="145">
+        <v>282</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="145">
       <c r="C145" s="1" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="146">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="146">
       <c r="C146" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="147">
+        <v>284</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="147">
       <c r="C147" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="148">
       <c r="C148" s="1" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="149">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="149">
       <c r="C149" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="150">
       <c r="C150" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="151">
       <c r="C151" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="153">
+        <v>294</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="153">
       <c r="C153" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="E153" s="1" t="s">
         <v>16</v>
@@ -5007,21 +5350,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="270.8" outlineLevel="0" r="154">
       <c r="C154" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="155">
+        <v>298</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="155">
       <c r="C155" s="1" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>16</v>
@@ -5030,9 +5373,9 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="156">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="156">
       <c r="C156" s="1" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D156" s="10" t="s">
         <v>100</v>
@@ -5043,261 +5386,261 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="158">
       <c r="C158" s="1" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="159">
+        <v>306</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="159">
       <c r="C159" s="1" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="160">
+        <v>308</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="160">
       <c r="C160" s="1" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="161">
+        <v>308</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="161">
       <c r="C161" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="162">
+        <v>310</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="162">
       <c r="C162" s="1" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="163">
       <c r="C163" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="164">
       <c r="C164" s="1" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="165">
       <c r="C165" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="166">
       <c r="C166" s="1" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="167">
       <c r="C167" s="1" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="168">
       <c r="C168" s="1" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="169">
       <c r="C169" s="1" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="170">
       <c r="C170" s="1" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="171">
       <c r="C171" s="1" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="555.8" outlineLevel="0" r="172">
       <c r="C172" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="173">
       <c r="C173" s="1" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1522.5" outlineLevel="0" r="174">
       <c r="C174" s="1" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1079.15" outlineLevel="0" r="175">
       <c r="C175" s="1" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="176">
       <c r="C176" s="1" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="177">
       <c r="C177" s="1" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="178">
       <c r="C178" s="1" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="179">
       <c r="C179" s="1" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>100</v>
@@ -5308,1221 +5651,1221 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="381.65" outlineLevel="0" r="180">
       <c r="C180" s="1" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="181">
       <c r="C181" s="1" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="182">
       <c r="C182" s="1" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="183">
+        <v>356</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="183">
       <c r="C183" s="1" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="184">
       <c r="C184" s="1" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="185">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="185">
       <c r="C185" s="1" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="186">
       <c r="C186" s="1" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="187">
+        <v>362</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="187">
       <c r="C187" s="1" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="188">
+        <v>364</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="188">
       <c r="C188" s="1" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="189">
       <c r="C189" s="1" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="190">
+        <v>304</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="190">
       <c r="C190" s="1" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="191">
       <c r="C191" s="1" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="192">
       <c r="C192" s="1" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="193">
       <c r="A193" s="1" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="194">
+        <v>374</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="194">
       <c r="C194" s="1" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="555.8" outlineLevel="0" r="195">
+        <v>375</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="540" outlineLevel="0" r="195">
       <c r="C195" s="1" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="920.8" outlineLevel="0" r="196">
       <c r="C196" s="1" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="197">
       <c r="C197" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="198">
+        <v>383</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="198">
       <c r="C198" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="199">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="199">
       <c r="C199" s="1" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="200">
+        <v>385</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="200">
       <c r="C200" s="1" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="201">
       <c r="C201" s="1" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="202">
       <c r="A202" s="1" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="D202" s="10" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>415</v>
+        <v>390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="920.8" outlineLevel="0" r="203">
       <c r="C203" s="1" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="204">
       <c r="C204" s="1" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="205">
+        <v>394</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="205">
       <c r="C205" s="1" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="206">
+        <v>396</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="206">
       <c r="C206" s="1" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="207">
+        <v>398</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="207">
       <c r="C207" s="1" t="s">
-        <v>427</v>
+        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="208">
       <c r="C208" s="1" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E208" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="209">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="209">
       <c r="C209" s="1" t="s">
-        <v>429</v>
+        <v>401</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="210">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="210">
       <c r="C210" s="1" t="s">
-        <v>430</v>
+        <v>402</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>431</v>
+        <v>403</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>432</v>
+        <v>403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="211">
       <c r="C211" s="1" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="212">
       <c r="C212" s="1" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>437</v>
+        <v>406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="213">
       <c r="C213" s="1" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>438</v>
+        <v>407</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="214">
+        <v>407</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="214">
       <c r="C214" s="1" t="s">
-        <v>440</v>
+        <v>408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="215">
       <c r="C215" s="1" t="s">
-        <v>441</v>
+        <v>116</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="216">
       <c r="C216" s="1" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="217">
       <c r="C217" s="1" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="218">
+        <v>61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="218">
       <c r="C218" s="1" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="219">
+        <v>412</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="219">
       <c r="C219" s="1" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="128.3" outlineLevel="0" r="220">
       <c r="A220" s="1" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="221">
       <c r="C221" s="1" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="222">
       <c r="C222" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
       <c r="D222" s="13" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E222" s="13" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="223">
       <c r="C223" s="1" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="224">
       <c r="C224" s="1" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="D224" s="13" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="E224" s="13" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="225">
       <c r="C225" s="1" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="226">
       <c r="C226" s="1" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="227">
       <c r="C227" s="1" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="D227" s="13" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="E227" s="13" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="228">
       <c r="C228" s="1" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="229">
       <c r="C229" s="1" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="230">
       <c r="C230" s="1" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="231">
       <c r="C231" s="1" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="D231" s="13" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="E231" s="13" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="232">
       <c r="C232" s="1" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="D232" s="13" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="E232" s="13" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="175.8" outlineLevel="0" r="233">
       <c r="C233" s="1" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="D233" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="234">
       <c r="C234" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="235">
       <c r="C235" s="1" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="236">
       <c r="C236" s="1" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="D236" s="13" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="237">
       <c r="C237" s="1" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="238">
       <c r="C238" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="682.5" outlineLevel="0" r="239">
       <c r="C239" s="1" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="240">
       <c r="C240" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="241">
       <c r="C241" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
       <c r="E241" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="242">
       <c r="C242" s="1" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="635" outlineLevel="0" r="243">
       <c r="C243" s="1" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="E243" s="14" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="445" outlineLevel="0" r="244">
       <c r="C244" s="1" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="D244" s="13" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="160" outlineLevel="0" r="245">
       <c r="C245" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="246">
       <c r="C246" s="1" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="247">
       <c r="C247" s="1" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="239.15" outlineLevel="0" r="248">
       <c r="C248" s="1" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="249">
       <c r="C249" s="1" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
       <c r="D249" s="13" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="250">
       <c r="C250" s="1" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="251">
       <c r="C251" s="1" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="D251" s="13" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="252">
       <c r="C252" s="1" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
       <c r="D252" s="13" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="253">
       <c r="C253" s="1" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E253" s="1" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="207.5" outlineLevel="0" r="254">
       <c r="C254" s="1" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="255">
       <c r="C255" s="1" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="256">
       <c r="C256" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>306</v>
+        <v>16</v>
       </c>
       <c r="E256" s="1" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="257">
       <c r="C257" s="1" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="258">
       <c r="C258" s="1" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="259">
       <c r="C259" s="1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="260">
       <c r="C260" s="1" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="261">
       <c r="C261" s="1" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="262">
       <c r="C262" s="1" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="263">
       <c r="C263" s="1" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="E263" s="1" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="264">
       <c r="C264" s="1" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="265">
       <c r="C265" s="1" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="266">
       <c r="C266" s="1" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
       <c r="E266" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="267">
       <c r="C267" s="1" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="268">
       <c r="C268" s="1" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="269">
       <c r="C269" s="1" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="270">
       <c r="C270" s="1" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="271">
       <c r="C271" s="1" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="E271" s="1" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="272">
       <c r="C272" s="1" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="273">
       <c r="C273" s="1" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="274">
       <c r="C274" s="1" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="275">
       <c r="C275" s="1" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="276">
       <c r="C276" s="1" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="277">
       <c r="C277" s="1" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="278">
       <c r="C278" s="1" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="279">
       <c r="C279" s="1" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="280">
       <c r="C280" s="1" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="281">
       <c r="C281" s="1" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="282">
       <c r="C282" s="1" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="283">
       <c r="C283" s="1" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="284">
       <c r="C284" s="1" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="285">
       <c r="C285" s="1" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="286">
       <c r="C286" s="1" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1524.85" outlineLevel="0" r="287">
       <c r="A287" s="1" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>614</v>
+        <v>74</v>
       </c>
       <c r="D287" s="15" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="E287" s="15" t="s">
-        <v>615</v>
+        <v>580</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>616</v>
+        <v>581</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="288">
       <c r="C288" s="1" t="s">
-        <v>617</v>
+        <v>582</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>618</v>
+        <v>68</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>618</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="289">
       <c r="C289" s="1" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="290">
       <c r="C290" s="1" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="291">
       <c r="C291" s="1" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="292">
       <c r="A292" s="1" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="293">
+        <v>589</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="293">
       <c r="C293" s="1" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="294">
+        <v>590</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="294">
       <c r="C294" s="1" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="295">
+        <v>591</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="295">
       <c r="C295" s="1" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="296">
       <c r="C296" s="1" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="297">
       <c r="C297" s="1" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="298">
       <c r="C298" s="1" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>298</v>
+        <v>61</v>
       </c>
       <c r="E298" s="1" t="s">
         <v>61</v>
@@ -6530,7 +6873,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="299">
       <c r="C299" s="1" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D299" s="4" t="s">
         <v>250</v>
@@ -6539,515 +6882,1307 @@
         <v>250</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="300">
-      <c r="A300" s="0"/>
-      <c r="B300" s="0"/>
+        <v>597</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="300">
       <c r="C300" s="1" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="301">
       <c r="A301" s="1" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>413</v>
+        <v>74</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>638</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="255" outlineLevel="0" r="302">
       <c r="C302" s="1" t="s">
-        <v>416</v>
+        <v>379</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="E302" s="4" t="s">
-        <v>639</v>
+        <v>602</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>640</v>
+        <v>603</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="303">
       <c r="C303" s="1" t="s">
-        <v>641</v>
+        <v>604</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="304">
       <c r="A304" s="1" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>643</v>
+        <v>606</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>644</v>
+        <v>607</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>645</v>
+        <v>608</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="365.8" outlineLevel="0" r="305">
+        <v>608</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="350" outlineLevel="0" r="305">
       <c r="B305" s="1" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>648</v>
+        <v>610</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>649</v>
+        <v>611</v>
       </c>
       <c r="E305" s="4" t="s">
-        <v>650</v>
+        <v>611</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>651</v>
+        <v>612</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="306">
       <c r="C306" s="1" t="s">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>653</v>
+        <v>614</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="307">
       <c r="C307" s="1" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>656</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="308">
       <c r="C308" s="1" t="s">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="309">
       <c r="A309" s="1" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="310">
       <c r="C310" s="1" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="311">
       <c r="B311" s="1" t="s">
-        <v>647</v>
+        <v>609</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="E311" s="4" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="312">
       <c r="C312" s="1" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="313">
+        <v>629</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="313">
       <c r="C313" s="1" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="314">
+        <v>630</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="314">
       <c r="C314" s="1" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="315">
       <c r="A315" s="1" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="316">
+        <v>635</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="316">
       <c r="C316" s="1" t="s">
-        <v>679</v>
+        <v>636</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>680</v>
+        <v>637</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="317">
+        <v>637</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="317">
       <c r="C317" s="1" t="s">
-        <v>682</v>
+        <v>638</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>683</v>
+        <v>639</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>684</v>
+        <v>639</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="318">
       <c r="C318" s="1" t="s">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>686</v>
+        <v>641</v>
       </c>
       <c r="E318" s="4" t="s">
-        <v>687</v>
+        <v>641</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="319">
       <c r="C319" s="1" t="s">
-        <v>688</v>
+        <v>642</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>689</v>
+        <v>643</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="320">
+        <v>643</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="320">
       <c r="C320" s="1" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>693</v>
+        <v>645</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="321">
       <c r="C321" s="1" t="s">
-        <v>694</v>
+        <v>646</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="E321" s="4" t="s">
-        <v>696</v>
+        <v>647</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="322">
       <c r="C322" s="1" t="s">
-        <v>697</v>
+        <v>648</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>698</v>
+        <v>649</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="323">
+        <v>650</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="323">
       <c r="C323" s="1" t="s">
-        <v>700</v>
+        <v>651</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="324">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="324">
       <c r="C324" s="1" t="s">
-        <v>701</v>
+        <v>652</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="325">
       <c r="C325" s="1" t="s">
-        <v>702</v>
+        <v>653</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>261</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="326">
       <c r="C326" s="1" t="s">
-        <v>703</v>
+        <v>654</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>704</v>
+        <v>655</v>
       </c>
       <c r="E326" s="4" t="s">
-        <v>705</v>
+        <v>655</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="327">
       <c r="A327" s="1" t="s">
-        <v>706</v>
+        <v>656</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>707</v>
+        <v>657</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>708</v>
+        <v>658</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="328">
+        <v>659</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="328">
       <c r="C328" s="1" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="329">
+        <v>660</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="329">
+      <c r="A329" s="1" t="s">
+        <v>662</v>
+      </c>
       <c r="C329" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>712</v>
+        <v>663</v>
+      </c>
+      <c r="D329" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E329" s="4" t="s">
+        <v>665</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="330">
       <c r="C330" s="1" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="331">
+        <v>667</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="331">
       <c r="C331" s="1" t="s">
-        <v>715</v>
+        <v>669</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="332">
       <c r="C332" s="1" t="s">
-        <v>716</v>
+        <v>670</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="333">
+        <v>671</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="333">
       <c r="C333" s="1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="334">
+        <v>673</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="334">
       <c r="C334" s="1" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="335">
+        <v>676</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="335">
       <c r="C335" s="1" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="336">
+        <v>677</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="336">
       <c r="C336" s="1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="337">
+        <v>680</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="337">
       <c r="C337" s="1" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="338">
+        <v>681</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="338">
       <c r="C338" s="1" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="339">
+        <v>684</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="339">
       <c r="C339" s="1" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="340">
+        <v>686</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="E339" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="340">
       <c r="C340" s="1" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="341">
+        <v>688</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E340" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="341">
       <c r="C341" s="1" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="342">
+        <v>689</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="342">
       <c r="C342" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="343">
+        <v>690</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E342" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="343">
       <c r="C343" s="1" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="344">
+        <v>691</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E343" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="344">
       <c r="C344" s="1" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="345">
+        <v>692</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="345">
       <c r="C345" s="1" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="346">
+        <v>694</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E345" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="346">
       <c r="C346" s="1" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="347">
+        <v>695</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="E346" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="347">
       <c r="C347" s="1" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="348">
+        <v>696</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="E347" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="348">
       <c r="C348" s="1" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="349">
+        <v>697</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="349">
       <c r="C349" s="1" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="350">
+        <v>698</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="350">
       <c r="C350" s="1" t="s">
-        <v>735</v>
+        <v>699</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E350" s="1" t="s">
+        <v>661</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="351">
       <c r="C351" s="1" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="352">
+        <v>700</v>
+      </c>
+      <c r="D351" s="4" t="s">
+        <v>701</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="352">
       <c r="C352" s="1" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="353">
       <c r="C353" s="1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="354">
+        <v>704</v>
+      </c>
+      <c r="D353" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="354">
       <c r="C354" s="1" t="s">
-        <v>739</v>
+        <v>706</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E354" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="355">
       <c r="C355" s="1" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="356">
+        <v>707</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E355" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="356">
       <c r="C356" s="1" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="357">
+        <v>708</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="357">
       <c r="C357" s="1" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="358">
       <c r="C358" s="1" t="s">
-        <v>743</v>
+        <v>711</v>
+      </c>
+      <c r="D358" s="13" t="s">
+        <v>712</v>
+      </c>
+      <c r="E358" s="13" t="s">
+        <v>713</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="359">
       <c r="C359" s="1" t="s">
-        <v>744</v>
+        <v>714</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="E359" s="1" t="s">
+        <v>715</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="360">
       <c r="C360" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="361">
+      <c r="A361" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="B361" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C361" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="D361" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="362">
+      <c r="C362" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="E362" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="363">
+      <c r="A363" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="B363" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="270.8" outlineLevel="0" r="364">
+      <c r="A364" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="B364" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C364" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="365">
+      <c r="C365" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="D365" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="F365" s="16" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="366">
+      <c r="C366" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E366" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="367">
+      <c r="C367" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="E367" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="368">
+      <c r="C368" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="369">
+      <c r="C369" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="E369" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="370">
+      <c r="C370" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="371">
+      <c r="A371" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B371" s="1" t="s">
         <v>745</v>
+      </c>
+      <c r="C371" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="E371" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="372">
+      <c r="C372" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="373">
+      <c r="C373" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="D373" s="13" t="s">
+        <v>751</v>
+      </c>
+      <c r="E373" s="13" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="374">
+      <c r="C374" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="E374" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="375">
+      <c r="C375" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="D375" s="13" t="s">
+        <v>756</v>
+      </c>
+      <c r="E375" s="13" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="376">
+      <c r="C376" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="D376" s="13" t="s">
+        <v>759</v>
+      </c>
+      <c r="E376" s="13" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="377">
+      <c r="C377" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E377" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="378">
+      <c r="C378" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="E378" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="379">
+      <c r="C379" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="E379" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="380">
+      <c r="C380" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="381">
+      <c r="C381" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="382">
+      <c r="A382" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="D382" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E382" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="383">
+      <c r="C383" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="384">
+      <c r="C384" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="385">
+      <c r="C385" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="386">
+      <c r="C386" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="387">
+      <c r="C387" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="388">
+      <c r="C388" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="389">
+      <c r="C389" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="390">
+      <c r="C390" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="391">
+      <c r="C391" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="392">
+      <c r="A392" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="393">
+      <c r="C393" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="394">
+      <c r="C394" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="395">
+      <c r="C395" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="650.8" outlineLevel="0" r="396">
+      <c r="C396" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D396" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="F396" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="397">
+      <c r="C397" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="398">
+      <c r="A398" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D398" s="14" t="s">
+        <v>809</v>
+      </c>
+      <c r="E398" s="14" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="399">
+      <c r="C399" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="400">
+      <c r="C400" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="401">
+      <c r="C401" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="D401" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="402">
+      <c r="C402" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="403">
+      <c r="C403" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="D403" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="404">
+      <c r="C404" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="405">
+      <c r="C405" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="406">
+      <c r="C406" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="407">
+      <c r="C407" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="408">
+      <c r="C408" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="409">
+      <c r="C409" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="410">
+      <c r="C410" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="411">
+      <c r="C411" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="412">
+      <c r="C412" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="413">
+      <c r="C413" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="414">
+      <c r="C414" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="415">
+      <c r="C415" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/expm.xlsx
+++ b/expm.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13440"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2829,7 +2833,7 @@
     <t>json_aff:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t> (ua.((ua.0;a);))</t>
+    <t>(ua.((ua.0;a);))</t>
   </si>
   <si>
     <t>tr.c:1597: Warning: Variable-sized local variable integer_str</t>
@@ -2841,7 +2845,7 @@
     <t>(ua.((ua.(0 + 0);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));a);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));))</t>
   </si>
   <si>
-    <t> (ua.((ua.(0 + 0);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));a);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));))</t>
+    <t>(ua.((ua.(0 + 0);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));a);(0 + ((ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);));));))</t>
   </si>
   <si>
     <t>json_callback:</t>
@@ -2850,7 +2854,7 @@
     <t>0;((0 + 0) + 0)</t>
   </si>
   <si>
-    <t> 0;((0 + 0) + 0)</t>
+    <t>0;((0 + 0) + 0)</t>
   </si>
   <si>
     <t>json_merge:</t>
@@ -2862,10 +2866,10 @@
     <t>((0 + 0) + 0);(0 + 0)</t>
   </si>
   <si>
-    <t> (0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_boolean:  </t>
+    <t>(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_boolean:</t>
   </si>
   <si>
     <t>((0 + 0) + 0);(0 + 0);(0 + 0)</t>
@@ -2874,67 +2878,67 @@
     <t>(0 + 0);(0 + 0);(0 + 0)</t>
   </si>
   <si>
-    <t>json_set_element_float:  </t>
-  </si>
-  <si>
-    <t>json_set_element_int: </t>
-  </si>
-  <si>
-    <t> ((0 + 0) + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>  (0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_obj:  </t>
-  </si>
-  <si>
-    <t>json_set_element_strZ:  </t>
+    <t>json_set_element_float:</t>
+  </si>
+  <si>
+    <t>json_set_element_int:</t>
+  </si>
+  <si>
+    <t>((0 + 0) + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_obj:</t>
+  </si>
+  <si>
+    <t>json_set_element_strZ:</t>
   </si>
   <si>
     <t>(0 + 0);((0 + 0) + 0);(0 + 0);(0 + 0)</t>
   </si>
   <si>
-    <t> (0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_element_strN:  </t>
-  </si>
-  <si>
-    <t> (0 + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_strZ:  </t>
-  </si>
-  <si>
-    <t>  (0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
-  </si>
-  <si>
-    <t>json_set_property_strN:  </t>
-  </si>
-  <si>
-    <t>json_set_property_null: </t>
-  </si>
-  <si>
-    <t>json_set_property_boolean:  </t>
-  </si>
-  <si>
-    <t>json_set_property_floatN:  </t>
-  </si>
-  <si>
-    <t>json_set_property_intZ:  </t>
+    <t>(0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_element_strN:</t>
+  </si>
+  <si>
+    <t>(0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_property_strZ:</t>
+  </si>
+  <si>
+    <t>(0 + 0);(0 + 0);(0 + 0);(0 + 0)</t>
+  </si>
+  <si>
+    <t>json_set_property_strN:</t>
+  </si>
+  <si>
+    <t>json_set_property_null:</t>
+  </si>
+  <si>
+    <t>json_set_property_boolean:</t>
+  </si>
+  <si>
+    <t>json_set_property_floatN:</t>
+  </si>
+  <si>
+    <t>json_set_property_intZ:</t>
   </si>
   <si>
     <t>(0 + 0);((0 + 0) + 0);(0 + 0)</t>
   </si>
   <si>
-    <t>json_set_property_intN:  </t>
-  </si>
-  <si>
-    <t>json_set_property_objZ:  </t>
-  </si>
-  <si>
-    <t>json_set_property_objN: </t>
+    <t>json_set_property_intN:</t>
+  </si>
+  <si>
+    <t>json_set_property_objZ:</t>
+  </si>
+  <si>
+    <t>json_set_property_objN:</t>
   </si>
   <si>
     <t>json_new_array:</t>
@@ -2943,58 +2947,58 @@
     <t>json_new_object:</t>
   </si>
   <si>
-    <t>json_item_copy:  </t>
-  </si>
-  <si>
-    <t>free_json_item:  </t>
+    <t>json_item_copy:</t>
+  </si>
+  <si>
+    <t>free_json_item:</t>
   </si>
   <si>
     <t>(ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);))</t>
   </si>
   <si>
-    <t> (ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);))</t>
+    <t>(ua.((ua.(0 + 0);(free + 0);(free + 0);(a + 0);freea);))</t>
   </si>
   <si>
     <t>init_json_item:</t>
   </si>
   <si>
-    <t>json_to_string: </t>
-  </si>
-  <si>
-    <t> (ua.(((ua.((ua.0;a);)) + 0);(ua.(0 + 0);((free + 0) + 0);((ua.((ua.0;a);));(free + 0) + (((0 + 0) + 0) + ((0 + 0) + (0 + (0 + (0 + (0 + 0)))))));(0;a + 0);((0 + 0) + 0);(free + 0)a);))</t>
-  </si>
-  <si>
-    <t>escape_json_string:  </t>
-  </si>
-  <si>
-    <t>json_evaluate_string_size: </t>
-  </si>
-  <si>
-    <t>json_concat:  </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.0;a);))</t>
+    <t>json_to_string:</t>
+  </si>
+  <si>
+    <t>(ua.(((ua.((ua.0;a);)) + 0);(ua.(0 + 0);((free + 0) + 0);((ua.((ua.0;a);));(free + 0) + (((0 + 0) + 0) + ((0 + 0) + (0 + (0 + (0 + (0 + 0)))))));(0;a + 0);((0 + 0) + 0);(free + 0)a);))</t>
+  </si>
+  <si>
+    <t>escape_json_string:</t>
+  </si>
+  <si>
+    <t>json_evaluate_string_size:</t>
+  </si>
+  <si>
+    <t>json_concat:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.0;a);))</t>
   </si>
   <si>
     <t>json_attach:</t>
   </si>
   <si>
-    <t>json_free:  </t>
+    <t>json_free:</t>
   </si>
   <si>
     <t>(ua.(free;(free + 0);(a + 0);(ua.0;a);free;))</t>
   </si>
   <si>
-    <t> (ua.(free;free;(a + 0);(ua.0;a);free;))</t>
-  </si>
-  <si>
-    <t>json_copy: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(a + 0);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>set_json:  </t>
+    <t>(ua.(free;free;(a + 0);(ua.0;a);free;))</t>
+  </si>
+  <si>
+    <t>json_copy:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(a + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>set_json:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/log.c</t>
@@ -3003,16 +3007,16 @@
     <t>log.c</t>
   </si>
   <si>
-    <t>ape_log: </t>
-  </si>
-  <si>
-    <t> ((0 + 0) + ((0 + ((free + 0);));free))</t>
-  </si>
-  <si>
-    <t>ape_log_init: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(0 + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);((ua.0;a) + (((0 + 0) + ((0 + 0) + 0)) + 0));(0 + 0) + (0 + 0);(0 + 0));))</t>
+    <t>ape_log:</t>
+  </si>
+  <si>
+    <t>((0 + 0) + ((0 + ((free + 0);));free))</t>
+  </si>
+  <si>
+    <t>ape_log_init:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(0 + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);(ua.0;a);((ua.0;a) + (((0 + 0) + ((0 + 0) + 0)) + 0));(0 + 0) + (0 + 0);(0 + 0));))</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/modules/deps/mysac/mysac.c</t>
@@ -3027,55 +3031,55 @@
     <t>nsinstall.c</t>
   </si>
   <si>
-    <t>main: </t>
-  </si>
-  <si>
-    <t> (ua.0;a);(0 + 0);(0 + ((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));(0 + 0) + 0));(0 + 0);(0 + 0);((0 + 0);((0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0) + 0);(ua.(0 + 0);(((0 + 0) + 0);((0 + 0) + 0);(0 + ((0 + 0) + 0)) + ((0 + 0);(0 + (0 + ((0 + 0) + 0)));((0 + (0 + (0 + 0))) + (((0 + 0) + 0) + 0));((0 + 0) + 0);(free + 0) + (((ua.((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));((free;) + 0);(0 + (free;));(ua.0;a);free;free;free;)) + (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))) + (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);)))));freea);free;free</t>
-  </si>
-  <si>
-    <t>copydir: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));((free;) + 0);(0 + (free;));(ua.0;a);free;free;free;))</t>
+    <t>main:</t>
+  </si>
+  <si>
+    <t>(ua.0;a);(0 + 0);(0 + ((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));(0 + 0) + 0));(0 + 0);(0 + 0);((0 + 0);((0 + 0) + 0) + 0);((0 + 0);((0 + 0) + 0) + 0);(ua.(0 + 0);(((0 + 0) + 0);((0 + 0) + 0);(0 + ((0 + 0) + 0)) + ((0 + 0);(0 + (0 + ((0 + 0) + 0)));((0 + (0 + (0 + 0))) + (((0 + 0) + 0) + 0));((0 + 0) + 0);(free + 0) + (((ua.((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));((free;) + 0);(0 + (free;));(ua.0;a);free;free;free;)) + (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))) + (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);)))));freea);free;free</t>
+  </si>
+  <si>
+    <t>copydir:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)));((free;) + 0);(0 + (free;));(ua.0;a);free;free;free;))</t>
   </si>
   <si>
     <t>static void dnscb(struct dns_ctx *ctx, struct dns_rr_ptr *rr, void *data) { const char *ip = n2ip((unsigned char *)&amp;data); int i; --curq; if (rr) { printf("%s", ip); for(i = 0; i &lt; rr-&gt;dnsptr_nrr; ++i) printf(" %s", rr-&gt;dnsptr_ptr[i]); putchar('\n'); free(rr); } else fprintf(stderr, "%s: %s\n", ip, dns_strerror(dns_status(ctx))); }</t>
   </si>
   <si>
-    <t>copyfile:  </t>
+    <t>copyfile:</t>
   </si>
   <si>
     <t>(ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))</t>
   </si>
   <si>
-    <t> (ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))</t>
-  </si>
-  <si>
-    <t>togid: </t>
-  </si>
-  <si>
-    <t> (0 + 0);((0 + 0) + 0)</t>
+    <t>(ua.((0 + (0 + 0));((0 + 0);((0 + 0) + 0) + 0);((0 + 0) + 0);(ua.0;a);(0 + 0);(0 + 0);((0 + 0) + 0);(0 + 0);(0 + ((0 + 0) + 0));(0 + 0);))</t>
+  </si>
+  <si>
+    <t>togid:</t>
+  </si>
+  <si>
+    <t>(0 + 0);((0 + 0) + 0)</t>
   </si>
   <si>
     <t>togid:  (0 + 0);((0 + 0) + 0)</t>
   </si>
   <si>
-    <t>touid:  </t>
+    <t>touid:</t>
   </si>
   <si>
     <t>touid:  (0 + 0);((0 + 0) + 0)</t>
   </si>
   <si>
-    <t>mkdirs:  </t>
+    <t>mkdirs:</t>
   </si>
   <si>
     <t>(ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)))</t>
   </si>
   <si>
-    <t> (ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)))</t>
-  </si>
-  <si>
-    <t>usage:  </t>
+    <t>(ua.((((0 + 0) + 0) + 0);(ua.0;a);(ua.0;a);(((0 + (a;(0 + 0) + 0)) + 0) + 0);((0 + 0) + 0)))</t>
+  </si>
+  <si>
+    <t>usage:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/config/mkdepend/parse.c</t>
@@ -3084,79 +3088,79 @@
     <t>parse.c</t>
   </si>
   <si>
-    <t>find_includes: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;));(a;(ua.0;a);((ua.((ua.0;a);)) + 0);(0 + (0 + 0));(ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))));((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + 0) + ((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + a;(ua.0;a);((ua.((ua.0;a);)) + 0)) + (ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))))));((ua.((ua.0;a);)) + 0);(0 + 0);(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);));));((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + 0);(0 + 0);)a);))</t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;));(a;(ua.0;a);((ua.((ua.0;a);)) + 0);(0 + (0 + 0));(ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))));((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + 0) + ((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + a;(ua.0;a);((ua.((ua.0;a);)) + 0)) + (ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))))));((ua.((ua.0;a);)) + 0);(0 + 0);(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);));));((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + 0);(0 + 0);)a);))</t>
-  </si>
-  <si>
-    <t>undefine:  </t>
-  </si>
-  <si>
-    <t>merge2defines:  </t>
+    <t>find_includes:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;));(a;(ua.0;a);((ua.((ua.0;a);)) + 0);(0 + (0 + 0));(ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))));((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + 0) + ((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + a;(ua.0;a);((ua.((ua.0;a);)) + 0)) + (ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))))));((ua.((ua.0;a);)) + 0);(0 + 0);(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);));));((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + 0);(0 + 0);)a);))</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;));(a;(ua.0;a);((ua.((ua.0;a);)) + 0);(0 + (0 + 0));(ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))));((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + 0) + ((ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);));(0 + a;(ua.0;a);((ua.((ua.0;a);)) + 0)) + (ua.((ua.0;a);));(a + (0 + (0 + (0 + 0))))));((ua.((ua.0;a);)) + 0);(0 + 0);(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);));));((0 + 0) + 0);(ua.((ua.0;a);));(0 + 0);(0 + 0);(0 + 0);)a);))</t>
+  </si>
+  <si>
+    <t>undefine:</t>
+  </si>
+  <si>
+    <t>merge2defines:</t>
   </si>
   <si>
     <t>(ua.((0 + (0 + (0 + 0)));(ua.0;a);(malloc;(0 + 0) + 0);(ua.0;a);(ua.0;a);(ua.0;a);(free + 0);))</t>
   </si>
   <si>
-    <t> (ua.((0 + (0 + (0 + 0)));(ua.0;a);(malloc;(0 + 0) + 0);(ua.0;a);(ua.0;a);(ua.0;a);free;))</t>
-  </si>
-  <si>
-    <t>slookup:  </t>
-  </si>
-  <si>
-    <t> (ua.(((ua.0;a) + 0);))</t>
-  </si>
-  <si>
-    <t>define:  </t>
+    <t>(ua.((0 + (0 + (0 + 0)));(ua.0;a);(malloc;(0 + 0) + 0);(ua.0;a);(ua.0;a);(ua.0;a);free;))</t>
+  </si>
+  <si>
+    <t>slookup:</t>
+  </si>
+  <si>
+    <t>(ua.(((ua.0;a) + 0);))</t>
+  </si>
+  <si>
+    <t>define:</t>
   </si>
   <si>
     <t>(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);));))</t>
   </si>
   <si>
-    <t> (ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);));))</t>
-  </si>
-  <si>
-    <t>define2: </t>
-  </si>
-  <si>
-    <t> (ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);))</t>
-  </si>
-  <si>
-    <t>zero_value:  </t>
+    <t>(ua.((ua.0;a);(0 + 0);(ua.0;a);(0 + 0);(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);));))</t>
+  </si>
+  <si>
+    <t>define2:</t>
+  </si>
+  <si>
+    <t>(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);((free;) + 0);(ua.0;a);malloc;(0 + 0);))</t>
+  </si>
+  <si>
+    <t>(ua.((malloc + (0 + 0));(0 + 0);(ua.0;a);free;(ua.0;a);malloc;(0 + 0);))</t>
+  </si>
+  <si>
+    <t>zero_value:</t>
   </si>
   <si>
     <t>zero_value:  (0 + 0)</t>
   </si>
   <si>
-    <t>isdefined: </t>
-  </si>
-  <si>
-    <t> (ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);))</t>
-  </si>
-  <si>
-    <t>fdefined:  </t>
+    <t>isdefined:</t>
+  </si>
+  <si>
+    <t>(ua.(((0 + 0) + 0);(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));));(0 + 0);))</t>
+  </si>
+  <si>
+    <t>fdefined:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));))</t>
   </si>
   <si>
-    <t> (ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));))</t>
-  </si>
-  <si>
-    <t>deftype: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;))</t>
-  </si>
-  <si>
-    <t>gobble: </t>
+    <t>(ua.((0 + 0);(((ua.0;a) + 0) + ((0 + 0) + 0));))</t>
+  </si>
+  <si>
+    <t>deftype:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.0;a);(ua.0;a);(((ua.0;a);((0 + 0) + 0) + 0) + 0);(0 + (0 + 0));(ua.0;a);(ua.0;a);0;))</t>
+  </si>
+  <si>
+    <t>gobble:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/pipe.c</t>
@@ -3165,64 +3169,64 @@
     <t>pipe.c</t>
   </si>
   <si>
-    <t>get_json_object_pipe: </t>
-  </si>
-  <si>
-    <t>get_json_object_pipe_custom: </t>
-  </si>
-  <si>
-    <t> (ua.((((ua.0;a);(0 + 0) + 0) + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.(((ua.0;a);(0 + 0) + 0);))</t>
-  </si>
-  <si>
-    <t>post_json_custom: </t>
-  </si>
-  <si>
-    <t> (0 + 0)</t>
-  </si>
-  <si>
-    <t>get_pipe_strict:  </t>
+    <t>get_json_object_pipe:</t>
+  </si>
+  <si>
+    <t>get_json_object_pipe_custom:</t>
+  </si>
+  <si>
+    <t>(ua.((((ua.0;a);(0 + 0) + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>(ua.(((ua.0;a);(0 + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>post_json_custom:</t>
+  </si>
+  <si>
+    <t>(0 + 0)</t>
+  </si>
+  <si>
+    <t>get_pipe_strict:</t>
   </si>
   <si>
     <t>(0 + 0);(((0 + 0) + 0) + 0)</t>
   </si>
   <si>
-    <t>get_pipe: </t>
-  </si>
-  <si>
-    <t>unlink_all_pipe: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.(0 + 0);(0 + 0);freea);))</t>
+    <t>get_pipe:</t>
+  </si>
+  <si>
+    <t>unlink_all_pipe:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(ua.(0 + 0);(0 + 0);freea);))</t>
   </si>
   <si>
-    <t>link_pipe: </t>
-  </si>
-  <si>
-    <t> (0 + (0 + 0))</t>
-  </si>
-  <si>
-    <t>destroy_pipe:  </t>
-  </si>
-  <si>
-    <t> free</t>
-  </si>
-  <si>
-    <t>init_pipe: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.((ua.0;a);));))</t>
-  </si>
-  <si>
-    <t>gen_sessid_new:  </t>
-  </si>
-  <si>
-    <t>  (ua.((ua.0;a);))</t>
+    <t>(ua.((0 + 0);(ua.(0 + 0);(0 + 0);freea);))</t>
+  </si>
+  <si>
+    <t>link_pipe:</t>
+  </si>
+  <si>
+    <t>(0 + (0 + 0))</t>
+  </si>
+  <si>
+    <t>destroy_pipe:</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>init_pipe:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.((ua.0;a);));))</t>
+  </si>
+  <si>
+    <t>gen_sessid_new:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.0;a);))</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/plugins.c</t>
@@ -3231,31 +3235,31 @@
     <t>plugins.c</t>
   </si>
   <si>
-    <t>plugin_get_conf: </t>
-  </si>
-  <si>
-    <t>plugin_read_config: </t>
-  </si>
-  <si>
-    <t> (ua.(((ua.((0 + 0);(ua.0;a);));(0 + 0) + 0);))</t>
-  </si>
-  <si>
-    <t>plugin_parse_conf: </t>
-  </si>
-  <si>
-    <t>  (ua.((0 + 0);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>free_all_plugins: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);freea);))</t>
-  </si>
-  <si>
-    <t>findandloadplugin: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.(0 + 0);(0 + 0);((((free;) + 0);(0 + 0);(0 + 0);) + 0);a);))</t>
+    <t>plugin_get_conf:</t>
+  </si>
+  <si>
+    <t>plugin_read_config:</t>
+  </si>
+  <si>
+    <t>(ua.(((ua.((0 + 0);(ua.0;a);));(0 + 0) + 0);))</t>
+  </si>
+  <si>
+    <t>plugin_parse_conf:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>free_all_plugins:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);freea);))</t>
+  </si>
+  <si>
+    <t>findandloadplugin:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.(0 + 0);(0 + 0);((((free;) + 0);(0 + 0);(0 + 0);) + 0);a);))</t>
   </si>
   <si>
     <t>void findandloadplugin(acetables *g_ape)
@@ -3294,7 +3298,7 @@
 }</t>
   </si>
   <si>
-    <t>loadplugin: </t>
+    <t>loadplugin:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/raw.c</t>
@@ -3303,82 +3307,82 @@
     <t>raw.c</t>
   </si>
   <si>
-    <t>destroy_raw_pool: </t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);((((free;free;) + 0);) + 0);(((free + 0);) + 0);a);(free + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.((ua.(0 + 0);((((free;free;) + 0);) + 0);(((free + 0);) + 0);a);free;))</t>
-  </si>
-  <si>
-    <t>expend_raw_pool: </t>
-  </si>
-  <si>
-    <t>init_raw_pool: </t>
-  </si>
-  <si>
-    <t>send_raws: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + 0);(ua.0;a);(0 + 0);((0 + 0) + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);));(0 + (0 + (0 + 0))) + 0);(ua.(0 + 0);(0 + 0);((0 + 0) + ((0 + 0) + ((0 + 0) + 0)));((free;free;) + 0);(0 + ((0 + 0) + 0))a);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>  (ua.((0 + 0);(ua.0;a);(0 + 0);(0 + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);));(0 + (0 + (0 + 0))) + 0);(ua.(0 + 0);(0 + 0);((0 + 0) + ((0 + 0) + ((0 + 0) + 0)));((free;free;) + 0);(0 + ((0 + 0) + 0))a);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>raws_size:  </t>
+    <t>destroy_raw_pool:</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);((((free;free;) + 0);) + 0);(((free + 0);) + 0);a);(free + 0);))</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(0 + 0);((((free;free;) + 0);) + 0);(((free + 0);) + 0);a);free;))</t>
+  </si>
+  <si>
+    <t>expend_raw_pool:</t>
+  </si>
+  <si>
+    <t>init_raw_pool:</t>
+  </si>
+  <si>
+    <t>send_raws:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.0;a);(0 + 0);((0 + 0) + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);));(0 + (0 + (0 + 0))) + 0);(ua.(0 + 0);(0 + 0);((0 + 0) + ((0 + 0) + ((0 + 0) + 0)));((free;free;) + 0);(0 + ((0 + 0) + 0))a);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>(ua.((0 + 0);(ua.0;a);(0 + 0);(0 + 0);(0 + 0);((0 + 0);(ua.0;a);(ua.((0 + 0);(0 + 0);(ua.0;a);));(0 + (0 + (0 + 0))) + 0);(ua.(0 + 0);(0 + 0);((0 + 0) + ((0 + 0) + ((0 + 0) + 0)));((free;free;) + 0);(0 + ((0 + 0) + 0))a);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>raws_size:</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(0 + 0);(ua.0;a);))</t>
   </si>
   <si>
-    <t> (ua.((0 + 0);(0 + 0);(ua.0;a);))</t>
-  </si>
-  <si>
-    <t>send_raw_inline: </t>
-  </si>
-  <si>
-    <t> (ua.(0;((0 + 0) + 0);((0 + 0);(ua.0;a);(0 + (0 + (0 + 0))) + 0);((0 + 0) + 0);((free;free;) + 0);))</t>
-  </si>
-  <si>
-    <t> (ua.(0;(0 + 0);((0 + 0);(ua.0;a);(0 + (0 + (0 + 0))) + 0);(0 + 0);((free;free;) + 0);))</t>
-  </si>
-  <si>
-    <t>post_to_pipe: </t>
-  </si>
-  <si>
-    <t> (ua.(((0 + 0) + 0);((free;;(ua.((0 + 0);(ua.0;a);)) + 0) + 0);(free;;(ua.((ua.0;a);));((free;;(ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + 0) + 0););))</t>
+    <t>(ua.((0 + 0);(0 + 0);(ua.0;a);))</t>
+  </si>
+  <si>
+    <t>send_raw_inline:</t>
+  </si>
+  <si>
+    <t>(ua.(0;((0 + 0) + 0);((0 + 0);(ua.0;a);(0 + (0 + (0 + 0))) + 0);((0 + 0) + 0);((free;free;) + 0);))</t>
+  </si>
+  <si>
+    <t>(ua.(0;(0 + 0);((0 + 0);(ua.0;a);(0 + (0 + (0 + 0))) + 0);(0 + 0);((free;free;) + 0);))</t>
+  </si>
+  <si>
+    <t>post_to_pipe:</t>
+  </si>
+  <si>
+    <t>(ua.(((0 + 0) + 0);((free;;(ua.((0 + 0);(ua.0;a);)) + 0) + 0);(free;;(ua.((ua.0;a);));((free;;(ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + 0) + 0););))</t>
   </si>
   <si>
     <t>(ua.(((0 + 0) + 0);(free;;(ua.((0 + 0);(ua.0;a);)) + 0);(free;;(ua.((ua.0;a);));((free;;(ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + 0) + 0););))</t>
   </si>
   <si>
-    <t>post_raw_pipe: </t>
-  </si>
-  <si>
-    <t> (ua.((((ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + (ua.((ua.0;a);))) + 0);))</t>
+    <t>post_raw_pipe:</t>
+  </si>
+  <si>
+    <t>(ua.((((ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + (ua.((ua.0;a);))) + 0);))</t>
   </si>
   <si>
     <t>post_raw_pipe:  (ua.(((ua.((0 + (0 + (0 + 0)));(ua.0;a);)) + (ua.((ua.0;a);)));))</t>
   </si>
   <si>
-    <t>proxy_post_raw: </t>
+    <t>proxy_post_raw:</t>
   </si>
   <si>
     <t>proxy_post_raw:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>post_raw_channel_restricted: </t>
-  </si>
-  <si>
-    <t> (ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
+    <t>post_raw_channel_restricted:</t>
+  </si>
+  <si>
+    <t>(ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
   </si>
   <si>
     <t>post_raw_channel_restricted:  (ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
   </si>
   <si>
-    <t>post_raw_channel:  </t>
+    <t>post_raw_channel:</t>
   </si>
   <si>
     <t>(ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
@@ -3387,19 +3391,19 @@
     <t>post_raw_channel:  (ua.((0 + (0 + (0 + 0)));(ua.0;a);))</t>
   </si>
   <si>
-    <t>post_raw_restricted:  </t>
+    <t>post_raw_restricted:</t>
   </si>
   <si>
     <t>post_raw_restricted:  (ua.((0 + 0);(ua.0;a);))</t>
   </si>
   <si>
-    <t>post_raw:  </t>
+    <t>post_raw:</t>
   </si>
   <si>
     <t>post_raw:  (ua.((ua.0;a);))</t>
   </si>
   <si>
-    <t>post_raw_sub:  </t>
+    <t>post_raw_sub:</t>
   </si>
   <si>
     <t>(ua.(((ua.0;a) + 0);(0 + 0);(0 + 0);))</t>
@@ -3408,13 +3412,13 @@
     <t>post_raw_sub:  (ua.(((ua.0;a) + 0);(0 + 0);(0 + 0);))</t>
   </si>
   <si>
-    <t>copy_raw_z:  </t>
-  </si>
-  <si>
-    <t>copy_raw:  </t>
-  </si>
-  <si>
-    <t>free_raw:  </t>
+    <t>copy_raw_z:</t>
+  </si>
+  <si>
+    <t>copy_raw:</t>
+  </si>
+  <si>
+    <t>free_raw:</t>
   </si>
   <si>
     <t>((free;free;) + 0)</t>
@@ -3423,7 +3427,7 @@
     <t>free_raw:  ((free;free;) + 0)</t>
   </si>
   <si>
-    <t>forge_raw:  </t>
+    <t>forge_raw:</t>
   </si>
   <si>
     <t>forge_raw:  free</t>
@@ -3432,51 +3436,46 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="00FF0000"/>
+      <u/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <sz val="12"/>
-    </font>
-    <font>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3488,37 +3487,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009BBB59"/>
-        <bgColor rgb="00969696"/>
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00579D1C"/>
-        <bgColor rgb="00808000"/>
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF808000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047B8B8"/>
-        <bgColor rgb="0000CCFF"/>
+        <fgColor rgb="FF47B8B8"/>
+        <bgColor rgb="FF00CCFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009966CC"/>
-        <bgColor rgb="00808080"/>
+        <fgColor rgb="FF9966CC"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3526,90 +3525,67 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="2">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -3668,34 +3644,359 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="办公室">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="办公室">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="办公室">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G415"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK415"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.5176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="22.3725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="52.0117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="47.6039215686274"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.9137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="44.9019607843137"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="26.0941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.0274509803922"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="45.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="1" s="2">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3718,7 +4019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="175.8" outlineLevel="0" r="2">
+    <row r="2" spans="1:7" ht="240">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3738,7 +4039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="3">
+    <row r="3" spans="1:7">
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
@@ -3749,7 +4050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="4">
+    <row r="4" spans="1:7">
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3760,7 +4061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="5">
+    <row r="5" spans="1:7" ht="30">
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3771,12 +4072,12 @@
         <v>18</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="6">
+    <row r="6" spans="1:7">
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="286.65" outlineLevel="0" r="7">
+    <row r="7" spans="1:7" ht="300">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -3796,7 +4097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="8">
+    <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
@@ -3807,7 +4108,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="318.3" outlineLevel="0" r="9">
+    <row r="9" spans="1:7" ht="360">
       <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
@@ -3821,7 +4122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="365.8" outlineLevel="0" r="10">
+    <row r="10" spans="1:7" ht="409">
       <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
@@ -3835,7 +4136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="11">
+    <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3846,12 +4147,12 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="12">
+    <row r="12" spans="1:7">
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="603.3" outlineLevel="0" r="13">
+    <row r="13" spans="1:7" ht="409">
       <c r="C13" s="1" t="s">
         <v>36</v>
       </c>
@@ -3862,7 +4163,7 @@
         <v>38</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="14">
+    <row r="14" spans="1:7" ht="409">
       <c r="C14" s="1" t="s">
         <v>39</v>
       </c>
@@ -3873,7 +4174,7 @@
         <v>41</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="555.8" outlineLevel="0" r="15">
+    <row r="15" spans="1:7" ht="409">
       <c r="C15" s="1" t="s">
         <v>42</v>
       </c>
@@ -3884,7 +4185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="16">
+    <row r="16" spans="1:7" ht="30">
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
@@ -3895,7 +4196,7 @@
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="17">
+    <row r="17" spans="1:6" ht="30">
       <c r="C17" s="1" t="s">
         <v>47</v>
       </c>
@@ -3906,12 +4207,12 @@
         <v>48</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="18">
+    <row r="18" spans="1:6">
       <c r="C18" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="968.3" outlineLevel="0" r="19">
+    <row r="19" spans="1:6" ht="409">
       <c r="C19" s="1" t="s">
         <v>50</v>
       </c>
@@ -3925,7 +4226,7 @@
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="20">
+    <row r="20" spans="1:6">
       <c r="C20" s="1" t="s">
         <v>54</v>
       </c>
@@ -3936,12 +4237,12 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="21">
+    <row r="21" spans="1:6">
       <c r="C21" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="22">
+    <row r="22" spans="1:6" ht="30">
       <c r="C22" s="1" t="s">
         <v>58</v>
       </c>
@@ -3952,7 +4253,7 @@
         <v>59</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="23">
+    <row r="23" spans="1:6">
       <c r="C23" s="1" t="s">
         <v>60</v>
       </c>
@@ -3963,7 +4264,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="24">
+    <row r="24" spans="1:6" ht="30">
       <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
@@ -3974,7 +4275,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="25">
+    <row r="25" spans="1:6">
       <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
@@ -3985,7 +4286,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="26">
+    <row r="26" spans="1:6">
       <c r="C26" s="1" t="s">
         <v>67</v>
       </c>
@@ -3996,7 +4297,7 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="27">
+    <row r="27" spans="1:6">
       <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
@@ -4007,7 +4308,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="28">
+    <row r="28" spans="1:6">
       <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
@@ -4018,7 +4319,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="191.65" outlineLevel="0" r="29">
+    <row r="29" spans="1:6" ht="240">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,7 +4336,7 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="175.8" outlineLevel="0" r="30">
+    <row r="30" spans="1:6" ht="225">
       <c r="C30" s="1" t="s">
         <v>76</v>
       </c>
@@ -4046,7 +4347,7 @@
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="31">
+    <row r="31" spans="1:6" ht="60">
       <c r="C31" s="1" t="s">
         <v>78</v>
       </c>
@@ -4057,7 +4358,7 @@
         <v>79</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="32">
+    <row r="32" spans="1:6" ht="30">
       <c r="C32" s="1" t="s">
         <v>80</v>
       </c>
@@ -4068,7 +4369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="33">
+    <row r="33" spans="1:5" ht="30">
       <c r="C33" s="1" t="s">
         <v>82</v>
       </c>
@@ -4079,7 +4380,7 @@
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="34">
+    <row r="34" spans="1:5" ht="60">
       <c r="C34" s="1" t="s">
         <v>84</v>
       </c>
@@ -4090,7 +4391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="35">
+    <row r="35" spans="1:5">
       <c r="C35" s="1" t="s">
         <v>86</v>
       </c>
@@ -4101,7 +4402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="36">
+    <row r="36" spans="1:5">
       <c r="C36" s="1" t="s">
         <v>87</v>
       </c>
@@ -4112,12 +4413,12 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="37">
+    <row r="37" spans="1:5">
       <c r="C37" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="38">
+    <row r="38" spans="1:5">
       <c r="C38" s="1" t="s">
         <v>89</v>
       </c>
@@ -4128,7 +4429,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="39">
+    <row r="39" spans="1:5">
       <c r="C39" s="1" t="s">
         <v>90</v>
       </c>
@@ -4139,7 +4440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="40">
+    <row r="40" spans="1:5" ht="45">
       <c r="C40" s="1" t="s">
         <v>92</v>
       </c>
@@ -4150,7 +4451,7 @@
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="41">
+    <row r="41" spans="1:5" ht="30">
       <c r="C41" s="1" t="s">
         <v>94</v>
       </c>
@@ -4161,7 +4462,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="42">
+    <row r="42" spans="1:5" ht="60">
       <c r="A42" s="1" t="s">
         <v>95</v>
       </c>
@@ -4178,7 +4479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="43">
+    <row r="43" spans="1:5">
       <c r="C43" s="1" t="s">
         <v>99</v>
       </c>
@@ -4189,12 +4490,12 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="44">
+    <row r="44" spans="1:5">
       <c r="C44" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="45">
+    <row r="45" spans="1:5">
       <c r="C45" s="1" t="s">
         <v>102</v>
       </c>
@@ -4205,7 +4506,7 @@
         <v>103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="46">
+    <row r="46" spans="1:5">
       <c r="C46" s="1" t="s">
         <v>104</v>
       </c>
@@ -4216,7 +4517,7 @@
         <v>105</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="47">
+    <row r="47" spans="1:5">
       <c r="C47" s="1" t="s">
         <v>106</v>
       </c>
@@ -4227,7 +4528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="48">
+    <row r="48" spans="1:5">
       <c r="C48" s="1" t="s">
         <v>107</v>
       </c>
@@ -4238,7 +4539,7 @@
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="49">
+    <row r="49" spans="1:5">
       <c r="C49" s="1" t="s">
         <v>109</v>
       </c>
@@ -4249,7 +4550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="50">
+    <row r="50" spans="1:5" ht="45">
       <c r="C50" s="1" t="s">
         <v>112</v>
       </c>
@@ -4260,7 +4561,7 @@
         <v>113</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="51">
+    <row r="51" spans="1:5">
       <c r="C51" s="1" t="s">
         <v>114</v>
       </c>
@@ -4271,12 +4572,12 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="52">
+    <row r="52" spans="1:5">
       <c r="C52" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="53">
+    <row r="53" spans="1:5">
       <c r="C53" s="1" t="s">
         <v>116</v>
       </c>
@@ -4287,7 +4588,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="54">
+    <row r="54" spans="1:5" ht="45">
       <c r="A54" s="1" t="s">
         <v>117</v>
       </c>
@@ -4304,12 +4605,12 @@
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="55">
+    <row r="55" spans="1:5">
       <c r="C55" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="56">
+    <row r="56" spans="1:5" ht="90">
       <c r="C56" s="1" t="s">
         <v>121</v>
       </c>
@@ -4320,7 +4621,7 @@
         <v>123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="57">
+    <row r="57" spans="1:5">
       <c r="C57" s="1" t="s">
         <v>124</v>
       </c>
@@ -4331,7 +4632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="58">
+    <row r="58" spans="1:5" ht="30">
       <c r="C58" s="1" t="s">
         <v>125</v>
       </c>
@@ -4342,7 +4643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="59">
+    <row r="59" spans="1:5" ht="30">
       <c r="C59" s="1" t="s">
         <v>128</v>
       </c>
@@ -4353,7 +4654,7 @@
         <v>129</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="60">
+    <row r="60" spans="1:5">
       <c r="C60" s="1" t="s">
         <v>130</v>
       </c>
@@ -4364,7 +4665,7 @@
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="61">
+    <row r="61" spans="1:5" ht="30">
       <c r="C61" s="1" t="s">
         <v>132</v>
       </c>
@@ -4375,7 +4676,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="62">
+    <row r="62" spans="1:5" ht="30">
       <c r="C62" s="1" t="s">
         <v>134</v>
       </c>
@@ -4386,7 +4687,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="63">
+    <row r="63" spans="1:5" ht="30">
       <c r="C63" s="1" t="s">
         <v>135</v>
       </c>
@@ -4397,7 +4698,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="64">
+    <row r="64" spans="1:5" ht="30">
       <c r="C64" s="1" t="s">
         <v>136</v>
       </c>
@@ -4408,7 +4709,7 @@
         <v>137</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="65">
+    <row r="65" spans="1:5">
       <c r="C65" s="1" t="s">
         <v>138</v>
       </c>
@@ -4419,7 +4720,7 @@
         <v>139</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="66">
+    <row r="66" spans="1:5" ht="30">
       <c r="C66" s="1" t="s">
         <v>140</v>
       </c>
@@ -4430,7 +4731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="67">
+    <row r="67" spans="1:5" ht="30">
       <c r="C67" s="1" t="s">
         <v>142</v>
       </c>
@@ -4441,7 +4742,7 @@
         <v>143</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="68">
+    <row r="68" spans="1:5">
       <c r="C68" s="1" t="s">
         <v>144</v>
       </c>
@@ -4452,12 +4753,12 @@
         <v>145</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="69">
+    <row r="69" spans="1:5">
       <c r="C69" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="70">
+    <row r="70" spans="1:5">
       <c r="C70" s="1" t="s">
         <v>147</v>
       </c>
@@ -4468,7 +4769,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="71">
+    <row r="71" spans="1:5">
       <c r="C71" s="1" t="s">
         <v>148</v>
       </c>
@@ -4479,12 +4780,12 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="72">
+    <row r="72" spans="1:5">
       <c r="C72" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="73">
+    <row r="73" spans="1:5" ht="60">
       <c r="A73" s="1" t="s">
         <v>150</v>
       </c>
@@ -4492,7 +4793,7 @@
         <v>151</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="74">
+    <row r="74" spans="1:5" ht="60">
       <c r="A74" s="1" t="s">
         <v>152</v>
       </c>
@@ -4500,7 +4801,7 @@
         <v>153</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="75">
+    <row r="75" spans="1:5" ht="60">
       <c r="A75" s="1" t="s">
         <v>154</v>
       </c>
@@ -4517,7 +4818,7 @@
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="76">
+    <row r="76" spans="1:5">
       <c r="C76" s="1" t="s">
         <v>157</v>
       </c>
@@ -4528,7 +4829,7 @@
         <v>158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="77">
+    <row r="77" spans="1:5" ht="30">
       <c r="C77" s="1" t="s">
         <v>159</v>
       </c>
@@ -4539,39 +4840,39 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="78">
+    <row r="78" spans="1:5">
       <c r="C78" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="1">
         <v>0</v>
       </c>
-      <c r="E78" s="1" t="n">
+      <c r="E78" s="1">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="79">
+    <row r="79" spans="1:5">
       <c r="C79" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="1">
         <v>0</v>
       </c>
-      <c r="E79" s="1" t="n">
+      <c r="E79" s="1">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="80">
+    <row r="80" spans="1:5">
       <c r="C80" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="81">
+    <row r="81" spans="1:5">
       <c r="C81" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="82">
+    <row r="82" spans="1:5" ht="60">
       <c r="A82" s="1" t="s">
         <v>165</v>
       </c>
@@ -4588,7 +4889,7 @@
         <v>167</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="83">
+    <row r="83" spans="1:5">
       <c r="C83" s="1" t="s">
         <v>157</v>
       </c>
@@ -4599,7 +4900,7 @@
         <v>168</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="84">
+    <row r="84" spans="1:5">
       <c r="C84" s="1" t="s">
         <v>159</v>
       </c>
@@ -4610,7 +4911,7 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="85">
+    <row r="85" spans="1:5" ht="60">
       <c r="A85" s="1" t="s">
         <v>169</v>
       </c>
@@ -4618,7 +4919,7 @@
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="86">
+    <row r="86" spans="1:5" ht="60">
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
@@ -4635,7 +4936,7 @@
         <v>173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="87">
+    <row r="87" spans="1:5" ht="60">
       <c r="A87" s="1" t="s">
         <v>174</v>
       </c>
@@ -4652,7 +4953,7 @@
         <v>176</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="698.3" outlineLevel="0" r="88">
+    <row r="88" spans="1:5" ht="409">
       <c r="A88" s="1" t="s">
         <v>177</v>
       </c>
@@ -4669,7 +4970,7 @@
         <v>179</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="89">
+    <row r="89" spans="1:5" ht="75">
       <c r="C89" s="1" t="s">
         <v>180</v>
       </c>
@@ -4680,7 +4981,7 @@
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="90">
+    <row r="90" spans="1:5" ht="30">
       <c r="C90" s="1" t="s">
         <v>182</v>
       </c>
@@ -4691,7 +4992,7 @@
         <v>183</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="603.3" outlineLevel="0" r="91">
+    <row r="91" spans="1:5" ht="409">
       <c r="C91" s="1" t="s">
         <v>184</v>
       </c>
@@ -4702,7 +5003,7 @@
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="603.3" outlineLevel="0" r="92">
+    <row r="92" spans="1:5" ht="409">
       <c r="C92" s="1" t="s">
         <v>186</v>
       </c>
@@ -4713,7 +5014,7 @@
         <v>187</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="492.5" outlineLevel="0" r="93">
+    <row r="93" spans="1:5" ht="409">
       <c r="C93" s="1" t="s">
         <v>188</v>
       </c>
@@ -4724,7 +5025,7 @@
         <v>189</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="128.3" outlineLevel="0" r="94">
+    <row r="94" spans="1:5" ht="135">
       <c r="C94" s="1" t="s">
         <v>190</v>
       </c>
@@ -4735,7 +5036,7 @@
         <v>191</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="95">
+    <row r="95" spans="1:5" ht="90">
       <c r="C95" s="1" t="s">
         <v>192</v>
       </c>
@@ -4746,7 +5047,7 @@
         <v>193</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="96">
+    <row r="96" spans="1:5" ht="90">
       <c r="C96" s="1" t="s">
         <v>194</v>
       </c>
@@ -4757,7 +5058,7 @@
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="97">
+    <row r="97" spans="3:5" ht="135">
       <c r="C97" s="1" t="s">
         <v>196</v>
       </c>
@@ -4768,7 +5069,7 @@
         <v>197</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="98">
+    <row r="98" spans="3:5" ht="150">
       <c r="C98" s="1" t="s">
         <v>198</v>
       </c>
@@ -4779,12 +5080,12 @@
         <v>199</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="99">
+    <row r="99" spans="3:5">
       <c r="C99" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="100">
+    <row r="100" spans="3:5">
       <c r="C100" s="1" t="s">
         <v>201</v>
       </c>
@@ -4792,7 +5093,7 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="101">
+    <row r="101" spans="3:5">
       <c r="C101" s="1" t="s">
         <v>202</v>
       </c>
@@ -4800,7 +5101,7 @@
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="102">
+    <row r="102" spans="3:5">
       <c r="C102" s="1" t="s">
         <v>203</v>
       </c>
@@ -4811,7 +5112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="103">
+    <row r="103" spans="3:5" ht="30">
       <c r="C103" s="1" t="s">
         <v>204</v>
       </c>
@@ -4822,7 +5123,7 @@
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="104">
+    <row r="104" spans="3:5" ht="30">
       <c r="C104" s="1" t="s">
         <v>206</v>
       </c>
@@ -4833,7 +5134,7 @@
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="105">
+    <row r="105" spans="3:5">
       <c r="C105" s="1" t="s">
         <v>208</v>
       </c>
@@ -4841,7 +5142,7 @@
         <v>208</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="106">
+    <row r="106" spans="3:5">
       <c r="C106" s="1" t="s">
         <v>209</v>
       </c>
@@ -4849,7 +5150,7 @@
         <v>209</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="107">
+    <row r="107" spans="3:5" ht="30">
       <c r="C107" s="1" t="s">
         <v>210</v>
       </c>
@@ -4860,7 +5161,7 @@
         <v>212</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="108">
+    <row r="108" spans="3:5">
       <c r="C108" s="1" t="s">
         <v>213</v>
       </c>
@@ -4871,7 +5172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="109">
+    <row r="109" spans="3:5">
       <c r="C109" s="1" t="s">
         <v>214</v>
       </c>
@@ -4882,7 +5183,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="110">
+    <row r="110" spans="3:5">
       <c r="C110" s="1" t="s">
         <v>215</v>
       </c>
@@ -4893,7 +5194,7 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="111">
+    <row r="111" spans="3:5">
       <c r="C111" s="1" t="s">
         <v>163</v>
       </c>
@@ -4904,7 +5205,7 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="112">
+    <row r="112" spans="3:5">
       <c r="C112" s="1" t="s">
         <v>164</v>
       </c>
@@ -4915,7 +5216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="113">
+    <row r="113" spans="1:6" ht="60">
       <c r="A113" s="1" t="s">
         <v>217</v>
       </c>
@@ -4923,7 +5224,7 @@
         <v>218</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="397.5" outlineLevel="0" r="114">
+    <row r="114" spans="1:6" ht="405">
       <c r="A114" s="1" t="s">
         <v>150</v>
       </c>
@@ -4943,7 +5244,7 @@
         <v>221</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="476.65" outlineLevel="0" r="115">
+    <row r="115" spans="1:6" ht="409">
       <c r="C115" s="1" t="s">
         <v>222</v>
       </c>
@@ -4957,7 +5258,7 @@
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="116">
+    <row r="116" spans="1:6">
       <c r="C116" s="1" t="s">
         <v>225</v>
       </c>
@@ -4968,17 +5269,17 @@
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="117">
+    <row r="117" spans="1:6">
       <c r="C117" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="118">
+    <row r="118" spans="1:6">
       <c r="C118" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="365.8" outlineLevel="0" r="119">
+    <row r="119" spans="1:6" ht="360">
       <c r="C119" s="1" t="s">
         <v>229</v>
       </c>
@@ -4992,7 +5293,7 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="120">
+    <row r="120" spans="1:6">
       <c r="C120" s="1" t="s">
         <v>232</v>
       </c>
@@ -5003,7 +5304,7 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="121">
+    <row r="121" spans="1:6">
       <c r="C121" s="1" t="s">
         <v>233</v>
       </c>
@@ -5014,7 +5315,7 @@
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="122">
+    <row r="122" spans="1:6">
       <c r="C122" s="1" t="s">
         <v>234</v>
       </c>
@@ -5025,7 +5326,7 @@
         <v>235</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="123">
+    <row r="123" spans="1:6" ht="45">
       <c r="A123" s="1" t="s">
         <v>236</v>
       </c>
@@ -5042,7 +5343,7 @@
         <v>239</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="124">
+    <row r="124" spans="1:6">
       <c r="C124" s="1" t="s">
         <v>240</v>
       </c>
@@ -5053,7 +5354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="125">
+    <row r="125" spans="1:6">
       <c r="C125" s="1" t="s">
         <v>241</v>
       </c>
@@ -5064,7 +5365,7 @@
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="126">
+    <row r="126" spans="1:6">
       <c r="C126" s="1" t="s">
         <v>243</v>
       </c>
@@ -5072,7 +5373,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="127">
+    <row r="127" spans="1:6">
       <c r="C127" s="1" t="s">
         <v>244</v>
       </c>
@@ -5080,7 +5381,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="239.15" outlineLevel="0" r="128">
+    <row r="128" spans="1:6" ht="240">
       <c r="A128" s="1" t="s">
         <v>245</v>
       </c>
@@ -5094,7 +5395,7 @@
         <v>248</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="129">
+    <row r="129" spans="1:6">
       <c r="C129" s="1" t="s">
         <v>249</v>
       </c>
@@ -5105,7 +5406,7 @@
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="130">
+    <row r="130" spans="1:6">
       <c r="C130" s="1" t="s">
         <v>252</v>
       </c>
@@ -5116,7 +5417,7 @@
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="131" s="11">
+    <row r="131" spans="1:6" s="11" customFormat="1" ht="45">
       <c r="A131" s="11" t="s">
         <v>254</v>
       </c>
@@ -5124,7 +5425,7 @@
         <v>255</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="132">
+    <row r="132" spans="1:6" ht="75">
       <c r="A132" s="1" t="s">
         <v>256</v>
       </c>
@@ -5141,7 +5442,7 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="133">
+    <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>260</v>
       </c>
@@ -5152,7 +5453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="134">
+    <row r="134" spans="1:6" ht="90">
       <c r="A134" s="1" t="s">
         <v>261</v>
       </c>
@@ -5160,7 +5461,7 @@
         <v>262</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="135">
+    <row r="135" spans="1:6" ht="60">
       <c r="A135" s="1" t="s">
         <v>263</v>
       </c>
@@ -5177,7 +5478,7 @@
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="136">
+    <row r="136" spans="1:6">
       <c r="C136" s="1" t="s">
         <v>267</v>
       </c>
@@ -5188,12 +5489,12 @@
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="137">
+    <row r="137" spans="1:6">
       <c r="C137" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="138">
+    <row r="138" spans="1:6">
       <c r="C138" s="1" t="s">
         <v>270</v>
       </c>
@@ -5204,12 +5505,12 @@
         <v>271</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="139">
+    <row r="139" spans="1:6">
       <c r="C139" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="140">
+    <row r="140" spans="1:6">
       <c r="C140" s="1" t="s">
         <v>273</v>
       </c>
@@ -5220,7 +5521,7 @@
         <v>274</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1047.5" outlineLevel="0" r="141">
+    <row r="141" spans="1:6" ht="409">
       <c r="C141" s="1" t="s">
         <v>275</v>
       </c>
@@ -5234,12 +5535,12 @@
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="142">
+    <row r="142" spans="1:6">
       <c r="C142" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="143">
+    <row r="143" spans="1:6">
       <c r="C143" s="1" t="s">
         <v>279</v>
       </c>
@@ -5250,7 +5551,7 @@
         <v>280</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="144">
+    <row r="144" spans="1:6" ht="120">
       <c r="C144" s="1" t="s">
         <v>281</v>
       </c>
@@ -5261,7 +5562,7 @@
         <v>282</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="145">
+    <row r="145" spans="1:6">
       <c r="C145" s="1" t="s">
         <v>283</v>
       </c>
@@ -5272,12 +5573,12 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="146">
+    <row r="146" spans="1:6">
       <c r="C146" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="147">
+    <row r="147" spans="1:6">
       <c r="C147" s="1" t="s">
         <v>285</v>
       </c>
@@ -5288,7 +5589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="148">
+    <row r="148" spans="1:6">
       <c r="C148" s="1" t="s">
         <v>286</v>
       </c>
@@ -5299,12 +5600,12 @@
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="149">
+    <row r="149" spans="1:6">
       <c r="C149" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="150">
+    <row r="150" spans="1:6">
       <c r="C150" s="1" t="s">
         <v>289</v>
       </c>
@@ -5315,12 +5616,12 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="151">
+    <row r="151" spans="1:6">
       <c r="C151" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="152">
+    <row r="152" spans="1:6" ht="75">
       <c r="A152" s="1" t="s">
         <v>291</v>
       </c>
@@ -5337,7 +5638,7 @@
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="153">
+    <row r="153" spans="1:6">
       <c r="C153" s="1" t="s">
         <v>295</v>
       </c>
@@ -5348,7 +5649,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="270.8" outlineLevel="0" r="154">
+    <row r="154" spans="1:6" ht="255">
       <c r="C154" s="1" t="s">
         <v>296</v>
       </c>
@@ -5362,7 +5663,7 @@
         <v>298</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="155">
+    <row r="155" spans="1:6">
       <c r="C155" s="1" t="s">
         <v>299</v>
       </c>
@@ -5373,7 +5674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="156">
+    <row r="156" spans="1:6">
       <c r="C156" s="1" t="s">
         <v>300</v>
       </c>
@@ -5384,7 +5685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="157">
+    <row r="157" spans="1:6" ht="90">
       <c r="A157" s="1" t="s">
         <v>301</v>
       </c>
@@ -5401,7 +5702,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="158">
+    <row r="158" spans="1:6">
       <c r="C158" s="1" t="s">
         <v>305</v>
       </c>
@@ -5412,7 +5713,7 @@
         <v>306</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="159">
+    <row r="159" spans="1:6">
       <c r="C159" s="1" t="s">
         <v>307</v>
       </c>
@@ -5423,7 +5724,7 @@
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="160">
+    <row r="160" spans="1:6">
       <c r="C160" s="1" t="s">
         <v>309</v>
       </c>
@@ -5434,17 +5735,17 @@
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="161">
+    <row r="161" spans="3:6">
       <c r="C161" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="162">
+    <row r="162" spans="3:6">
       <c r="C162" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="163">
+    <row r="163" spans="3:6" ht="90">
       <c r="C163" s="1" t="s">
         <v>312</v>
       </c>
@@ -5455,7 +5756,7 @@
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="164">
+    <row r="164" spans="3:6" ht="120">
       <c r="C164" s="1" t="s">
         <v>314</v>
       </c>
@@ -5469,7 +5770,7 @@
         <v>316</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="165">
+    <row r="165" spans="3:6" ht="90">
       <c r="C165" s="1" t="s">
         <v>317</v>
       </c>
@@ -5483,7 +5784,7 @@
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="166">
+    <row r="166" spans="3:6" ht="45">
       <c r="C166" s="1" t="s">
         <v>319</v>
       </c>
@@ -5494,7 +5795,7 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="167">
+    <row r="167" spans="3:6" ht="45">
       <c r="C167" s="1" t="s">
         <v>321</v>
       </c>
@@ -5505,7 +5806,7 @@
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="168">
+    <row r="168" spans="3:6" ht="75">
       <c r="C168" s="1" t="s">
         <v>322</v>
       </c>
@@ -5519,7 +5820,7 @@
         <v>324</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="169">
+    <row r="169" spans="3:6" ht="409">
       <c r="C169" s="1" t="s">
         <v>325</v>
       </c>
@@ -5533,7 +5834,7 @@
         <v>327</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="170">
+    <row r="170" spans="3:6" ht="30">
       <c r="C170" s="1" t="s">
         <v>328</v>
       </c>
@@ -5544,7 +5845,7 @@
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="171">
+    <row r="171" spans="3:6" ht="255">
       <c r="C171" s="1" t="s">
         <v>330</v>
       </c>
@@ -5555,7 +5856,7 @@
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="555.8" outlineLevel="0" r="172">
+    <row r="172" spans="3:6" ht="409">
       <c r="C172" s="1" t="s">
         <v>332</v>
       </c>
@@ -5566,7 +5867,7 @@
         <v>333</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="173">
+    <row r="173" spans="3:6" ht="45">
       <c r="C173" s="1" t="s">
         <v>334</v>
       </c>
@@ -5577,7 +5878,7 @@
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1522.5" outlineLevel="0" r="174">
+    <row r="174" spans="3:6" ht="409">
       <c r="C174" s="1" t="s">
         <v>337</v>
       </c>
@@ -5591,7 +5892,7 @@
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1079.15" outlineLevel="0" r="175">
+    <row r="175" spans="3:6" ht="409">
       <c r="C175" s="1" t="s">
         <v>341</v>
       </c>
@@ -5605,7 +5906,7 @@
         <v>343</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="176">
+    <row r="176" spans="3:6" ht="60">
       <c r="C176" s="1" t="s">
         <v>344</v>
       </c>
@@ -5616,7 +5917,7 @@
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="177">
+    <row r="177" spans="3:5" ht="105">
       <c r="C177" s="1" t="s">
         <v>346</v>
       </c>
@@ -5627,7 +5928,7 @@
         <v>347</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="178">
+    <row r="178" spans="3:5" ht="90">
       <c r="C178" s="1" t="s">
         <v>348</v>
       </c>
@@ -5638,7 +5939,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="179">
+    <row r="179" spans="3:5">
       <c r="C179" s="1" t="s">
         <v>350</v>
       </c>
@@ -5649,7 +5950,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="381.65" outlineLevel="0" r="180">
+    <row r="180" spans="3:5" ht="409">
       <c r="C180" s="1" t="s">
         <v>351</v>
       </c>
@@ -5660,7 +5961,7 @@
         <v>352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="181">
+    <row r="181" spans="3:5" ht="60">
       <c r="C181" s="1" t="s">
         <v>353</v>
       </c>
@@ -5671,7 +5972,7 @@
         <v>354</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="182">
+    <row r="182" spans="3:5" ht="90">
       <c r="C182" s="1" t="s">
         <v>355</v>
       </c>
@@ -5682,7 +5983,7 @@
         <v>356</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="183">
+    <row r="183" spans="3:5">
       <c r="C183" s="1" t="s">
         <v>357</v>
       </c>
@@ -5693,7 +5994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="184">
+    <row r="184" spans="3:5">
       <c r="C184" s="1" t="s">
         <v>358</v>
       </c>
@@ -5704,7 +6005,7 @@
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="185">
+    <row r="185" spans="3:5">
       <c r="C185" s="1" t="s">
         <v>359</v>
       </c>
@@ -5715,7 +6016,7 @@
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="186">
+    <row r="186" spans="3:5">
       <c r="C186" s="1" t="s">
         <v>361</v>
       </c>
@@ -5726,7 +6027,7 @@
         <v>362</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="187">
+    <row r="187" spans="3:5">
       <c r="C187" s="1" t="s">
         <v>363</v>
       </c>
@@ -5737,7 +6038,7 @@
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="188">
+    <row r="188" spans="3:5">
       <c r="C188" s="1" t="s">
         <v>365</v>
       </c>
@@ -5748,7 +6049,7 @@
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="189">
+    <row r="189" spans="3:5" ht="30">
       <c r="C189" s="1" t="s">
         <v>366</v>
       </c>
@@ -5759,7 +6060,7 @@
         <v>304</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="190">
+    <row r="190" spans="3:5" ht="30">
       <c r="C190" s="1" t="s">
         <v>367</v>
       </c>
@@ -5770,7 +6071,7 @@
         <v>368</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="191">
+    <row r="191" spans="3:5">
       <c r="C191" s="1" t="s">
         <v>369</v>
       </c>
@@ -5781,7 +6082,7 @@
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="192">
+    <row r="192" spans="3:5">
       <c r="C192" s="1" t="s">
         <v>371</v>
       </c>
@@ -5792,7 +6093,7 @@
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="193">
+    <row r="193" spans="1:6" ht="60">
       <c r="A193" s="1" t="s">
         <v>372</v>
       </c>
@@ -5803,12 +6104,12 @@
         <v>374</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="194">
+    <row r="194" spans="1:6">
       <c r="C194" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="540" outlineLevel="0" r="195">
+    <row r="195" spans="1:6" ht="409">
       <c r="C195" s="1" t="s">
         <v>376</v>
       </c>
@@ -5822,7 +6123,7 @@
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="920.8" outlineLevel="0" r="196">
+    <row r="196" spans="1:6" ht="409">
       <c r="C196" s="1" t="s">
         <v>379</v>
       </c>
@@ -5836,7 +6137,7 @@
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="197">
+    <row r="197" spans="1:6">
       <c r="C197" s="1" t="s">
         <v>382</v>
       </c>
@@ -5847,27 +6148,27 @@
         <v>383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="198">
+    <row r="198" spans="1:6">
       <c r="C198" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="199">
+    <row r="199" spans="1:6">
       <c r="C199" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="200">
+    <row r="200" spans="1:6">
       <c r="C200" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="201">
+    <row r="201" spans="1:6">
       <c r="C201" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="202">
+    <row r="202" spans="1:6" ht="150">
       <c r="A202" s="1" t="s">
         <v>388</v>
       </c>
@@ -5884,7 +6185,7 @@
         <v>390</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="920.8" outlineLevel="0" r="203">
+    <row r="203" spans="1:6" ht="409">
       <c r="C203" s="1" t="s">
         <v>379</v>
       </c>
@@ -5898,7 +6199,7 @@
         <v>392</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="204">
+    <row r="204" spans="1:6" ht="105">
       <c r="C204" s="1" t="s">
         <v>393</v>
       </c>
@@ -5909,7 +6210,7 @@
         <v>394</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="205">
+    <row r="205" spans="1:6">
       <c r="C205" s="1" t="s">
         <v>395</v>
       </c>
@@ -5920,7 +6221,7 @@
         <v>396</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="206">
+    <row r="206" spans="1:6" ht="30">
       <c r="C206" s="1" t="s">
         <v>397</v>
       </c>
@@ -5931,12 +6232,12 @@
         <v>398</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="207">
+    <row r="207" spans="1:6">
       <c r="C207" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="208">
+    <row r="208" spans="1:6">
       <c r="C208" s="1" t="s">
         <v>400</v>
       </c>
@@ -5947,7 +6248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="209">
+    <row r="209" spans="1:5">
       <c r="C209" s="1" t="s">
         <v>401</v>
       </c>
@@ -5958,7 +6259,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="210">
+    <row r="210" spans="1:5">
       <c r="C210" s="1" t="s">
         <v>402</v>
       </c>
@@ -5969,7 +6270,7 @@
         <v>403</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="211">
+    <row r="211" spans="1:5">
       <c r="C211" s="1" t="s">
         <v>404</v>
       </c>
@@ -5980,7 +6281,7 @@
         <v>405</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="212">
+    <row r="212" spans="1:5" ht="30">
       <c r="C212" s="1" t="s">
         <v>387</v>
       </c>
@@ -5991,7 +6292,7 @@
         <v>406</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="213">
+    <row r="213" spans="1:5">
       <c r="C213" s="1" t="s">
         <v>382</v>
       </c>
@@ -6002,12 +6303,12 @@
         <v>407</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="214">
+    <row r="214" spans="1:5">
       <c r="C214" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="215">
+    <row r="215" spans="1:5">
       <c r="C215" s="1" t="s">
         <v>116</v>
       </c>
@@ -6018,7 +6319,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="216">
+    <row r="216" spans="1:5" ht="60">
       <c r="C216" s="1" t="s">
         <v>409</v>
       </c>
@@ -6029,7 +6330,7 @@
         <v>410</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="217">
+    <row r="217" spans="1:5">
       <c r="C217" s="1" t="s">
         <v>411</v>
       </c>
@@ -6040,17 +6341,17 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="218">
+    <row r="218" spans="1:5">
       <c r="C218" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="219">
+    <row r="219" spans="1:5">
       <c r="C219" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="128.3" outlineLevel="0" r="220">
+    <row r="220" spans="1:5" ht="150">
       <c r="A220" s="1" t="s">
         <v>414</v>
       </c>
@@ -6067,7 +6368,7 @@
         <v>417</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="221">
+    <row r="221" spans="1:5" ht="45">
       <c r="C221" s="1" t="s">
         <v>418</v>
       </c>
@@ -6078,7 +6379,7 @@
         <v>420</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="222">
+    <row r="222" spans="1:5" ht="120">
       <c r="C222" s="1" t="s">
         <v>421</v>
       </c>
@@ -6089,7 +6390,7 @@
         <v>423</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="223">
+    <row r="223" spans="1:5">
       <c r="C223" s="1" t="s">
         <v>424</v>
       </c>
@@ -6097,7 +6398,7 @@
         <v>424</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="224">
+    <row r="224" spans="1:5" ht="120">
       <c r="C224" s="1" t="s">
         <v>425</v>
       </c>
@@ -6108,7 +6409,7 @@
         <v>423</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="225">
+    <row r="225" spans="3:5">
       <c r="C225" s="1" t="s">
         <v>426</v>
       </c>
@@ -6119,7 +6420,7 @@
         <v>428</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="226">
+    <row r="226" spans="3:5" ht="30">
       <c r="C226" s="1" t="s">
         <v>429</v>
       </c>
@@ -6130,7 +6431,7 @@
         <v>431</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="227">
+    <row r="227" spans="3:5" ht="45">
       <c r="C227" s="1" t="s">
         <v>432</v>
       </c>
@@ -6141,7 +6442,7 @@
         <v>434</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="228">
+    <row r="228" spans="3:5" ht="45">
       <c r="C228" s="1" t="s">
         <v>435</v>
       </c>
@@ -6152,7 +6453,7 @@
         <v>437</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="229">
+    <row r="229" spans="3:5" ht="30">
       <c r="C229" s="1" t="s">
         <v>438</v>
       </c>
@@ -6163,7 +6464,7 @@
         <v>439</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="230">
+    <row r="230" spans="3:5">
       <c r="C230" s="1" t="s">
         <v>440</v>
       </c>
@@ -6171,7 +6472,7 @@
         <v>440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="231">
+    <row r="231" spans="3:5" ht="135">
       <c r="C231" s="1" t="s">
         <v>441</v>
       </c>
@@ -6182,7 +6483,7 @@
         <v>443</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="232">
+    <row r="232" spans="3:5" ht="135">
       <c r="C232" s="1" t="s">
         <v>444</v>
       </c>
@@ -6193,7 +6494,7 @@
         <v>446</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="175.8" outlineLevel="0" r="233">
+    <row r="233" spans="3:5" ht="210">
       <c r="C233" s="1" t="s">
         <v>447</v>
       </c>
@@ -6204,7 +6505,7 @@
         <v>449</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="234">
+    <row r="234" spans="3:5">
       <c r="C234" s="1" t="s">
         <v>450</v>
       </c>
@@ -6212,7 +6513,7 @@
         <v>450</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="235">
+    <row r="235" spans="3:5">
       <c r="C235" s="1" t="s">
         <v>451</v>
       </c>
@@ -6223,7 +6524,7 @@
         <v>452</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="236">
+    <row r="236" spans="3:5" ht="120">
       <c r="C236" s="1" t="s">
         <v>453</v>
       </c>
@@ -6234,7 +6535,7 @@
         <v>455</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="237">
+    <row r="237" spans="3:5">
       <c r="C237" s="1" t="s">
         <v>456</v>
       </c>
@@ -6245,7 +6546,7 @@
         <v>457</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="238">
+    <row r="238" spans="3:5" ht="30">
       <c r="C238" s="1" t="s">
         <v>458</v>
       </c>
@@ -6256,7 +6557,7 @@
         <v>460</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="682.5" outlineLevel="0" r="239">
+    <row r="239" spans="3:5" ht="409">
       <c r="C239" s="1" t="s">
         <v>461</v>
       </c>
@@ -6267,7 +6568,7 @@
         <v>463</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="240">
+    <row r="240" spans="3:5">
       <c r="C240" s="1" t="s">
         <v>464</v>
       </c>
@@ -6275,7 +6576,7 @@
         <v>464</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="241">
+    <row r="241" spans="3:5">
       <c r="C241" s="1" t="s">
         <v>465</v>
       </c>
@@ -6283,7 +6584,7 @@
         <v>465</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="242">
+    <row r="242" spans="3:5" ht="30">
       <c r="C242" s="1" t="s">
         <v>466</v>
       </c>
@@ -6294,7 +6595,7 @@
         <v>468</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="635" outlineLevel="0" r="243">
+    <row r="243" spans="3:5" ht="409">
       <c r="C243" s="1" t="s">
         <v>469</v>
       </c>
@@ -6305,7 +6606,7 @@
         <v>471</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="445" outlineLevel="0" r="244">
+    <row r="244" spans="3:5" ht="409">
       <c r="C244" s="1" t="s">
         <v>472</v>
       </c>
@@ -6316,7 +6617,7 @@
         <v>474</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="160" outlineLevel="0" r="245">
+    <row r="245" spans="3:5" ht="180">
       <c r="C245" s="1" t="s">
         <v>475</v>
       </c>
@@ -6327,7 +6628,7 @@
         <v>477</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="246">
+    <row r="246" spans="3:5" ht="60">
       <c r="C246" s="1" t="s">
         <v>478</v>
       </c>
@@ -6335,7 +6636,7 @@
         <v>478</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="247">
+    <row r="247" spans="3:5" ht="135">
       <c r="C247" s="1" t="s">
         <v>479</v>
       </c>
@@ -6346,7 +6647,7 @@
         <v>481</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="239.15" outlineLevel="0" r="248">
+    <row r="248" spans="3:5" ht="300">
       <c r="C248" s="1" t="s">
         <v>482</v>
       </c>
@@ -6357,7 +6658,7 @@
         <v>484</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="249">
+    <row r="249" spans="3:5" ht="120">
       <c r="C249" s="1" t="s">
         <v>485</v>
       </c>
@@ -6368,7 +6669,7 @@
         <v>487</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="250">
+    <row r="250" spans="3:5">
       <c r="C250" s="1" t="s">
         <v>488</v>
       </c>
@@ -6379,7 +6680,7 @@
         <v>489</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="251">
+    <row r="251" spans="3:5" ht="105">
       <c r="C251" s="1" t="s">
         <v>490</v>
       </c>
@@ -6390,7 +6691,7 @@
         <v>492</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="252">
+    <row r="252" spans="3:5" ht="30">
       <c r="C252" s="1" t="s">
         <v>493</v>
       </c>
@@ -6401,7 +6702,7 @@
         <v>495</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="253">
+    <row r="253" spans="3:5">
       <c r="C253" s="1" t="s">
         <v>496</v>
       </c>
@@ -6412,7 +6713,7 @@
         <v>497</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="207.5" outlineLevel="0" r="254">
+    <row r="254" spans="3:5" ht="255">
       <c r="C254" s="1" t="s">
         <v>498</v>
       </c>
@@ -6423,7 +6724,7 @@
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="255">
+    <row r="255" spans="3:5" ht="30">
       <c r="C255" s="1" t="s">
         <v>501</v>
       </c>
@@ -6434,7 +6735,7 @@
         <v>503</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="256">
+    <row r="256" spans="3:5">
       <c r="C256" s="1" t="s">
         <v>504</v>
       </c>
@@ -6445,7 +6746,7 @@
         <v>505</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="257">
+    <row r="257" spans="3:5" ht="90">
       <c r="C257" s="1" t="s">
         <v>506</v>
       </c>
@@ -6456,7 +6757,7 @@
         <v>508</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="258">
+    <row r="258" spans="3:5" ht="90">
       <c r="C258" s="1" t="s">
         <v>509</v>
       </c>
@@ -6467,7 +6768,7 @@
         <v>510</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="259">
+    <row r="259" spans="3:5" ht="90">
       <c r="C259" s="1" t="s">
         <v>511</v>
       </c>
@@ -6478,7 +6779,7 @@
         <v>513</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="260">
+    <row r="260" spans="3:5" ht="90">
       <c r="C260" s="1" t="s">
         <v>514</v>
       </c>
@@ -6489,7 +6790,7 @@
         <v>515</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="261">
+    <row r="261" spans="3:5" ht="90">
       <c r="C261" s="1" t="s">
         <v>516</v>
       </c>
@@ -6500,7 +6801,7 @@
         <v>518</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="262">
+    <row r="262" spans="3:5" ht="90">
       <c r="C262" s="1" t="s">
         <v>519</v>
       </c>
@@ -6511,7 +6812,7 @@
         <v>521</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="263">
+    <row r="263" spans="3:5">
       <c r="C263" s="1" t="s">
         <v>522</v>
       </c>
@@ -6519,7 +6820,7 @@
         <v>522</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="264">
+    <row r="264" spans="3:5">
       <c r="C264" s="1" t="s">
         <v>523</v>
       </c>
@@ -6527,7 +6828,7 @@
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="265">
+    <row r="265" spans="3:5" ht="45">
       <c r="C265" s="1" t="s">
         <v>524</v>
       </c>
@@ -6538,7 +6839,7 @@
         <v>526</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="266">
+    <row r="266" spans="3:5" ht="45">
       <c r="C266" s="1" t="s">
         <v>527</v>
       </c>
@@ -6549,7 +6850,7 @@
         <v>529</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="267">
+    <row r="267" spans="3:5" ht="45">
       <c r="C267" s="1" t="s">
         <v>530</v>
       </c>
@@ -6560,7 +6861,7 @@
         <v>532</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="268">
+    <row r="268" spans="3:5" ht="30">
       <c r="C268" s="1" t="s">
         <v>533</v>
       </c>
@@ -6571,7 +6872,7 @@
         <v>535</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="269">
+    <row r="269" spans="3:5" ht="30">
       <c r="C269" s="1" t="s">
         <v>536</v>
       </c>
@@ -6579,7 +6880,7 @@
         <v>536</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="270">
+    <row r="270" spans="3:5" ht="45">
       <c r="C270" s="1" t="s">
         <v>537</v>
       </c>
@@ -6590,7 +6891,7 @@
         <v>539</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="271">
+    <row r="271" spans="3:5" ht="45">
       <c r="C271" s="1" t="s">
         <v>540</v>
       </c>
@@ -6601,7 +6902,7 @@
         <v>541</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="272">
+    <row r="272" spans="3:5" ht="30">
       <c r="C272" s="1" t="s">
         <v>542</v>
       </c>
@@ -6612,7 +6913,7 @@
         <v>544</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="273">
+    <row r="273" spans="1:6">
       <c r="C273" s="1" t="s">
         <v>545</v>
       </c>
@@ -6623,7 +6924,7 @@
         <v>546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="274">
+    <row r="274" spans="1:6">
       <c r="C274" s="1" t="s">
         <v>547</v>
       </c>
@@ -6634,7 +6935,7 @@
         <v>549</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="275">
+    <row r="275" spans="1:6">
       <c r="C275" s="1" t="s">
         <v>550</v>
       </c>
@@ -6645,7 +6946,7 @@
         <v>552</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="276">
+    <row r="276" spans="1:6" ht="45">
       <c r="C276" s="1" t="s">
         <v>553</v>
       </c>
@@ -6656,7 +6957,7 @@
         <v>555</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="277">
+    <row r="277" spans="1:6" ht="75">
       <c r="C277" s="1" t="s">
         <v>556</v>
       </c>
@@ -6667,7 +6968,7 @@
         <v>558</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="278">
+    <row r="278" spans="1:6" ht="30">
       <c r="C278" s="1" t="s">
         <v>559</v>
       </c>
@@ -6678,7 +6979,7 @@
         <v>561</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="279">
+    <row r="279" spans="1:6">
       <c r="C279" s="1" t="s">
         <v>562</v>
       </c>
@@ -6689,7 +6990,7 @@
         <v>564</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="280">
+    <row r="280" spans="1:6">
       <c r="C280" s="1" t="s">
         <v>565</v>
       </c>
@@ -6700,7 +7001,7 @@
         <v>566</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="281">
+    <row r="281" spans="1:6">
       <c r="C281" s="1" t="s">
         <v>567</v>
       </c>
@@ -6711,7 +7012,7 @@
         <v>568</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="282">
+    <row r="282" spans="1:6">
       <c r="C282" s="1" t="s">
         <v>569</v>
       </c>
@@ -6722,7 +7023,7 @@
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="283">
+    <row r="283" spans="1:6" ht="45">
       <c r="C283" s="1" t="s">
         <v>571</v>
       </c>
@@ -6733,7 +7034,7 @@
         <v>573</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="284">
+    <row r="284" spans="1:6">
       <c r="C284" s="1" t="s">
         <v>574</v>
       </c>
@@ -6744,7 +7045,7 @@
         <v>575</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="285">
+    <row r="285" spans="1:6">
       <c r="C285" s="1" t="s">
         <v>576</v>
       </c>
@@ -6752,7 +7053,7 @@
         <v>576</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="286">
+    <row r="286" spans="1:6">
       <c r="C286" s="1" t="s">
         <v>577</v>
       </c>
@@ -6760,7 +7061,7 @@
         <v>577</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1524.85" outlineLevel="0" r="287">
+    <row r="287" spans="1:6" ht="409">
       <c r="A287" s="1" t="s">
         <v>578</v>
       </c>
@@ -6780,7 +7081,7 @@
         <v>581</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="288">
+    <row r="288" spans="1:6">
       <c r="C288" s="1" t="s">
         <v>582</v>
       </c>
@@ -6791,7 +7092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="289">
+    <row r="289" spans="1:6">
       <c r="C289" s="1" t="s">
         <v>583</v>
       </c>
@@ -6802,7 +7103,7 @@
         <v>584</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="290">
+    <row r="290" spans="1:6">
       <c r="C290" s="1" t="s">
         <v>585</v>
       </c>
@@ -6810,7 +7111,7 @@
         <v>585</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="291">
+    <row r="291" spans="1:6">
       <c r="C291" s="1" t="s">
         <v>586</v>
       </c>
@@ -6818,7 +7119,7 @@
         <v>586</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="292">
+    <row r="292" spans="1:6" ht="75">
       <c r="A292" s="1" t="s">
         <v>587</v>
       </c>
@@ -6829,22 +7130,22 @@
         <v>589</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="293">
+    <row r="293" spans="1:6">
       <c r="C293" s="1" t="s">
         <v>590</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="294">
+    <row r="294" spans="1:6">
       <c r="C294" s="1" t="s">
         <v>591</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="295">
+    <row r="295" spans="1:6">
       <c r="C295" s="1" t="s">
         <v>592</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="296">
+    <row r="296" spans="1:6">
       <c r="C296" s="1" t="s">
         <v>593</v>
       </c>
@@ -6855,12 +7156,12 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="297">
+    <row r="297" spans="1:6">
       <c r="C297" s="1" t="s">
         <v>594</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="298">
+    <row r="298" spans="1:6">
       <c r="C298" s="1" t="s">
         <v>595</v>
       </c>
@@ -6871,7 +7172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="299">
+    <row r="299" spans="1:6" ht="105">
       <c r="C299" s="1" t="s">
         <v>596</v>
       </c>
@@ -6885,12 +7186,12 @@
         <v>597</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="300">
+    <row r="300" spans="1:6">
       <c r="C300" s="1" t="s">
         <v>598</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="301">
+    <row r="301" spans="1:6" ht="75">
       <c r="A301" s="1" t="s">
         <v>599</v>
       </c>
@@ -6907,7 +7208,7 @@
         <v>601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="255" outlineLevel="0" r="302">
+    <row r="302" spans="1:6" ht="255">
       <c r="C302" s="1" t="s">
         <v>379</v>
       </c>
@@ -6921,12 +7222,12 @@
         <v>603</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="303">
+    <row r="303" spans="1:6">
       <c r="C303" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="304">
+    <row r="304" spans="1:6" ht="75">
       <c r="A304" s="1" t="s">
         <v>605</v>
       </c>
@@ -6943,7 +7244,7 @@
         <v>608</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="350" outlineLevel="0" r="305">
+    <row r="305" spans="1:6" ht="345">
       <c r="B305" s="1" t="s">
         <v>609</v>
       </c>
@@ -6960,7 +7261,7 @@
         <v>612</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="306">
+    <row r="306" spans="1:6">
       <c r="C306" s="1" t="s">
         <v>613</v>
       </c>
@@ -6971,7 +7272,7 @@
         <v>614</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="307">
+    <row r="307" spans="1:6">
       <c r="C307" s="1" t="s">
         <v>615</v>
       </c>
@@ -6982,7 +7283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="308">
+    <row r="308" spans="1:6">
       <c r="C308" s="1" t="s">
         <v>616</v>
       </c>
@@ -6993,7 +7294,7 @@
         <v>617</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="309">
+    <row r="309" spans="1:6" ht="75">
       <c r="A309" s="1" t="s">
         <v>618</v>
       </c>
@@ -7010,7 +7311,7 @@
         <v>621</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="310">
+    <row r="310" spans="1:6" ht="45">
       <c r="C310" s="1" t="s">
         <v>622</v>
       </c>
@@ -7021,7 +7322,7 @@
         <v>623</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="311">
+    <row r="311" spans="1:6" ht="409">
       <c r="B311" s="1" t="s">
         <v>609</v>
       </c>
@@ -7038,7 +7339,7 @@
         <v>627</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="312">
+    <row r="312" spans="1:6" ht="30">
       <c r="C312" s="1" t="s">
         <v>628</v>
       </c>
@@ -7049,12 +7350,12 @@
         <v>629</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="313">
+    <row r="313" spans="1:6">
       <c r="C313" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="314">
+    <row r="314" spans="1:6">
       <c r="C314" s="1" t="s">
         <v>631</v>
       </c>
@@ -7065,7 +7366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="315">
+    <row r="315" spans="1:6" ht="75">
       <c r="A315" s="1" t="s">
         <v>632</v>
       </c>
@@ -7082,7 +7383,7 @@
         <v>635</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="316">
+    <row r="316" spans="1:6">
       <c r="C316" s="1" t="s">
         <v>636</v>
       </c>
@@ -7093,7 +7394,7 @@
         <v>637</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="317">
+    <row r="317" spans="1:6">
       <c r="C317" s="1" t="s">
         <v>638</v>
       </c>
@@ -7104,7 +7405,7 @@
         <v>639</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="318">
+    <row r="318" spans="1:6" ht="30">
       <c r="C318" s="1" t="s">
         <v>640</v>
       </c>
@@ -7115,7 +7416,7 @@
         <v>641</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="319">
+    <row r="319" spans="1:6">
       <c r="C319" s="1" t="s">
         <v>642</v>
       </c>
@@ -7126,7 +7427,7 @@
         <v>643</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="320">
+    <row r="320" spans="1:6">
       <c r="C320" s="1" t="s">
         <v>644</v>
       </c>
@@ -7137,7 +7438,7 @@
         <v>645</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="321">
+    <row r="321" spans="1:5" ht="120">
       <c r="C321" s="1" t="s">
         <v>646</v>
       </c>
@@ -7148,7 +7449,7 @@
         <v>647</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="322">
+    <row r="322" spans="1:5" ht="45">
       <c r="C322" s="1" t="s">
         <v>648</v>
       </c>
@@ -7159,7 +7460,7 @@
         <v>650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="323">
+    <row r="323" spans="1:5">
       <c r="C323" s="1" t="s">
         <v>651</v>
       </c>
@@ -7170,7 +7471,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="324">
+    <row r="324" spans="1:5">
       <c r="C324" s="1" t="s">
         <v>652</v>
       </c>
@@ -7181,7 +7482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="325">
+    <row r="325" spans="1:5">
       <c r="C325" s="1" t="s">
         <v>653</v>
       </c>
@@ -7192,7 +7493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="326">
+    <row r="326" spans="1:5" ht="60">
       <c r="C326" s="1" t="s">
         <v>654</v>
       </c>
@@ -7203,7 +7504,7 @@
         <v>655</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="327">
+    <row r="327" spans="1:5" ht="75">
       <c r="A327" s="1" t="s">
         <v>656</v>
       </c>
@@ -7220,7 +7521,7 @@
         <v>659</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="328">
+    <row r="328" spans="1:5">
       <c r="C328" s="1" t="s">
         <v>660</v>
       </c>
@@ -7228,7 +7529,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="329">
+    <row r="329" spans="1:5" ht="75">
       <c r="A329" s="1" t="s">
         <v>662</v>
       </c>
@@ -7242,7 +7543,7 @@
         <v>665</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="330">
+    <row r="330" spans="1:5">
       <c r="C330" s="1" t="s">
         <v>666</v>
       </c>
@@ -7253,12 +7554,12 @@
         <v>668</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="331">
+    <row r="331" spans="1:5">
       <c r="C331" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="332">
+    <row r="332" spans="1:5">
       <c r="C332" s="1" t="s">
         <v>670</v>
       </c>
@@ -7269,7 +7570,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="333">
+    <row r="333" spans="1:5">
       <c r="C333" s="1" t="s">
         <v>673</v>
       </c>
@@ -7280,7 +7581,7 @@
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="334">
+    <row r="334" spans="1:5">
       <c r="C334" s="1" t="s">
         <v>676</v>
       </c>
@@ -7291,7 +7592,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="335">
+    <row r="335" spans="1:5">
       <c r="C335" s="1" t="s">
         <v>677</v>
       </c>
@@ -7302,7 +7603,7 @@
         <v>679</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="336">
+    <row r="336" spans="1:5">
       <c r="C336" s="1" t="s">
         <v>680</v>
       </c>
@@ -7313,7 +7614,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="337">
+    <row r="337" spans="3:5">
       <c r="C337" s="1" t="s">
         <v>681</v>
       </c>
@@ -7324,7 +7625,7 @@
         <v>683</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="338">
+    <row r="338" spans="3:5">
       <c r="C338" s="1" t="s">
         <v>684</v>
       </c>
@@ -7335,7 +7636,7 @@
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="339">
+    <row r="339" spans="3:5">
       <c r="C339" s="1" t="s">
         <v>686</v>
       </c>
@@ -7346,7 +7647,7 @@
         <v>687</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="340">
+    <row r="340" spans="3:5">
       <c r="C340" s="1" t="s">
         <v>688</v>
       </c>
@@ -7357,7 +7658,7 @@
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="341">
+    <row r="341" spans="3:5">
       <c r="C341" s="1" t="s">
         <v>689</v>
       </c>
@@ -7368,7 +7669,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="342">
+    <row r="342" spans="3:5">
       <c r="C342" s="1" t="s">
         <v>690</v>
       </c>
@@ -7379,7 +7680,7 @@
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="343">
+    <row r="343" spans="3:5">
       <c r="C343" s="1" t="s">
         <v>691</v>
       </c>
@@ -7390,7 +7691,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="344">
+    <row r="344" spans="3:5">
       <c r="C344" s="1" t="s">
         <v>692</v>
       </c>
@@ -7401,7 +7702,7 @@
         <v>685</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="345">
+    <row r="345" spans="3:5">
       <c r="C345" s="1" t="s">
         <v>694</v>
       </c>
@@ -7412,7 +7713,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="346">
+    <row r="346" spans="3:5">
       <c r="C346" s="1" t="s">
         <v>695</v>
       </c>
@@ -7423,7 +7724,7 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="347">
+    <row r="347" spans="3:5">
       <c r="C347" s="1" t="s">
         <v>696</v>
       </c>
@@ -7434,17 +7735,17 @@
         <v>672</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="348">
+    <row r="348" spans="3:5">
       <c r="C348" s="1" t="s">
         <v>697</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="349">
+    <row r="349" spans="3:5">
       <c r="C349" s="1" t="s">
         <v>698</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="350">
+    <row r="350" spans="3:5">
       <c r="C350" s="1" t="s">
         <v>699</v>
       </c>
@@ -7455,7 +7756,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="351">
+    <row r="351" spans="3:5" ht="30">
       <c r="C351" s="1" t="s">
         <v>700</v>
       </c>
@@ -7466,12 +7767,12 @@
         <v>702</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="352">
+    <row r="352" spans="3:5">
       <c r="C352" s="1" t="s">
         <v>703</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="353">
+    <row r="353" spans="1:6" ht="75">
       <c r="C353" s="1" t="s">
         <v>704</v>
       </c>
@@ -7482,7 +7783,7 @@
         <v>705</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="354">
+    <row r="354" spans="1:6">
       <c r="C354" s="1" t="s">
         <v>706</v>
       </c>
@@ -7493,7 +7794,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="355">
+    <row r="355" spans="1:6">
       <c r="C355" s="1" t="s">
         <v>707</v>
       </c>
@@ -7504,7 +7805,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="356">
+    <row r="356" spans="1:6">
       <c r="C356" s="1" t="s">
         <v>708</v>
       </c>
@@ -7515,12 +7816,12 @@
         <v>709</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="357">
+    <row r="357" spans="1:6">
       <c r="C357" s="1" t="s">
         <v>710</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="358">
+    <row r="358" spans="1:6">
       <c r="C358" s="1" t="s">
         <v>711</v>
       </c>
@@ -7531,7 +7832,7 @@
         <v>713</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="359">
+    <row r="359" spans="1:6">
       <c r="C359" s="1" t="s">
         <v>714</v>
       </c>
@@ -7542,7 +7843,7 @@
         <v>715</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="360">
+    <row r="360" spans="1:6">
       <c r="C360" s="1" t="s">
         <v>716</v>
       </c>
@@ -7553,7 +7854,7 @@
         <v>287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="361">
+    <row r="361" spans="1:6" ht="60">
       <c r="A361" s="1" t="s">
         <v>717</v>
       </c>
@@ -7570,7 +7871,7 @@
         <v>720</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="362">
+    <row r="362" spans="1:6" ht="75">
       <c r="C362" s="1" t="s">
         <v>721</v>
       </c>
@@ -7581,7 +7882,7 @@
         <v>722</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="363">
+    <row r="363" spans="1:6" ht="75">
       <c r="A363" s="1" t="s">
         <v>723</v>
       </c>
@@ -7589,7 +7890,7 @@
         <v>724</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="270.8" outlineLevel="0" r="364">
+    <row r="364" spans="1:6" ht="300">
       <c r="A364" s="1" t="s">
         <v>725</v>
       </c>
@@ -7606,7 +7907,7 @@
         <v>728</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="365">
+    <row r="365" spans="1:6" ht="150">
       <c r="C365" s="1" t="s">
         <v>729</v>
       </c>
@@ -7620,7 +7921,7 @@
         <v>731</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="366">
+    <row r="366" spans="1:6" ht="60">
       <c r="C366" s="1" t="s">
         <v>732</v>
       </c>
@@ -7631,7 +7932,7 @@
         <v>734</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="367">
+    <row r="367" spans="1:6">
       <c r="C367" s="1" t="s">
         <v>735</v>
       </c>
@@ -7642,7 +7943,7 @@
         <v>737</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="368">
+    <row r="368" spans="1:6">
       <c r="C368" s="1" t="s">
         <v>738</v>
       </c>
@@ -7653,7 +7954,7 @@
         <v>739</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="369">
+    <row r="369" spans="1:5" ht="45">
       <c r="C369" s="1" t="s">
         <v>740</v>
       </c>
@@ -7664,12 +7965,12 @@
         <v>742</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="370">
+    <row r="370" spans="1:5">
       <c r="C370" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="371">
+    <row r="371" spans="1:5" ht="270">
       <c r="A371" s="1" t="s">
         <v>744</v>
       </c>
@@ -7686,7 +7987,7 @@
         <v>748</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="372">
+    <row r="372" spans="1:5">
       <c r="C372" s="1" t="s">
         <v>749</v>
       </c>
@@ -7697,7 +7998,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="373">
+    <row r="373" spans="1:5" ht="45">
       <c r="C373" s="1" t="s">
         <v>750</v>
       </c>
@@ -7708,7 +8009,7 @@
         <v>752</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="374">
+    <row r="374" spans="1:5">
       <c r="C374" s="1" t="s">
         <v>753</v>
       </c>
@@ -7719,7 +8020,7 @@
         <v>754</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="375">
+    <row r="375" spans="1:5" ht="60">
       <c r="C375" s="1" t="s">
         <v>755</v>
       </c>
@@ -7730,7 +8031,7 @@
         <v>757</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="376">
+    <row r="376" spans="1:5" ht="45">
       <c r="C376" s="1" t="s">
         <v>758</v>
       </c>
@@ -7741,7 +8042,7 @@
         <v>760</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="377">
+    <row r="377" spans="1:5">
       <c r="C377" s="1" t="s">
         <v>761</v>
       </c>
@@ -7752,7 +8053,7 @@
         <v>762</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="378">
+    <row r="378" spans="1:5" ht="30">
       <c r="C378" s="1" t="s">
         <v>763</v>
       </c>
@@ -7763,7 +8064,7 @@
         <v>764</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="379">
+    <row r="379" spans="1:5" ht="30">
       <c r="C379" s="1" t="s">
         <v>765</v>
       </c>
@@ -7774,7 +8075,7 @@
         <v>767</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="380">
+    <row r="380" spans="1:5" ht="45">
       <c r="C380" s="1" t="s">
         <v>768</v>
       </c>
@@ -7785,7 +8086,7 @@
         <v>769</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="381">
+    <row r="381" spans="1:5">
       <c r="C381" s="1" t="s">
         <v>770</v>
       </c>
@@ -7796,7 +8097,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="382">
+    <row r="382" spans="1:5" ht="75">
       <c r="A382" s="1" t="s">
         <v>771</v>
       </c>
@@ -7806,14 +8107,14 @@
       <c r="C382" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D382" s="1" t="n">
+      <c r="D382" s="1">
         <v>0</v>
       </c>
-      <c r="E382" s="1" t="n">
+      <c r="E382" s="1">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="383">
+    <row r="383" spans="1:5">
       <c r="C383" s="1" t="s">
         <v>774</v>
       </c>
@@ -7824,7 +8125,7 @@
         <v>776</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="384">
+    <row r="384" spans="1:5">
       <c r="C384" s="1" t="s">
         <v>777</v>
       </c>
@@ -7835,7 +8136,7 @@
         <v>778</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="385">
+    <row r="385" spans="1:6">
       <c r="C385" s="1" t="s">
         <v>779</v>
       </c>
@@ -7846,7 +8147,7 @@
         <v>736</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="386">
+    <row r="386" spans="1:6">
       <c r="C386" s="1" t="s">
         <v>781</v>
       </c>
@@ -7857,7 +8158,7 @@
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="387">
+    <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
         <v>782</v>
       </c>
@@ -7868,7 +8169,7 @@
         <v>784</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="388">
+    <row r="388" spans="1:6">
       <c r="C388" s="1" t="s">
         <v>785</v>
       </c>
@@ -7879,7 +8180,7 @@
         <v>786</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="389">
+    <row r="389" spans="1:6">
       <c r="C389" s="1" t="s">
         <v>787</v>
       </c>
@@ -7890,7 +8191,7 @@
         <v>788</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="390">
+    <row r="390" spans="1:6">
       <c r="C390" s="1" t="s">
         <v>789</v>
       </c>
@@ -7901,7 +8202,7 @@
         <v>790</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="391">
+    <row r="391" spans="1:6">
       <c r="C391" s="1" t="s">
         <v>791</v>
       </c>
@@ -7912,7 +8213,7 @@
         <v>792</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="392">
+    <row r="392" spans="1:6" ht="75">
       <c r="A392" s="1" t="s">
         <v>793</v>
       </c>
@@ -7929,7 +8230,7 @@
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="393">
+    <row r="393" spans="1:6" ht="30">
       <c r="C393" s="1" t="s">
         <v>796</v>
       </c>
@@ -7940,7 +8241,7 @@
         <v>797</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="394">
+    <row r="394" spans="1:6">
       <c r="C394" s="1" t="s">
         <v>798</v>
       </c>
@@ -7951,7 +8252,7 @@
         <v>799</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="395">
+    <row r="395" spans="1:6">
       <c r="C395" s="1" t="s">
         <v>800</v>
       </c>
@@ -7962,7 +8263,7 @@
         <v>801</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="650.8" outlineLevel="0" r="396">
+    <row r="396" spans="1:6" ht="409">
       <c r="C396" s="1" t="s">
         <v>802</v>
       </c>
@@ -7976,7 +8277,7 @@
         <v>804</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="397">
+    <row r="397" spans="1:6">
       <c r="C397" s="1" t="s">
         <v>805</v>
       </c>
@@ -7987,7 +8288,7 @@
         <v>778</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="398">
+    <row r="398" spans="1:6" ht="60">
       <c r="A398" s="1" t="s">
         <v>806</v>
       </c>
@@ -8004,7 +8305,7 @@
         <v>810</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="399">
+    <row r="399" spans="1:6">
       <c r="C399" s="1" t="s">
         <v>811</v>
       </c>
@@ -8015,7 +8316,7 @@
         <v>427</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="400">
+    <row r="400" spans="1:6">
       <c r="C400" s="1" t="s">
         <v>812</v>
       </c>
@@ -8026,7 +8327,7 @@
         <v>661</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="401">
+    <row r="401" spans="3:5" ht="90">
       <c r="C401" s="1" t="s">
         <v>813</v>
       </c>
@@ -8037,7 +8338,7 @@
         <v>815</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="402">
+    <row r="402" spans="3:5">
       <c r="C402" s="1" t="s">
         <v>816</v>
       </c>
@@ -8048,7 +8349,7 @@
         <v>818</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="403">
+    <row r="403" spans="3:5" ht="45">
       <c r="C403" s="1" t="s">
         <v>819</v>
       </c>
@@ -8059,7 +8360,7 @@
         <v>821</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="404">
+    <row r="404" spans="3:5" ht="60">
       <c r="C404" s="1" t="s">
         <v>822</v>
       </c>
@@ -8070,7 +8371,7 @@
         <v>824</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="405">
+    <row r="405" spans="3:5" ht="30">
       <c r="C405" s="1" t="s">
         <v>825</v>
       </c>
@@ -8081,7 +8382,7 @@
         <v>827</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="406">
+    <row r="406" spans="3:5">
       <c r="C406" s="1" t="s">
         <v>828</v>
       </c>
@@ -8092,7 +8393,7 @@
         <v>829</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="407">
+    <row r="407" spans="3:5" ht="30">
       <c r="C407" s="1" t="s">
         <v>830</v>
       </c>
@@ -8103,7 +8404,7 @@
         <v>832</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="408">
+    <row r="408" spans="3:5" ht="30">
       <c r="C408" s="1" t="s">
         <v>833</v>
       </c>
@@ -8114,7 +8415,7 @@
         <v>835</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="409">
+    <row r="409" spans="3:5" ht="30">
       <c r="C409" s="1" t="s">
         <v>836</v>
       </c>
@@ -8125,7 +8426,7 @@
         <v>837</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="410">
+    <row r="410" spans="3:5">
       <c r="C410" s="1" t="s">
         <v>838</v>
       </c>
@@ -8136,7 +8437,7 @@
         <v>839</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="411">
+    <row r="411" spans="3:5" ht="30">
       <c r="C411" s="1" t="s">
         <v>840</v>
       </c>
@@ -8147,7 +8448,7 @@
         <v>842</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="412">
+    <row r="412" spans="3:5">
       <c r="C412" s="1" t="s">
         <v>843</v>
       </c>
@@ -8155,7 +8456,7 @@
         <v>843</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="413">
+    <row r="413" spans="3:5">
       <c r="C413" s="1" t="s">
         <v>844</v>
       </c>
@@ -8163,7 +8464,7 @@
         <v>844</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="414">
+    <row r="414" spans="3:5">
       <c r="C414" s="1" t="s">
         <v>845</v>
       </c>
@@ -8174,7 +8475,7 @@
         <v>847</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="415">
+    <row r="415" spans="3:5">
       <c r="C415" s="1" t="s">
         <v>848</v>
       </c>
@@ -8186,18 +8487,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="https://github.com/Orc/discount/blob/master/css.c" ref="A131" r:id="rId1"/>
-    <hyperlink display="https://github.com/APE-Project/APE_Server/blob/master/src/base64.c" ref="A132" r:id="rId2"/>
-    <hyperlink display="https://github.com/APE-Project/APE_Server/blob/master/src/cmd.c" ref="A135" r:id="rId3"/>
-    <hyperlink display="https://github.com/APE-Project/APE_Server/blob/master/deps/js/src/dtoa.c" ref="A220" r:id="rId4"/>
+    <hyperlink ref="A131" r:id="rId1"/>
+    <hyperlink ref="A132" r:id="rId2"/>
+    <hyperlink ref="A135" r:id="rId3"/>
+    <hyperlink ref="A220" r:id="rId4"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/expm.xlsx
+++ b/expm.xlsx
@@ -3981,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="D421" sqref="D421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/expm.xlsx
+++ b/expm.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="1111">
   <si>
     <t>URL</t>
   </si>
@@ -6996,6 +6996,495 @@
     <t>todo</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">decode_base64: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc;(ua.(free + (free + ((free + 0) + ((free + 0) + 0))));a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encode_base64:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>malloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc;(ua.(free + (free + ((free + 0) + ((free + 0) + 0))));a)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  malloc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/base64.c</t>
+  </si>
+  <si>
+    <t>base64.c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBETPAN_EXPORT
+char * decode_base64(const char * in, int len)
+{
+  char * output, * out;
+  int i, c1, c2, c3, c4, out_len;
+  out_len = 0;
+  output = malloc(OUTPUT_SIZE);
+  if (output == NULL)
+    return NULL;
+  out = output;
+  if (in[0] == '+' &amp;&amp; in[1] == ' ')
+    in += 2;
+  for (i = 0; i &lt; (len / 4); i++) {
+    c1 = in[0];
+    c2 = in[1];
+    c3 = in[2];
+    c4 = in[3];
+    if (CHAR64(c1) == -1 || CHAR64(c2) == -1 || 
+        (c3 != '=' &amp;&amp; CHAR64(c3) == -1) || 
+        (c4 != '=' &amp;&amp; CHAR64(c4) == -1)) {
+      free(out);
+      return NULL;
+    }
+    in += 4;
+    *output++ = (CHAR64(c1) &lt;&lt; 2) | (CHAR64(c2) &gt;&gt; 4);
+    if (++out_len &gt;= OUTPUT_SIZE)
+      return NULL;
+    if (c3 != '=') {
+      *output++ = ((CHAR64(c2) &lt;&lt; 4) &amp; 0xf0) | (CHAR64(c3) &gt;&gt; 2);
+      if (++out_len &gt;= OUTPUT_SIZE)
+        return NULL;
+      if (c4 != '=') {
+        *output++ = ((CHAR64(c3) &lt;&lt; 6) &amp; 0xc0) | CHAR64(c4);  
+        if (++out_len &gt;= OUTPUT_SIZE)
+          return NULL;
+      }
+    }
+  }
+  *output = 0;
+  return out;
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_delete_slow:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_delete:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_delete_fast:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_set_size:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_add:  </t>
+  </si>
+  <si>
+    <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/carray.c</t>
+  </si>
+  <si>
+    <t>carray.c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_free:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">carray_new: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc;malloc;(free + 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> free;free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc;malloc;(free + 0)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIBETPAN_EXPORT
+carray * carray_new(unsigned int initsize) {
+  carray * array;
+  array = (carray *) malloc(sizeof(carray));
+  if (!array) return NULL;
+  if (initsize &lt; MIN_ARRAY_SIZE)
+    initsize = MIN_ARRAY_SIZE;
+  array-&gt;len = 0;
+  array-&gt;max = initsize;
+  array-&gt;array = (void **) malloc(sizeof(void *) * initsize);
+  if (!array-&gt;array) {
+    free(array);
+    return NULL;
+  }
+  return array;
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_next:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_begin:  </t>
+  </si>
+  <si>
+    <t>chash_free:  (ua.(ua.(free + 0);(free + 0);free;a);a);free;free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_get:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_func:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_resize:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_clear:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.(ua.(free + 0);(free + 0);free;a);a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_free:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.(ua.(free + 0);(free + 0);free;a);a);free;free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_delete: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> (ua.(((0 + ((free + 0);(free + 0);free)) + 0) + 0);a)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_set:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.(((0 + ((malloc;free) + 0)) + 0) + 0);a);malloc;(malloc + 0);(malloc + 0);(free + 0);free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_new: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc;(free + 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chash_dup: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.(ua.(free + 0);(free + 0);free;a);a)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIBETPAN_EXPORT
+void chash_clear(chash * hash) {
+  unsigned int indx;
+  chashiter * iter, * next;
+  /* browse the hash table */
+  for(indx = 0; indx &lt; hash-&gt;size; indx++) {
+    iter = hash-&gt;cells[indx];
+    while (iter) {
+      next = iter-&gt;next;
+      if (hash-&gt;copykey)
+ free(iter-&gt;key.data);
+      if (hash-&gt;copyvalue)
+ free(iter-&gt;value.data);
+      free(iter);
+      iter = next;
+    }
+  }
+  memset(hash-&gt;cells, 0, hash-&gt;size * sizeof(* hash-&gt;cells));
+  hash-&gt;count = 0;
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIBETPAN_EXPORT
+void chash_free(chash * hash) {
+  unsigned int indx;
+  chashiter * iter, * next;
+  /* browse the hash table */
+  for(indx = 0; indx &lt; hash-&gt;size; indx++) {
+    iter = hash-&gt;cells[indx];
+    while (iter) {
+      next = iter-&gt;next;
+      if (hash-&gt;copykey)
+ free(iter-&gt;key.data);
+      if (hash-&gt;copyvalue)
+ free(iter-&gt;value.data);
+      free(iter);
+      iter = next;
+    }
+  }
+  free(hash-&gt;cells);
+  free(hash);
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.(((0 + ((free + 0);(free + 0);free)) + 0) + 0);a)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBETPAN_EXPORT
+int chash_delete(chash * hash, chashdatum * key, chashdatum * oldvalue)
+{
+  /*  chashdatum result = { NULL, TRUE }; */
+  unsigned int func, indx;
+  chashiter * iter, * old;
+  /*  
+  if (!keylen)
+    keylen = strlen(key) + 1;  
+  */
+  func = chash_func(key-&gt;data, key-&gt;len);
+  indx = func % hash-&gt;size;
+  /* look for the key in existing cells */
+  old = NULL;
+  iter = hash-&gt;cells[indx];
+  while (iter) {
+    if (iter-&gt;key.len == key-&gt;len &amp;&amp; iter-&gt;func == func
+ &amp;&amp; !memcmp(iter-&gt;key.data, key-&gt;data, key-&gt;len)) {
+      /* found, deleting */
+      if (old)
+ old-&gt;next = iter-&gt;next;
+      else
+ hash-&gt;cells[indx] = iter-&gt;next;
+      if (hash-&gt;copykey)
+ free(iter-&gt;key.data);
+      if (hash-&gt;copyvalue)
+ free(iter-&gt;value.data);
+      else {
+ if (oldvalue != NULL) {
+   oldvalue-&gt;data = iter-&gt;value.data;
+   oldvalue-&gt;len = iter-&gt;value.len;
+ }
+      }
+      free(iter);
+      hash-&gt;count--;
+      return 0;
+    }
+    old = iter;
+    iter = iter-&gt;next;
+  }
+  return -1; /* not found */
+}
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.(((0 + ((malloc;free) + 0)) + 0) + 0);a);malloc;(malloc + 0);(malloc + 0);(free + 0);free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LIBETPAN_EXPORT
+int chash_set(chash * hash,
+       chashdatum * key,
+       chashdatum * value,
+       chashdatum * oldvalue)
+{
+  unsigned int func, indx;
+  chashiter * iter, * cell;
+  int r;
+  if (hash-&gt;count &gt; hash-&gt;size * CHASH_MAXDEPTH) {
+    r = chash_resize(hash, (hash-&gt;count / CHASH_MAXDEPTH) * 2 + 1);
+    if (r &lt; 0)
+      goto err;
+  }
+  func = chash_func(key-&gt;data, key-&gt;len);
+  indx = func % hash-&gt;size;
+  /* look for the key in existing cells */
+  iter = hash-&gt;cells[indx];
+  while (iter) {
+    if (iter-&gt;key.len == key-&gt;len &amp;&amp; iter-&gt;func == func
+ &amp;&amp; !memcmp(iter-&gt;key.data, key-&gt;data, key-&gt;len)) {
+      /* found, replacing entry */
+      if (hash-&gt;copyvalue) {
+ char * data;
+ data = chash_dup(value-&gt;data, value-&gt;len);
+ if (data == NULL)
+   goto err;
+ free(iter-&gt;value.data);
+ iter-&gt;value.data = data;
+ iter-&gt;value.len = value-&gt;len;
+      } else {
+ if (oldvalue != NULL) {
+   oldvalue-&gt;data = iter-&gt;value.data;
+   oldvalue-&gt;len = iter-&gt;value.len;
+ }
+ iter-&gt;value.data = value-&gt;data;
+ iter-&gt;value.len = value-&gt;len;
+      }
+      if (!hash-&gt;copykey)
+ iter-&gt;key.data = key-&gt;data;
+      if (oldvalue != NULL) {
+ oldvalue-&gt;data = value-&gt;data;
+ oldvalue-&gt;len = value-&gt;len;
+      }
+      return 0;
+    }
+    iter = iter-&gt;next;
+  }
+  if (oldvalue != NULL) {
+    oldvalue-&gt;data = NULL;
+    oldvalue-&gt;len = 0;
+  }
+  /* not found, adding entry */
+  cell = (struct chashcell *) malloc(sizeof(struct chashcell));
+  if (cell == NULL)
+    goto err;
+  if (hash-&gt;copykey) {
+    cell-&gt;key.data = chash_dup(key-&gt;data, key-&gt;len);
+    if (cell-&gt;key.data == NULL)
+      goto free;
+  }
+  else
+    cell-&gt;key.data = key-&gt;data;
+  cell-&gt;key.len = key-&gt;len;
+  if (hash-&gt;copyvalue) {
+    cell-&gt;value.data = chash_dup(value-&gt;data, value-&gt;len);
+    if (cell-&gt;value.data == NULL)
+      goto free_key_data;
+  }
+  else
+    cell-&gt;value.data = value-&gt;data;
+  cell-&gt;value.len = value-&gt;len;
+  cell-&gt;func = func;
+  cell-&gt;next = hash-&gt;cells[indx];
+  hash-&gt;cells[indx] = cell;
+  hash-&gt;count++;
+  return 0;
+ free_key_data:
+  if (hash-&gt;copykey)
+    free(cell-&gt;key.data);
+ free:
+  free(cell);
+ err:
+  return -1;
+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc;(free + 0)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIBETPAN_EXPORT
+chash * chash_new(unsigned int size, int flags)
+{
+  chash * h;
+  h = (chash *) malloc(sizeof(chash));
+  if (h == NULL)
+    return NULL;
+  if (size &lt; CHASH_DEFAULTSIZE)
+    size = CHASH_DEFAULTSIZE;
+  h-&gt;count = 0;
+  h-&gt;cells = (struct chashcell **) calloc(size, sizeof(struct chashcell *));
+  if (h-&gt;cells == NULL) {
+    free(h);
+    return NULL;
+  }
+  h-&gt;size = size;
+  h-&gt;copykey = flags &amp; CHASH_COPYKEY;
+  h-&gt;copyvalue = flags &amp; CHASH_COPYVALUE;
+  return h;
+}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_nth:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_nth_data:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">internal_clist_nth:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_concat:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_foreach:  </t>
+  </si>
+  <si>
+    <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/clist.c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>clist.c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/chash.c</t>
+  </si>
+  <si>
+    <t>chash.c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_delete:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_insert_after:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_insert_before:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_free:  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clist_new: </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> malloc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>(ua.free;a);free</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -7138,8 +7627,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="31">
+  <cellStyleXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -7234,7 +7728,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="31">
+  <cellStyles count="36">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
     <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
@@ -7266,6 +7760,11 @@
     <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -7662,10 +8161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK521"/>
+  <dimension ref="A1:AMK551"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A517" workbookViewId="0">
-      <selection activeCell="D523" sqref="D523"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -12314,6 +12813,312 @@
       </c>
       <c r="E521" s="1" t="s">
         <v>741</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="409">
+      <c r="A522" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D522" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E522" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F522" s="13" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
+      <c r="C523" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="60">
+      <c r="A524" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
+      <c r="C525" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="C526" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="C527" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
+      <c r="C528" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
+      <c r="C529" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" ht="285">
+      <c r="C530" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D530" s="12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E530" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F530" s="13" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" ht="60">
+      <c r="A531" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
+      <c r="C532" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="C533" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="315">
+      <c r="C534" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D534" s="12" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E534" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F534" s="13" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" ht="315">
+      <c r="C535" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D535" s="12" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E535" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F535" s="13" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" ht="409">
+      <c r="C536" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D536" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E536" s="12" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F536" s="13" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" ht="409">
+      <c r="C537" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D537" s="12" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E537" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F537" s="13" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
+      <c r="C538" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" ht="360">
+      <c r="C539" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="D539" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="E539" s="12" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F539" s="13" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
+      <c r="C540" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D540" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
+      <c r="C541" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="60">
+      <c r="A542" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
+      <c r="C543" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6">
+      <c r="C544" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="545" spans="3:5">
+      <c r="C545" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="546" spans="3:5">
+      <c r="C546" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="547" spans="3:5">
+      <c r="C547" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D547" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="548" spans="3:5">
+      <c r="C548" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="549" spans="3:5">
+      <c r="C549" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D549" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="550" spans="3:5">
+      <c r="C550" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D550" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="551" spans="3:5">
+      <c r="C551" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D551" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1092</v>
       </c>
     </row>
   </sheetData>

--- a/expm.xlsx
+++ b/expm.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="13720"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1219" uniqueCount="962">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="976">
   <si>
     <t>URL</t>
   </si>
@@ -47,7 +51,7 @@
     <t>destroyAlloyCompiler:</t>
   </si>
   <si>
-    <t> (free + 0)</t>
+    <t>(free + 0)</t>
   </si>
   <si>
     <t>free</t>
@@ -59,43 +63,41 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <b val="true"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">(self)</t>
+      <t>(self)</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> {
   if (</t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <b val="true"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">self-&gt;lexer)</t>
+      <t>self-&gt;lexer)</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> destroyLexer(self-&gt;lexer);
   if (self-&gt;parser) destroyParser(self-&gt;parser);
@@ -129,7 +131,7 @@
     <t>linenoiseHistoryLoad:</t>
   </si>
   <si>
-    <t> (ua.(malloc + 0);(free + 0);a)</t>
+    <t>(ua.(malloc + 0);(free + 0);a)</t>
   </si>
   <si>
     <r>
@@ -141,21 +143,20 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">while</t>
+      <t>while</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> (fgets(buf,LINENOISE_MAX_LINE,fp) != NULL) {
         char *p;
@@ -166,22 +167,21 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> linenoiseHistoryAdd(buf);
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">    }
     fclose(fp);
@@ -196,10 +196,10 @@
     <t>linenoiseHistorySetMaxLen:</t>
   </si>
   <si>
-    <t> ((malloc;free) + 0)</t>
-  </si>
-  <si>
-    <t> malloc;free</t>
+    <t>((malloc;free) + 0)</t>
+  </si>
+  <si>
+    <t>malloc;free</t>
   </si>
   <si>
     <r>
@@ -210,22 +210,21 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <b val="true"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">(history)</t>
+      <t>(history)</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> {
         int tocopy = history_len;
@@ -237,23 +236,22 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <b val="true"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">free(history);
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">        history = new;
     }
@@ -268,7 +266,7 @@
     <t>linenoiseHistoryAdd:</t>
   </si>
   <si>
-    <t> (malloc + 0);(free + 0)</t>
+    <t>(malloc + 0);(free + 0)</t>
   </si>
   <si>
     <r>
@@ -286,22 +284,21 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">if (history_len == history_max_len) {
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">        free(history[0]);
         memmove(history,history+1,sizeof(char*)*(history_max_len-1));
@@ -317,7 +314,7 @@
     <t>linenoiseAddCompletion:</t>
   </si>
   <si>
-    <t> malloc</t>
+    <t>malloc</t>
   </si>
   <si>
     <t>linenoiseSetCompletionCallback:</t>
@@ -326,7 +323,7 @@
     <t>linenoise:</t>
   </si>
   <si>
-    <t> (0 + ((ua.(((0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a) + 0))</t>
+    <t>(0 + ((ua.(((0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a) + 0))</t>
   </si>
   <si>
     <t>(0 + ((ua.((((0 + (ua.(((ua.free;a);free) + 0);a));(ua.free;a);free) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a) + 0))</t>
@@ -340,21 +337,20 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">if (isUnsupportedTerm()) </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">{
         size_t len;
@@ -371,43 +367,41 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">} else {
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">        count = </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">linenoiseRaw(buf,LINENOISE_MAX_LINE,prompt);
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">        if (count == -1) return NULL;
         return strdup(buf);
@@ -420,7 +414,7 @@
     <t>linenoiseRaw:</t>
   </si>
   <si>
-    <t> ((ua.(((0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a) + 0)</t>
+    <t>((ua.(((0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a) + 0)</t>
   </si>
   <si>
     <t>((ua.((((0 + (ua.(((ua.free;a);free) + 0);a));(ua.free;a);free) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a) + 0)</t>
@@ -438,22 +432,21 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> if (!isatty(STDIN_FILENO)) {
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">        if (fgets(buf, buflen, stdin) == NULL) return -1;
         count = strlen(buf);
@@ -465,45 +458,43 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> } else {
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">        if (enableRawMode(fd) == -1) return -1;
         count = </t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">linenoisePrompt</t>
+      <t>linenoisePrompt</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">(fd, buf, buflen, prompt);
+      <t>(fd, buf, buflen, prompt);
         disableRawMode(fd);
         printf("\n");
     }
@@ -515,10 +506,10 @@
     <t>linenoisePrompt:</t>
   </si>
   <si>
-    <t> (ua.(((0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a)</t>
-  </si>
-  <si>
-    <t> (ua.((((0 + (ua.(((ua.free;a);free) + 0);a));(ua.free;a);free) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a)</t>
+    <t>(ua.(((0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a)</t>
+  </si>
+  <si>
+    <t>(ua.((((0 + (ua.(((ua.free;a);free) + 0);a));(ua.free;a);free) + 0) + 0);(free + (0 + (free + 0)) + (0 + (0 + (0 + (0 + ((0 + ((free + 0) + 0)) + 0))))) + 0);a)</t>
   </si>
   <si>
     <t>static int linenoisePrompt(int fd, char *buf, size_t buflen, const char *prompt) {
@@ -724,7 +715,7 @@
     <t>completeLine:</t>
   </si>
   <si>
-    <t> (0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0)</t>
+    <t>(0 + (ua.((ua.free;a);(free + 0) + 0);a));(ua.free;a);(free + 0)</t>
   </si>
   <si>
     <t>(0 + (ua.(((ua.free;a);free) + 0);a));(ua.free;a);free</t>
@@ -787,7 +778,7 @@
     <t>(ua.free;a);(free + 0)</t>
   </si>
   <si>
-    <t> (ua.free;a);free</t>
+    <t>(ua.free;a);free</t>
   </si>
   <si>
     <t>beep:</t>
@@ -802,7 +793,7 @@
     <t>linenoiseAtExit:</t>
   </si>
   <si>
-    <t> (((ua.free;a);free) + 0)</t>
+    <t>(((ua.free;a);free) + 0)</t>
   </si>
   <si>
     <t>disableRawMode:</t>
@@ -829,10 +820,10 @@
     <t>main:</t>
   </si>
   <si>
-    <t>  (ua.(ua.((0 + (ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a)) + 0);(((free;free;free;free) + 0) + 0);((ua.(0 + (0 + (malloc + 0)));a) + 0);(((free;free;free;free) + 0) + 0);a);a)</t>
-  </si>
-  <si>
-    <t> (ua.(ua.((0 + (ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a)) + 0);(((free;free;free;free) + 0) + 0);((ua.(0 + (0 + (malloc + 0)));a) + 0);(((free;free;free;free) + 0) + 0);a);a)</t>
+    <t>(ua.(ua.((0 + (ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a)) + 0);(((free;free;free;free) + 0) + 0);((ua.(0 + (0 + (malloc + 0)));a) + 0);(((free;free;free;free) + 0) + 0);a);a)</t>
+  </si>
+  <si>
+    <t>(ua.(ua.((0 + (ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a)) + 0);(((free;free;free;free) + 0) + 0);((ua.(0 + (0 + (malloc + 0)));a) + 0);(((free;free;free;free) + 0) + 0);a);a)</t>
   </si>
   <si>
     <t>int main(void)
@@ -1086,7 +1077,7 @@
     <t>state_machine:</t>
   </si>
   <si>
-    <t> ((ua.(0 + (0 + (malloc + 0)));a) + 0)</t>
+    <t>((ua.(0 + (0 + (malloc + 0)));a) + 0)</t>
   </si>
   <si>
     <t>clear_connection_baggage:</t>
@@ -1103,11 +1094,10 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> if (fdDataList[fd].state != STATE_PRE_REQUEST)
         free_fd_data(&amp;fdDataList[fd]);
@@ -1115,11 +1105,11 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">    fdDataList[fd].state = STATE_PRE_REQUEST;
     int result;
@@ -1143,7 +1133,7 @@
     <t>shutdown_connection:</t>
   </si>
   <si>
-    <t> ((free;free;free;free) + 0)</t>
+    <t>((free;free;free;free) + 0)</t>
   </si>
   <si>
     <t>(ua.((0 + 0);((free;free;free;free;) + 0);(ua.0;a);))</t>
@@ -1169,7 +1159,7 @@
     <t>accept_connection:</t>
   </si>
   <si>
-    <t> (0 + (ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a))</t>
+    <t>(0 + (ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a);(ua.malloc;a))</t>
   </si>
   <si>
     <t>get_in_addr:</t>
@@ -1190,7 +1180,7 @@
     <t>free;free;free;free</t>
   </si>
   <si>
-    <t>  free;free;free;free</t>
+    <t>free;free;free;free</t>
   </si>
   <si>
     <t>new_fd_data:</t>
@@ -1208,7 +1198,7 @@
     <t>database.c</t>
   </si>
   <si>
-    <t> malloc;malloc;(((free + 0);free) + 0)</t>
+    <t>malloc;malloc;(((free + 0);free) + 0)</t>
   </si>
   <si>
     <t>main:  malloc;malloc;free;free</t>
@@ -1235,16 +1225,16 @@
     <t>Database_close:</t>
   </si>
   <si>
-    <t> (((free + 0);free) + 0)</t>
-  </si>
-  <si>
-    <t> free;free</t>
+    <t>(((free + 0);free) + 0)</t>
+  </si>
+  <si>
+    <t>free;free</t>
   </si>
   <si>
     <t>Database_open:</t>
   </si>
   <si>
-    <t> malloc;malloc</t>
+    <t>malloc;malloc</t>
   </si>
   <si>
     <t>Database_load:</t>
@@ -1268,10 +1258,10 @@
     <t>cpio_mkfile_line:</t>
   </si>
   <si>
-    <t> ((malloc + 0) + 0);malloc;(free + 0);(free + 0)</t>
-  </si>
-  <si>
-    <t> ((malloc + 0) + 0);malloc;free;(free + 0)</t>
+    <t>((malloc + 0) + 0);malloc;(free + 0);(free + 0)</t>
+  </si>
+  <si>
+    <t>((malloc + 0) + 0);malloc;free;(free + 0)</t>
   </si>
   <si>
     <r>
@@ -1323,22 +1313,21 @@
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <b val="true"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
-      <t xml:space="preserve">cpio_mkfile</t>
+      <t>cpio_mkfile</t>
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">(dname, cpio_replace_env(location),
                   mode, uid, gid, nlinks);
@@ -1348,11 +1337,10 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FFC0504D"/>
         <rFont val="宋体"/>
         <charset val="134"/>
-        <family val="0"/>
-        <color rgb="00C0504D"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve">if (dname_len) 
    {
@@ -1364,11 +1352,11 @@
     </r>
     <r>
       <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="2"/>
         <charset val="134"/>
-        <family val="2"/>
-        <color rgb="00000000"/>
-        <sz val="12"/>
       </rPr>
       <t xml:space="preserve"> return rc;
 }
@@ -1382,7 +1370,7 @@
     <t>cpio_mkfile:</t>
   </si>
   <si>
-    <t> malloc;(free + 0)</t>
+    <t>malloc;(free + 0)</t>
   </si>
   <si>
     <t>cpio_mknod_line:</t>
@@ -1433,13 +1421,13 @@
     <t>mpc.c</t>
   </si>
   <si>
-    <t>mpcaf_grammar_repeat:  </t>
+    <t>mpcaf_grammar_repeat:</t>
   </si>
   <si>
     <t>(free + 0);(free + 0);(free + 0);(free + 0);free</t>
   </si>
   <si>
-    <t> (free + 0);(free + 0);(free + 0);(free + 0);free</t>
+    <t>(free + 0);(free + 0);(free + 0);(free + 0);free</t>
   </si>
   <si>
     <t>static mpc_val_t *mpcaf_grammar_repeat(int n, mpc_val_t **xs) { 
@@ -1453,11 +1441,10 @@
   num = *((int*)xs[1]);
   free(xs[1]);
   return mpca_count(num, xs[0]);
-}
-</t>
-  </si>
-  <si>
-    <t>mpcf_fold_ast:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpcf_fold_ast:</t>
   </si>
   <si>
     <t>malloc;malloc;malloc;(ua.(((free;free;free;free) + 0) + 0);a)</t>
@@ -1487,24 +1474,22 @@
     r-&gt;state = r-&gt;children[0]-&gt;state;
   }
   return r;
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_print: </t>
-  </si>
-  <si>
-    <t> (ua.((free + 0);((free;free) + 0);(free + 0);(free + 0);(free + 0)))</t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_print:</t>
+  </si>
+  <si>
+    <t>(ua.((free + 0);((free;free) + 0);(free + 0);(free + 0);(free + 0)))</t>
   </si>
   <si>
     <t>void mpc_print(mpc_parser_t *p) {
   mpc_print_unretained(p, 1);
   printf("\n");
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_print_unretained:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_print_unretained:</t>
   </si>
   <si>
     <t>(ua.((free + 0);((free;free) + 0);(free + 0);(free + 0);(free + 0)))</t>
@@ -1606,35 +1591,34 @@
     mpc_print_unretained(p-&gt;data.and.xs[p-&gt;data.and.n-1], 0);
     printf(")");
   }
-}
-</t>
-  </si>
-  <si>
-    <t>mpcf_trd_free: </t>
-  </si>
-  <si>
-    <t> (ua.(free + 0);a)</t>
+}</t>
+  </si>
+  <si>
+    <t>mpcf_trd_free:</t>
   </si>
   <si>
     <t>(ua.(free + 0);a)</t>
   </si>
   <si>
+    <t>(ua.(free + 0);a)</t>
+  </si>
+  <si>
     <t>mpc_val_t *mpcf_trd_free(int n, mpc_val_t **xs) { return mpcf_nth_free(n, xs, 2); }</t>
   </si>
   <si>
-    <t>mpcf_snd_free: </t>
+    <t>mpcf_snd_free:</t>
   </si>
   <si>
     <t>mpc_val_t *mpcf_snd_free(int n, mpc_val_t **xs) { return mpcf_nth_free(n, xs, 1); }</t>
   </si>
   <si>
-    <t>mpcf_fst_free: </t>
+    <t>mpcf_fst_free:</t>
   </si>
   <si>
     <t>mpc_val_t *mpcf_fst_free(int n, mpc_val_t **xs) { return mpcf_nth_free(n, xs, 0); }</t>
   </si>
   <si>
-    <t>mpcf_nth_free: </t>
+    <t>mpcf_nth_free:</t>
   </si>
   <si>
     <t>static mpc_val_t *mpcf_nth_free(int n, mpc_val_t **xs, int x) {
@@ -1643,14 +1627,13 @@
     if (i != x) { free(xs[i]); }
   }
   return xs[x];
-}
-</t>
-  </si>
-  <si>
-    <t>mpcf_re_repeat: </t>
-  </si>
-  <si>
-    <t> (free + 0);(free + 0);(free + 0);free</t>
+}</t>
+  </si>
+  <si>
+    <t>mpcf_re_repeat:</t>
+  </si>
+  <si>
+    <t>(free + 0);(free + 0);(free + 0);free</t>
   </si>
   <si>
     <t>static mpc_val_t *mpcf_re_repeat(int n, mpc_val_t **xs) {
@@ -1663,17 +1646,16 @@
   num = *(int*)xs[1];
   free(xs[1]);
   return mpc_count(num, mpcf_strfold, xs[0], free);
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_cleanup:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_cleanup:</t>
   </si>
   <si>
     <t>malloc;(ua.(ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0)));a);(ua.((((ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))) + 0);free;free) + (ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))));a);free</t>
   </si>
   <si>
-    <t> malloc;(ua.(ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0)));a);(ua.((((ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))) + 0);free;free) + (ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))));a);free</t>
+    <t>malloc;(ua.(ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0)));a);(ua.((((ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))) + 0);free;free) + (ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))));a);free</t>
   </si>
   <si>
     <t>void mpc_cleanup(int n, ...) {
@@ -1686,17 +1668,16 @@
   for (i = 0; i &lt; n; i++) { mpc_delete(list[i]); }  
   va_end(va);  
   free(list);
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_define:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_define:</t>
   </si>
   <si>
     <t>(0 + free);free</t>
   </si>
   <si>
-    <t> (0 + free);free</t>
+    <t>(0 + free);free</t>
   </si>
   <si>
     <t>mpc_parser_t *mpc_define(mpc_parser_t *p, mpc_parser_t *a) {
@@ -1711,14 +1692,13 @@
   }
   free(a);
   return p;  
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_undefine: </t>
-  </si>
-  <si>
-    <t> (ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0)))</t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_undefine:</t>
+  </si>
+  <si>
+    <t>(ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0)))</t>
   </si>
   <si>
     <t>(ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0)))</t>
@@ -1728,23 +1708,21 @@
   mpc_undefine_unretained(p, 1);
   p-&gt;type = MPC_TYPE_UNDEFINED;
   return p;
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_soft_delete:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_soft_delete:</t>
   </si>
   <si>
     <t>static void mpc_soft_delete(mpc_val_t *x) {
   mpc_undefine_unretained(x, 0);
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_delete: </t>
-  </si>
-  <si>
-    <t> ((((ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))) + 0);free;free) + (ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))))</t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_delete:</t>
+  </si>
+  <si>
+    <t>((((ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))) + 0);free;free) + (ua.((free + free + (a;free) + free + (free;free) + 0);((free;free) + 0))))</t>
   </si>
   <si>
     <t>void mpc_delete(mpc_parser_t *p) {
@@ -1757,11 +1735,10 @@
   } else {
     mpc_undefine_unretained(p, 0);  
   }
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_undefine_unretained:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_undefine_unretained:</t>
   </si>
   <si>
     <t>static void mpc_undefine_unretained(mpc_parser_t *p, int force) {
@@ -1797,17 +1774,16 @@
     free(p-&gt;name);
     free(p);
   }
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_input_string:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_input_string:</t>
   </si>
   <si>
     <t>(ua.((malloc + 0) + 0);(free + ((free + 0) + 0));a);((free + 0) + 0);;malloc</t>
   </si>
   <si>
-    <t> (ua.(malloc + 0);(free + ((free + 0) + 0));a);((free + 0) + 0);;malloc</t>
+    <t>(ua.(malloc + 0);(free + ((free + 0) + 0));a);((free + 0) + 0);;malloc</t>
   </si>
   <si>
     <t>static int mpc_input_string(mpc_input_t *i, const char *c, char **o) {
@@ -1827,17 +1803,16 @@
   *o = malloc(strlen(c) + 1);
   strcpy(*o, c);
   return 1;
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_input_rewind:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_input_rewind:</t>
   </si>
   <si>
     <t>((free + 0) + 0)</t>
   </si>
   <si>
-    <t> ((free + 0) + 0)</t>
+    <t>((free + 0) + 0)</t>
   </si>
   <si>
     <t>static void mpc_input_rewind(mpc_input_t *i) {
@@ -1848,11 +1823,10 @@
     fseek(i-&gt;file, i-&gt;state.pos, SEEK_SET);
   }
   mpc_input_unmark(i);
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_input_unmark:  </t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_input_unmark:</t>
   </si>
   <si>
     <t>static void mpc_input_unmark(mpc_input_t *i) {
@@ -1864,14 +1838,13 @@
     free(i-&gt;buffer);
     i-&gt;buffer = NULL;
   }
-}
-</t>
-  </si>
-  <si>
-    <t>mpc_input_delete: </t>
-  </si>
-  <si>
-    <t> free;(free + 0);(free + 0);free;free;free</t>
+}</t>
+  </si>
+  <si>
+    <t>mpc_input_delete:</t>
+  </si>
+  <si>
+    <t>free;(free + 0);(free + 0);free;free;free</t>
   </si>
   <si>
     <t>static void mpc_input_delete(mpc_input_t *i) {
@@ -1881,8 +1854,7 @@
   free(i-&gt;marks);
   free(i-&gt;lasts);
   free(i);
-}
-</t>
+}</t>
   </si>
   <si>
     <t>https://github.com/orangeduck/BuildYourOwnLisp/blob/master/src/conditionals.c</t>
@@ -1900,7 +1872,7 @@
     <t>(ua.free;a)</t>
   </si>
   <si>
-    <t> (ua.free;a)</t>
+    <t>(ua.free;a)</t>
   </si>
   <si>
     <t>eval:</t>
@@ -1933,24 +1905,23 @@
     <t>functions.c</t>
   </si>
   <si>
-    <t>lval_take:  </t>
+    <t>lval_take:</t>
   </si>
   <si>
     <t>(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
-    <t> (ua.((free + free + free + 0);free))</t>
+    <t>(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
     <t>lval* lval_take(lval* v, int i) {
   lval* x = lval_pop(v, i);
   lval_del(v);
   return x;
-}
-</t>
-  </si>
-  <si>
-    <t>lval_del:  </t>
+}</t>
+  </si>
+  <si>
+    <t>lval_del:</t>
   </si>
   <si>
     <t>void lval_del(lval* v) {
@@ -1974,8 +1945,7 @@
     break;
   }
   free(v);
-}
-</t>
+}</t>
   </si>
   <si>
     <t>https://github.com/orangeduck/BuildYourOwnLisp/blob/master/src/parsing.c</t>
@@ -1996,7 +1966,7 @@
     <t>q_expressions.c</t>
   </si>
   <si>
-    <t> (ua.((ua.(((malloc + (malloc;malloc)) + 0);((malloc;malloc) + 0);(malloc + 0);(malloc + 0);(malloc + 0)));((ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free)) + 0);;(ua.((free + free + free + 0);free)) + 0);free;a)</t>
+    <t>(ua.((ua.(((malloc + (malloc;malloc)) + 0);((malloc;malloc) + 0);(malloc + 0);(malloc + 0);(malloc + 0)));((ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free)) + 0);;(ua.((free + free + free + 0);free)) + 0);free;a)</t>
   </si>
   <si>
     <t>lval_read:</t>
@@ -2005,25 +1975,25 @@
     <t>(ua.(((malloc + (malloc;malloc)) + 0);((malloc;malloc) + 0);(malloc + 0);(malloc + 0);(malloc + 0)))</t>
   </si>
   <si>
-    <t> (ua.(((malloc + (malloc;malloc)) + 0);((malloc;malloc) + 0);(malloc + 0);(malloc + 0);(malloc + 0)))</t>
+    <t>(ua.(((malloc + (malloc;malloc)) + 0);((malloc;malloc) + 0);(malloc + 0);(malloc + 0);(malloc + 0)))</t>
   </si>
   <si>
     <t>lval_read_num:</t>
   </si>
   <si>
-    <t> (malloc + (malloc;malloc))</t>
+    <t>(malloc + (malloc;malloc))</t>
   </si>
   <si>
     <t>lval_eval:</t>
   </si>
   <si>
-    <t> ((ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free)) + 0)</t>
+    <t>((ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free)) + 0)</t>
   </si>
   <si>
     <t>lval_eval_sexpr:</t>
   </si>
   <si>
-    <t> (ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free))</t>
+    <t>(ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
     <t>lval_eval_sexpr:  (ua.((ua.((free + free + free + 0);free)) + 0);a);((ua.((free + free + free + 0);free)) + 0);(((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc;;(ua.((free + free + free + 0);free))</t>
@@ -2032,7 +2002,7 @@
     <t>builtin:</t>
   </si>
   <si>
-    <t> ((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc</t>
+    <t>((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc</t>
   </si>
   <si>
     <t>builtin:  ((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));(ua.(ua.((free + free + free + 0);free));a) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);((((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free)) + 0);((ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free)) + 0);(ua.((free + free + free + 0);free));malloc;malloc</t>
@@ -2041,16 +2011,16 @@
     <t>builtin_op:</t>
   </si>
   <si>
-    <t> (ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free))</t>
-  </si>
-  <si>
     <t>(ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
+    <t>(ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.((((ua.((free + free + free + 0);free));(ua.((free + free + free + 0);free));malloc;malloc) + 0) + 0);(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free))</t>
+  </si>
+  <si>
     <t>builtin_join:</t>
   </si>
   <si>
-    <t> (ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free))</t>
+    <t>(ua.(((ua.((free + free + free + 0);free));malloc;malloc) + 0);a);(ua.(ua.((free + free + free + 0);free));a);(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
     <t>builtin_eval:</t>
@@ -2059,13 +2029,13 @@
     <t>(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
-    <t> (((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free))</t>
+    <t>(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
     <t>builtin_tail:</t>
   </si>
   <si>
-    <t> (((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free))</t>
+    <t>(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(((ua.((free + free + free + 0);free));malloc;malloc) + 0);(ua.((free + free + free + 0);free));;(ua.((free + free + free + 0);free))</t>
   </si>
   <si>
     <t>builtin_head:</t>
@@ -2133,8 +2103,7 @@
     break;
   }
   free(v);
-}
-</t>
+}</t>
   </si>
   <si>
     <t>lval_qexpr:</t>
@@ -2173,12 +2142,12 @@
     <t>afree:</t>
   </si>
   <si>
-    <t> (free + free)</t>
-  </si>
-  <si>
     <t>(free + free)</t>
   </si>
   <si>
+    <t>(free + free)</t>
+  </si>
+  <si>
     <t>amalloc:  ((0 + 0) + 0)</t>
   </si>
   <si>
@@ -2200,7 +2169,7 @@
     <t>e_basename:</t>
   </si>
   <si>
-    <t> (((malloc + 0) + 0) + 0)</t>
+    <t>(((malloc + 0) + 0) + 0)</t>
   </si>
   <si>
     <t>https://github.com/Orc/discount/blob/master/css.c</t>
@@ -2209,7 +2178,7 @@
     <t>css.c</t>
   </si>
   <si>
-    <t>mkd_generatecss:  </t>
+    <t>mkd_generatecss:</t>
   </si>
   <si>
     <t>((((0 + (0 + malloc));((0 + (0 + malloc)) + (free + 0)) + 0) + 0) + 0);(free + 0)</t>
@@ -2231,13 +2200,13 @@
 }</t>
   </si>
   <si>
-    <t>mkd_css:  </t>
+    <t>mkd_css:</t>
   </si>
   <si>
     <t>((((0 + (0 + malloc));((0 + (0 + malloc)) + (free + 0)) + 0) + 0) + 0)</t>
   </si>
   <si>
-    <t> ((((0 + (0 + malloc));((0 + (0 + malloc)) + (free + 0)) + 0) + 0) + 0)</t>
+    <t>((((0 + (0 + malloc));((0 + (0 + malloc)) + (free + 0)) + 0) + 0) + 0)</t>
   </si>
   <si>
     <t>int
@@ -2311,7 +2280,7 @@
     <t>cmd_script:</t>
   </si>
   <si>
-    <t> (0 + (free + 0))</t>
+    <t>(0 + (free + 0))</t>
   </si>
   <si>
     <t>(0 + (free + 0))</t>
@@ -2409,7 +2378,7 @@
     <t>ape_config_free:</t>
   </si>
   <si>
-    <t> (ua.(ua.free;free;a);free;a)</t>
+    <t>(ua.(ua.free;free;a);free;a)</t>
   </si>
   <si>
     <t>(ua.(ua.free;free;a);free;a)</t>
@@ -2475,7 +2444,7 @@
     <t>pvalloc:</t>
   </si>
   <si>
-    <t> (malloc + 0);(0 + malloc;((free + 0);(free + 0) + 0))</t>
+    <t>(malloc + 0);(0 + malloc;((free + 0);(free + 0) + 0))</t>
   </si>
   <si>
     <t>void* dlpvalloc(size_t bytes) {
@@ -2500,13 +2469,13 @@
     <t>independent_comalloc:</t>
   </si>
   <si>
-    <t>  (0 + (malloc + 0));malloc</t>
+    <t>(0 + (malloc + 0));malloc</t>
   </si>
   <si>
     <t>independent_calloc:</t>
   </si>
   <si>
-    <t> (0 + (malloc + 0));malloc</t>
+    <t>(0 + (malloc + 0));malloc</t>
   </si>
   <si>
     <t>memalign:</t>
@@ -2523,7 +2492,7 @@
     <t>realloc:</t>
   </si>
   <si>
-    <t> (malloc + ((free + 0) + malloc;(free + 0)))</t>
+    <t>(malloc + ((free + 0) + malloc;(free + 0)))</t>
   </si>
   <si>
     <t>void* dlrealloc(void* oldmem, size_t bytes) {
@@ -2664,7 +2633,7 @@
     <t>internal_realloc:</t>
   </si>
   <si>
-    <t> ((free + 0) + malloc;(free + 0))</t>
+    <t>((free + 0) + malloc;(free + 0))</t>
   </si>
   <si>
     <t>static void* internal_realloc(mstate m, void* oldmem, size_t bytes) {
@@ -2799,7 +2768,7 @@
     <t>ape_gethostbyname:</t>
   </si>
   <si>
-    <t> (0 + (free;free;free))</t>
+    <t>(0 + (free;free;free))</t>
   </si>
   <si>
     <t>void ape_gethostbyname(char *name, void (*callback)(char *, void *, acetables *), void *data, acetables *g_ape)
@@ -2837,7 +2806,7 @@
     <t>dnscb:</t>
   </si>
   <si>
-    <t> (free + 0);free;free;free;free</t>
+    <t>(free + 0);free;free;free;free</t>
   </si>
   <si>
     <t>(free + 0);free;free;free;free</t>
@@ -2903,12 +2872,12 @@
     <t>query_free:</t>
   </si>
   <si>
-    <t> free;free;free</t>
-  </si>
-  <si>
     <t>free;free;free</t>
   </si>
   <si>
+    <t>free;free;free</t>
+  </si>
+  <si>
     <t>ape_dns_write:</t>
   </si>
   <si>
@@ -2927,7 +2896,7 @@
     <t>dnsget.c</t>
   </si>
   <si>
-    <t> ((ua.(free + 0);a) + 0);(ua.malloc;malloc;(0 + (free;free));a)</t>
+    <t>((ua.(free + 0);a) + 0);(ua.malloc;malloc;(0 + (free;free));a)</t>
   </si>
   <si>
     <t>int main(int argc, char **argv) {
@@ -3097,7 +3066,7 @@
 }</t>
   </si>
   <si>
-    <t> ((free;free) + 0);((free;free;;free) + 0);free;free;free</t>
+    <t>((free;free) + 0);((free;free;;free) + 0);free;free;free</t>
   </si>
   <si>
     <t>((free;free) + 0);((free;free;;free) + 0);free;free;free</t>
@@ -3184,12 +3153,12 @@
     <t>dnserror:</t>
   </si>
   <si>
-    <t>  free;free</t>
-  </si>
-  <si>
     <t>free;free</t>
   </si>
   <si>
+    <t>free;free</t>
+  </si>
+  <si>
     <t>dns_xntop:</t>
   </si>
   <si>
@@ -3214,51 +3183,25 @@
     <t>last_argument:</t>
   </si>
   <si>
-    <t> malloc;(ua.(((((malloc;free) + 0) + 0) + 0) + 0);a);(((malloc;(free + 0) + 0) + 0) + ((malloc;(free + 0) + 0) + 0));(free + 0);free</t>
-  </si>
-  <si>
     <t>malloc;(ua.(((((malloc;free) + 0) + 0) + 0) + 0);a);(((malloc;(free + 0) + 0) + 0) + ((malloc;(free + 0) + 0) + 0));(free + 0);free</t>
   </si>
   <si>
-    <t>STATIC STATUS
-last_argument()
-{
-CHAR **av;
-CHAR *p;
-STATUS s;
-int	ac;
-if (H.Size == 1 || (p = H.Lines[H.Size - 2]) == NULL)
-return ring_bell();
-if ((p = (CHAR *)strdup((char *)p)) == NULL)
-return CSstay;
-ac = argify(p, &amp;av);
-if (Repeat != NO_ARG)
-s = Repeat &lt; ac ? insert_string(av[Repeat]) : ring_bell();
-else
-s = ac ? insert_string(av[ac - 1]) : CSstay;
-if (ac)
-DISPOSE(av);
-DISPOSE(p);
-return s;
-}</t>
-  </si>
-  <si>
-    <t>todo</t>
+    <t>malloc;(ua.(((((malloc;free) + 0) + 0) + 0) + 0);a);(((malloc;(free + 0) + 0) + 0) + ((malloc;(free + 0) + 0) + 0));(free + 0);free</t>
   </si>
   <si>
     <t>argify:</t>
   </si>
   <si>
-    <t> malloc;(ua.(((((malloc;free) + 0) + 0) + 0) + 0);a)</t>
+    <t>malloc;(ua.(((((malloc;free) + 0) + 0) + 0) + 0);a)</t>
   </si>
   <si>
     <t>bk_kill_word:</t>
   </si>
   <si>
-    <t> ((((free + 0);malloc) + 0) + 0)</t>
-  </si>
-  <si>
-    <t>  (((free;malloc) + 0) + 0)</t>
+    <t>((((free + 0);malloc) + 0) + 0)</t>
+  </si>
+  <si>
+    <t>(((free;malloc) + 0) + 0)</t>
   </si>
   <si>
     <t>bk_word:  (ua.((ua.0;a);))</t>
@@ -3270,7 +3213,7 @@
     <t>((((free + 0);malloc) + 0) + 0)</t>
   </si>
   <si>
-    <t> (((free;malloc) + 0) + 0)</t>
+    <t>(((free;malloc) + 0) + 0)</t>
   </si>
   <si>
     <t>fd_word:</t>
@@ -3282,19 +3225,19 @@
     <t>copy_region:</t>
   </si>
   <si>
-    <t> (((free + 0);malloc) + ((free + 0);malloc))</t>
-  </si>
-  <si>
-    <t> ((free;malloc) + (free;malloc))</t>
+    <t>(((free + 0);malloc) + ((free + 0);malloc))</t>
+  </si>
+  <si>
+    <t>((free;malloc) + (free;malloc))</t>
   </si>
   <si>
     <t>yank:</t>
   </si>
   <si>
-    <t> (((malloc;(free + 0) + 0) + 0) + 0)</t>
-  </si>
-  <si>
-    <t>  ((malloc;(free + 0) + 0) + 0)</t>
+    <t>(((malloc;(free + 0) + 0) + 0) + 0)</t>
+  </si>
+  <si>
+    <t>((malloc;(free + 0) + 0) + 0)</t>
   </si>
   <si>
     <t>exchange:</t>
@@ -3309,13 +3252,13 @@
     <t>(((free + 0);malloc) + 0)</t>
   </si>
   <si>
-    <t> ((free;malloc) + 0)</t>
+    <t>((free;malloc) + 0)</t>
   </si>
   <si>
     <t>quote:</t>
   </si>
   <si>
-    <t> (0 + (((malloc;(free + 0) + 0) + ((malloc;(free + 0) + 0) + 0));malloc;(malloc;(free + 0) + 0);;free))</t>
+    <t>(0 + (((malloc;(free + 0) + 0) + ((malloc;(free + 0) + 0) + 0));malloc;(malloc;(free + 0) + 0);;free))</t>
   </si>
   <si>
     <t>transpose:</t>
@@ -3330,7 +3273,7 @@
     <t>del_char:</t>
   </si>
   <si>
-    <t>  (((free + 0);malloc) + 0)</t>
+    <t>(((free + 0);malloc) + 0)</t>
   </si>
   <si>
     <t>beg_line:</t>
@@ -3339,19 +3282,19 @@
     <t>add_history:</t>
   </si>
   <si>
-    <t> (0 + free)</t>
-  </si>
-  <si>
     <t>(0 + free)</t>
   </si>
   <si>
+    <t>(0 + free)</t>
+  </si>
+  <si>
     <t>readline:</t>
   </si>
   <si>
-    <t> (malloc + 0);(0 + free);;malloc;(ua.((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0));(((((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc) + 0);a);free;free;free</t>
-  </si>
-  <si>
-    <t> (malloc + 0);(0 + free);;malloc;(ua.(((free;malloc) + 0) + (((free;malloc) + 0) + 0));((((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc) + 0);a);free;free;free</t>
+    <t>(malloc + 0);(0 + free);;malloc;(ua.((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0));(((((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc) + 0);a);free;free;free</t>
+  </si>
+  <si>
+    <t>(malloc + 0);(0 + free);;malloc;(ua.(((free;malloc) + 0) + (((free;malloc) + 0) + 0));((((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc) + 0);a);free;free;free</t>
   </si>
   <si>
     <t>rl_initialize:</t>
@@ -3363,13 +3306,13 @@
     <t>hist_add:</t>
   </si>
   <si>
-    <t>  (0 + free)</t>
+    <t>(0 + free)</t>
   </si>
   <si>
     <t>editinput:</t>
   </si>
   <si>
-    <t> (ua.((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0));(((((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc) + 0);a);free</t>
+    <t>(ua.((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0));(((((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc) + 0);a);free</t>
   </si>
   <si>
     <t>(ua.(((free;malloc) + 0) + (((free;malloc) + 0) + 0));((((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc) + 0);a);free</t>
@@ -3378,10 +3321,10 @@
     <t>TTYspecial:</t>
   </si>
   <si>
-    <t> ((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0));(((((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc) + 0)</t>
-  </si>
-  <si>
-    <t> (((free;malloc) + 0) + (((free;malloc) + 0) + 0));((((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc) + 0)</t>
+    <t>((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0));(((((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc) + 0)</t>
+  </si>
+  <si>
+    <t>(((free;malloc) + 0) + (((free;malloc) + 0) + 0));((((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc) + 0)</t>
   </si>
   <si>
     <t>emacs:</t>
@@ -3390,28 +3333,28 @@
     <t>(0 + (((malloc;(free + 0) + 0) + ((malloc;(free + 0) + 0) + 0));malloc;(malloc;(free + 0) + 0);;free))</t>
   </si>
   <si>
-    <t>meta:  </t>
+    <t>meta:</t>
   </si>
   <si>
     <t>insert_char:</t>
   </si>
   <si>
-    <t> ((malloc;(free + 0) + 0) + ((malloc;(free + 0) + 0) + 0));malloc;(malloc;(free + 0) + 0);;free</t>
+    <t>((malloc;(free + 0) + 0) + ((malloc;(free + 0) + 0) + 0));malloc;(malloc;(free + 0) + 0);;free</t>
   </si>
   <si>
     <t>kill_line:</t>
   </si>
   <si>
-    <t> (((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc</t>
-  </si>
-  <si>
-    <t>  ((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc</t>
+    <t>(((((free + 0);malloc) + 0) + ((((free + 0);malloc) + 0) + 0)) + 0);(free + 0);malloc</t>
+  </si>
+  <si>
+    <t>((((free;malloc) + 0) + (((free;malloc) + 0) + 0)) + 0);free;malloc</t>
   </si>
   <si>
     <t>bk_del_char:</t>
   </si>
   <si>
-    <t> (((free + 0);malloc) + 0)</t>
+    <t>(((free + 0);malloc) + 0)</t>
   </si>
   <si>
     <t>bk_del_char:  (ua.((ua.0;a);(ua.(((0 + 0);;(0 + 0) + ((0 + 0);;(0 + 0) + 0));(((0 + 0);(((0 + 0) + 0) + (((0 + 0);;(0 + 0) + 0) + 0));(ua.((ua.0;a);)) + 0) + 0);((0 + 0) + 0);((ua.(free;(0 + 0);malloc;(0 + 0);)) + 0);(ua.0;a);(ua.((ua.0;a);(ua.0;a);));(ua.((ua.0;a);));));))</t>
@@ -3426,10 +3369,10 @@
     <t>save_yank:</t>
   </si>
   <si>
-    <t> (free + 0);malloc</t>
-  </si>
-  <si>
-    <t> free;malloc</t>
+    <t>(free + 0);malloc</t>
+  </si>
+  <si>
+    <t>free;malloc</t>
   </si>
   <si>
     <t>fd_char:</t>
@@ -3444,16 +3387,16 @@
     <t>(((free + 0) + 0) + 0);(malloc;(free + 0) + 0)</t>
   </si>
   <si>
-    <t> (((free + 0) + 0) + 0);(malloc;(free + 0) + 0)</t>
+    <t>(((free + 0) + 0) + 0);(malloc;(free + 0) + 0)</t>
   </si>
   <si>
     <t>search_hist:</t>
   </si>
   <si>
-    <t>  (((free + 0) + 0) + 0)</t>
-  </si>
-  <si>
-    <t> (((free + 0) + 0) + 0)</t>
+    <t>(((free + 0) + 0) + 0)</t>
+  </si>
+  <si>
+    <t>(((free + 0) + 0) + 0)</t>
   </si>
   <si>
     <t>substrcmp:</t>
@@ -3462,13 +3405,13 @@
     <t>h_last:</t>
   </si>
   <si>
-    <t> (malloc;(free + 0) + 0)</t>
+    <t>(malloc;(free + 0) + 0)</t>
   </si>
   <si>
     <t>h_first:</t>
   </si>
   <si>
-    <t>  (malloc;(free + 0) + 0)</t>
+    <t>(malloc;(free + 0) + 0)</t>
   </si>
   <si>
     <t>h_prev:</t>
@@ -3552,10 +3495,10 @@
     <t>TTYputs:</t>
   </si>
   <si>
-    <t>TTYput: </t>
-  </si>
-  <si>
-    <t>TTYflush:  </t>
+    <t>TTYput:</t>
+  </si>
+  <si>
+    <t>TTYflush:</t>
   </si>
   <si>
     <t>https://github.com/APE-Project/APE_Server/blob/master/src/entry.c</t>
@@ -3564,7 +3507,7 @@
     <t>entry.c</t>
   </si>
   <si>
-    <t> free;free;(ua.(free + 0);a);free;free</t>
+    <t>free;free;(ua.(free + 0);a);free;free</t>
   </si>
   <si>
     <t>int main(int argc, char **argv)
@@ -3891,7 +3834,7 @@
     <t>clear_properties:</t>
   </si>
   <si>
-    <t> (ua.(free + 0);free;a)</t>
+    <t>(ua.(free + 0);free;a)</t>
   </si>
   <si>
     <t>void clear_properties(extend **entry)
@@ -3919,7 +3862,7 @@
     <t>del_property:</t>
   </si>
   <si>
-    <t> (ua.(((free + 0);free) + 0);a)</t>
+    <t>(ua.(((free + 0);free) + 0);a)</t>
   </si>
   <si>
     <t>(ua.(((free + 0);free) + 0);a)</t>
@@ -3970,7 +3913,7 @@
     <t>hashtbl_erase:</t>
   </si>
   <si>
-    <t> (ua.((free;free) + 0);a)</t>
+    <t>(ua.((free;free) + 0);a)</t>
   </si>
   <si>
     <t>void hashtbl_erase(HTBL *htbl, const char *key)
@@ -4011,7 +3954,7 @@
     <t>hashtbl_append:</t>
   </si>
   <si>
-    <t> ((ua.((free;free) + 0);a) + 0)</t>
+    <t>((ua.((free;free) + 0);a) + 0)</t>
   </si>
   <si>
     <t>(ua.((0 + 0);(ua.((ua.0;a);));(((ua.(0 + 0);((free;free;) + 0)a);) + 0);))</t>
@@ -4058,12 +4001,12 @@
     <t>hashtbl_free:</t>
   </si>
   <si>
-    <t> (ua.(ua.free;free;a);a);free;free</t>
-  </si>
-  <si>
     <t>(ua.(ua.free;free;a);a);free;free</t>
   </si>
   <si>
+    <t>(ua.(ua.free;free;a);a);free;free</t>
+  </si>
+  <si>
     <t>hashtbl_init:</t>
   </si>
   <si>
@@ -4082,7 +4025,7 @@
     <t>http_headers_free:</t>
   </si>
   <si>
-    <t> (ua.free;free;a);free</t>
+    <t>(ua.free;free;a);free</t>
   </si>
   <si>
     <t>http_send_headers:</t>
@@ -4135,7 +4078,7 @@
     <t>process_http:</t>
   </si>
   <si>
-    <t> (ua.(((0 + (0 + (ua.(((free + (free + 0)) + ((free + 0) + (free + 0))) + 0);a);(free + 0))) + 0)))</t>
+    <t>(ua.(((0 + (0 + (ua.(((free + (free + 0)) + ((free + 0) + (free + 0))) + 0);a);(free + 0))) + 0)))</t>
   </si>
   <si>
     <t>void process_http(ape_socket *co, acetables *g_ape)
@@ -4323,7 +4266,7 @@
     <t>parse_header_line:</t>
   </si>
   <si>
-    <t> (ua.(((free + (free + 0)) + ((free + 0) + (free + 0))) + 0);a);(free + 0)</t>
+    <t>(ua.(((free + (free + 0)) + ((free + 0) + (free + 0))) + 0);a);(free + 0)</t>
   </si>
   <si>
     <t>static struct _http_header_line *parse_header_line(const char *line)
@@ -4374,7 +4317,7 @@
     <t>json_lookup:</t>
   </si>
   <si>
-    <t> (ua.(((free + 0) + 0) + 0);a);free</t>
+    <t>(ua.(((free + 0) + 0) + 0);a);free</t>
   </si>
   <si>
     <t>json_item *json_lookup(json_item *head, char *path)
@@ -4419,10 +4362,10 @@
     <t>init_json_parser:</t>
   </si>
   <si>
-    <t>  (ua.(0 + (ua.((ua.(free + 0);(free + 0);free;a))));a);(0 + (ua.((ua.(free + 0);(free + 0);free;a))))</t>
-  </si>
-  <si>
-    <t> (ua.(0 + (ua.((ua.(free + 0);(free + 0);free;a))));a);(0 + (ua.((ua.(free + 0);(free + 0);free;a))))</t>
+    <t>(ua.(0 + (ua.((ua.(free + 0);(free + 0);free;a))));a);(0 + (ua.((ua.(free + 0);(free + 0);free;a))))</t>
+  </si>
+  <si>
+    <t>(ua.(0 + (ua.((ua.(free + 0);(free + 0);free;a))));a);(0 + (ua.((ua.(free + 0);(free + 0);free;a))))</t>
   </si>
   <si>
     <t>json_item *init_json_parser(const char *json_string)
@@ -4524,7 +4467,7 @@
     <t>free_json_item:</t>
   </si>
   <si>
-    <t> (ua.((ua.(free + 0);(free + 0);free;a)))</t>
+    <t>(ua.((ua.(free + 0);(free + 0);free;a)))</t>
   </si>
   <si>
     <t>(ua.((ua.(free + 0);(free + 0);free;a)))</t>
@@ -4556,7 +4499,7 @@
     <t>json_to_string:</t>
   </si>
   <si>
-    <t> (ua.((ua.((free + 0) + 0);((free + 0) + 0);(free + 0);a)))</t>
+    <t>(ua.((ua.((free + 0) + 0);((free + 0) + 0);(free + 0);a)))</t>
   </si>
   <si>
     <t>struct jsontring *json_to_string(json_item *head, struct jsontring *string, int free_tree)
@@ -4671,10 +4614,10 @@
     <t>json_free:</t>
   </si>
   <si>
-    <t> (ua.(free;(free + 0);free))</t>
-  </si>
-  <si>
-    <t> (ua.(free;free;free))</t>
+    <t>(ua.(free;(free + 0);free))</t>
+  </si>
+  <si>
+    <t>(ua.(free;free;free))</t>
   </si>
   <si>
     <t>json_copy:</t>
@@ -4692,7 +4635,7 @@
     <t>ape_log:</t>
   </si>
   <si>
-    <t> (0 + ((0 + (free + 0));free))</t>
+    <t>(0 + ((0 + (free + 0));free))</t>
   </si>
   <si>
     <t>(0 + ((0 + (free + 0));free))</t>
@@ -4763,7 +4706,7 @@
     <t>nsinstall.c</t>
   </si>
   <si>
-    <t> (ua.(0 + ((free + 0) + (((ua.((free + 0);(0 + free);free;free;free)) + 0) + 0)));free;a);free;free</t>
+    <t>(ua.(0 + ((free + 0) + (((ua.((free + 0);(0 + free);free;free;free)) + 0) + 0)));free;a);free;free</t>
   </si>
   <si>
     <t>int
@@ -4950,7 +4893,7 @@
     <t>copydir:</t>
   </si>
   <si>
-    <t> (ua.((free + 0);(0 + free);free;free;free))</t>
+    <t>(ua.((free + 0);(0 + free);free;free;free))</t>
   </si>
   <si>
     <t>static void
@@ -5017,10 +4960,10 @@
     <t>find_includes:</t>
   </si>
   <si>
-    <t>  (ua.((ua.(((malloc + 0);(free + 0);malloc) + 0);a)))</t>
-  </si>
-  <si>
-    <t>  (ua.((ua.(((malloc + 0);free;;malloc) + 0);a)))</t>
+    <t>(ua.((ua.(((malloc + 0);(free + 0);malloc) + 0);a)))</t>
+  </si>
+  <si>
+    <t>(ua.((ua.(((malloc + 0);free;;malloc) + 0);a)))</t>
   </si>
   <si>
     <t>int
@@ -5168,7 +5111,7 @@
     <t>merge2defines:</t>
   </si>
   <si>
-    <t> (malloc + 0);free</t>
+    <t>(malloc + 0);free</t>
   </si>
   <si>
     <t>slookup:</t>
@@ -5177,10 +5120,10 @@
     <t>define:</t>
   </si>
   <si>
-    <t> (malloc + 0);(free + 0);malloc</t>
-  </si>
-  <si>
-    <t> (malloc + 0);free;;malloc</t>
+    <t>(malloc + 0);(free + 0);malloc</t>
+  </si>
+  <si>
+    <t>(malloc + 0);free;;malloc</t>
   </si>
   <si>
     <t>define2:</t>
@@ -5231,7 +5174,7 @@
     <t>destroy_pipe:</t>
   </si>
   <si>
-    <t> free</t>
+    <t>free</t>
   </si>
   <si>
     <t>init_pipe:</t>
@@ -5264,7 +5207,7 @@
     <t>(ua.((free + 0) + 0);a)</t>
   </si>
   <si>
-    <t> (ua.((free + 0) + 0);a)</t>
+    <t>(ua.((free + 0) + 0);a)</t>
   </si>
   <si>
     <t>void findandloadplugin(acetables *g_ape)
@@ -5315,10 +5258,10 @@
     <t>destroy_raw_pool:</t>
   </si>
   <si>
-    <t> (ua.(((free;free) + 0) + 0);((free + 0) + 0);a);(free + 0)</t>
-  </si>
-  <si>
-    <t>  (ua.(((free;free) + 0) + 0);((free + 0) + 0);a);free</t>
+    <t>(ua.(((free;free) + 0) + 0);((free + 0) + 0);a);(free + 0)</t>
+  </si>
+  <si>
+    <t>(ua.(((free;free) + 0) + 0);((free + 0) + 0);a);free</t>
   </si>
   <si>
     <t>void destroy_raw_pool(struct _raw_pool *ptr)
@@ -5351,7 +5294,7 @@
     <t>send_raws:</t>
   </si>
   <si>
-    <t>  (ua.((free;free) + 0);a)</t>
+    <t>(ua.((free;free) + 0);a)</t>
   </si>
   <si>
     <t>int send_raws(subuser *user, acetables *g_ape)
@@ -5454,7 +5397,7 @@
     <t>send_raw_inline:</t>
   </si>
   <si>
-    <t> ((free;free) + 0)</t>
+    <t>((free;free) + 0)</t>
   </si>
   <si>
     <t>int send_raw_inline(ape_socket *client, transport_t transport, RAW *raw, acetables *g_ape)
@@ -5521,10 +5464,10 @@
     <t>post_to_pipe:</t>
   </si>
   <si>
-    <t> ((free + 0) + 0);(free + ((free + 0) + 0) + 0)</t>
-  </si>
-  <si>
-    <t>  (free + 0);(free + ((free + 0) + 0) + 0)</t>
+    <t>((free + 0) + 0);(free + ((free + 0) + 0) + 0)</t>
+  </si>
+  <si>
+    <t>(free + 0);(free + ((free + 0) + 0) + 0)</t>
   </si>
   <si>
     <t>int post_to_pipe(json_item *jlist, const char *rawname, const char *pipe, subuser *from, acetables *g_ape)
@@ -5623,13 +5566,13 @@
     <t>ast.c</t>
   </si>
   <si>
-    <t>destroyType:  </t>
+    <t>destroyType:</t>
   </si>
   <si>
     <t>(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free;;free</t>
   </si>
   <si>
-    <t>destroyTypeLiteral:  </t>
+    <t>destroyTypeLiteral:</t>
   </si>
   <si>
     <t>(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free</t>
@@ -5638,7 +5581,7 @@
     <t>destroyTypeLiteral:  (ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free</t>
   </si>
   <si>
-    <t>destroyStatement:  </t>
+    <t>destroyStatement:</t>
   </si>
   <si>
     <t>free;;free;;free;;free;(ua.(ua.(a;(ua.(a;free));(ua.(a;free));free));a);free;;free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;(ua.free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;a);(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;(((ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free) + (free;;free;;free;;(ua.free;a);free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free) + ((ua.(a;(ua.(a;free));(ua.(a;free));free));free) + (free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free));free;;free</t>
@@ -5647,7 +5590,7 @@
     <t>destroyStatement:  free;;free;;free;;free;(ua.(ua.(a;(ua.(a;free));(ua.(a;free));free));a);free;;free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;(ua.free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;a);(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;(((ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free) + (free;;free;;free;;(ua.free;a);free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free) + ((ua.(a;(ua.(a;free));(ua.(a;free));free));free) + (free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free));free;;free</t>
   </si>
   <si>
-    <t>destroyStructuredStatement:  </t>
+    <t>destroyStructuredStatement:</t>
   </si>
   <si>
     <t>free;;free;;free;;free;(ua.(ua.(a;(ua.(a;free));(ua.(a;free));free));a);free;;free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;(ua.free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;a);(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free</t>
@@ -5656,7 +5599,7 @@
     <t>destroyStructuredStatement:  free;;free;;free;;free;(ua.(ua.(a;(ua.(a;free));(ua.(a;free));free));a);free;;free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;(ua.free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;a);(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free</t>
   </si>
   <si>
-    <t>destroyForStat:  </t>
+    <t>destroyForStat:</t>
   </si>
   <si>
     <t>free;;free;(ua.(ua.(a;(ua.(a;free));(ua.(a;free));free));a);free</t>
@@ -5665,7 +5608,7 @@
     <t>destroyForStat:  free;;free;(ua.(ua.(a;(ua.(a;free));(ua.(a;free));free));a);free</t>
   </si>
   <si>
-    <t>destroyMatchStat:  </t>
+    <t>destroyMatchStat:</t>
   </si>
   <si>
     <t>(ua.free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;a);(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
@@ -5674,7 +5617,7 @@
     <t>destroyMatchStat:  (ua.free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;a);(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
   </si>
   <si>
-    <t>destroyMatchClause:  </t>
+    <t>destroyMatchClause:</t>
   </si>
   <si>
     <t>free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
@@ -5683,7 +5626,7 @@
     <t>destroyMatchClause:  free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
   </si>
   <si>
-    <t>destroyIfStat:  </t>
+    <t>destroyIfStat:</t>
   </si>
   <si>
     <t>free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
@@ -5692,7 +5635,7 @@
     <t>destroyIfStat:  free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
   </si>
   <si>
-    <t>destroyElseStat:  </t>
+    <t>destroyElseStat:</t>
   </si>
   <si>
     <t>free;;free;;free</t>
@@ -5701,7 +5644,7 @@
     <t>destroyElseStat:  free;;free;;free</t>
   </si>
   <si>
-    <t>destroyUnstructuredStatement:  </t>
+    <t>destroyUnstructuredStatement:</t>
   </si>
   <si>
     <t>(((ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free) + (free;;free;;free;;(ua.free;a);free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free) + ((ua.(a;(ua.(a;free));(ua.(a;free));free));free) + (free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free));free</t>
@@ -5710,7 +5653,7 @@
     <t>destroyUnstructuredStatement:  (((ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free) + (free;;free;;free;;(ua.free;a);free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free) + ((ua.(a;(ua.(a;free));(ua.(a;free));free));free) + (free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free));free</t>
   </si>
   <si>
-    <t>destroyAssignment:  </t>
+    <t>destroyAssignment:</t>
   </si>
   <si>
     <t>(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free</t>
@@ -5719,7 +5662,7 @@
     <t>destroyAssignment:  (ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free;;free;;free</t>
   </si>
   <si>
-    <t>destroyLeaveStat:  </t>
+    <t>destroyLeaveStat:</t>
   </si>
   <si>
     <t>free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free</t>
@@ -5728,19 +5671,19 @@
     <t>destroyLeaveStat:  free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free;;free</t>
   </si>
   <si>
-    <t>destroyContinueStat:  </t>
+    <t>destroyContinueStat:</t>
   </si>
   <si>
     <t>destroyContinueStat:  free</t>
   </si>
   <si>
-    <t>destroyBreakStat:  </t>
+    <t>destroyBreakStat:</t>
   </si>
   <si>
     <t>destroyBreakStat:  free</t>
   </si>
   <si>
-    <t>destroyReturnStat:  </t>
+    <t>destroyReturnStat:</t>
   </si>
   <si>
     <t>(ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
@@ -5749,13 +5692,13 @@
     <t>destroyReturnStat:  (ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
   </si>
   <si>
-    <t>destroyIncDecStat:  </t>
+    <t>destroyIncDecStat:</t>
   </si>
   <si>
     <t>destroyIncDecStat:  (ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
   </si>
   <si>
-    <t>destroyDeclaration:  </t>
+    <t>destroyDeclaration:</t>
   </si>
   <si>
     <t>free;;free;;free;;(ua.free;a);free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free</t>
@@ -5764,13 +5707,13 @@
     <t>destroyDeclaration:  free;;free;;free;;(ua.free;a);free;;free;;free;;free;;free;;(ua.(a;(ua.(a;free));(ua.(a;free));free));free;;free</t>
   </si>
   <si>
-    <t>destroyVariableDecl:  </t>
+    <t>destroyVariableDecl:</t>
   </si>
   <si>
     <t>destroyVariableDecl:  (ua.(a;(ua.(a;free));(ua.(a;free));free));free</t>
   </si>
   <si>
-    <t>destroyFunctionDecl:  </t>
+    <t>destroyFunctionDecl:</t>
   </si>
   <si>
     <t>free;;free;;free;;(ua.free;a);free;;free;;free</t>
@@ -5779,7 +5722,7 @@
     <t>destroyFunctionDecl:  free;;free;;free;;(ua.free;a);free;;free;;free</t>
   </si>
   <si>
-    <t>destroyFunctionSignature:  </t>
+    <t>destroyFunctionSignature:</t>
   </si>
   <si>
     <t>free;;(ua.free;a);free;;free</t>
@@ -5791,7 +5734,7 @@
     <t>destroyReceiver:  free</t>
   </si>
   <si>
-    <t>destroyParameters:  </t>
+    <t>destroyParameters:</t>
   </si>
   <si>
     <t>(ua.free;a);free</t>
@@ -5863,19 +5806,19 @@
     <t>hashmap.c</t>
   </si>
   <si>
-    <t>hashmap_length:  </t>
+    <t>hashmap_length:</t>
   </si>
   <si>
     <t>hashmap_free:  free;free</t>
   </si>
   <si>
-    <t>hashmap_remove:  </t>
-  </si>
-  <si>
-    <t>hashmap_iterate:  </t>
-  </si>
-  <si>
-    <t>hashmap_get:  </t>
+    <t>hashmap_remove:</t>
+  </si>
+  <si>
+    <t>hashmap_iterate:</t>
+  </si>
+  <si>
+    <t>hashmap_get:</t>
   </si>
   <si>
     <t>hashmap_put:  (ua.free;a)</t>
@@ -5893,28 +5836,28 @@
     <t>sds.c</t>
   </si>
   <si>
-    <t>sdsjoinsds:  </t>
+    <t>sdsjoinsds:</t>
   </si>
   <si>
     <t>(malloc + 0)</t>
   </si>
   <si>
-    <t> (malloc + 0)</t>
-  </si>
-  <si>
-    <t>sdsjoin:  </t>
-  </si>
-  <si>
-    <t>sdsmapchars:  </t>
-  </si>
-  <si>
-    <t>sdssplitargs:  </t>
+    <t>(malloc + 0)</t>
+  </si>
+  <si>
+    <t>sdsjoin:</t>
+  </si>
+  <si>
+    <t>sdsmapchars:</t>
+  </si>
+  <si>
+    <t>sdssplitargs:</t>
   </si>
   <si>
     <t>(ua.(((malloc + 0) + 0) + (malloc + 0));a);(ua.free;a);free;(free + 0)</t>
   </si>
   <si>
-    <t> (ua.(((malloc + 0) + 0) + (malloc + 0));a);(ua.free;a);free;(free + 0)</t>
+    <t>(ua.(((malloc + 0) + 0) + (malloc + 0));a);(ua.free;a);free;(free + 0)</t>
   </si>
   <si>
     <t>sds *sdssplitargs(const char *line, int *argc) {
@@ -6036,23 +5979,22 @@
   sdsfree(current);
  *argc = 0;
  return NULL;
-}
-</t>
-  </si>
-  <si>
-    <t>hex_digit_to_int:  </t>
-  </si>
-  <si>
-    <t>is_hex_digit:  </t>
-  </si>
-  <si>
-    <t>sdscatrepr:  </t>
+}</t>
+  </si>
+  <si>
+    <t>hex_digit_to_int:</t>
+  </si>
+  <si>
+    <t>is_hex_digit:</t>
+  </si>
+  <si>
+    <t>sdscatrepr:</t>
   </si>
   <si>
     <t>(ua.(((ua.malloc;(free + 0);a);free) + (((ua.malloc;(free + 0);a);free) + ((ua.malloc;(free + 0);a);free)) + 0);a)</t>
   </si>
   <si>
-    <t> (ua.(((ua.malloc;(free + 0);a);free) + (((ua.malloc;(free + 0);a);free) + ((ua.malloc;(free + 0);a);free)) + 0);a)</t>
+    <t>(ua.(((ua.malloc;(free + 0);a);free) + (((ua.malloc;(free + 0);a);free) + ((ua.malloc;(free + 0);a);free)) + 0);a)</t>
   </si>
   <si>
     <t>sds sdscatrepr(sds s, const char *p, size_t len) {
@@ -6088,44 +6030,43 @@
   p++;
  }
  return sdscatlen(s, "\"", 1);
-}
-</t>
-  </si>
-  <si>
-    <t>sdsfromlonglong:  </t>
-  </si>
-  <si>
-    <t>sdsfreesplitres:  </t>
-  </si>
-  <si>
-    <t>sdssplitlen: </t>
-  </si>
-  <si>
-    <t> malloc;(ua.(0 + ((malloc + 0) + 0));a);(malloc + 0);(ua.free;a);free</t>
+}</t>
+  </si>
+  <si>
+    <t>sdsfromlonglong:</t>
+  </si>
+  <si>
+    <t>sdsfreesplitres:</t>
+  </si>
+  <si>
+    <t>sdssplitlen:</t>
   </si>
   <si>
     <t>malloc;(ua.(0 + ((malloc + 0) + 0));a);(malloc + 0);(ua.free;a);free</t>
   </si>
   <si>
-    <t>sdscmp:  </t>
-  </si>
-  <si>
-    <t>sdstoupper:  </t>
-  </si>
-  <si>
-    <t>sdstolower:  </t>
-  </si>
-  <si>
-    <t>sdsrange:  </t>
-  </si>
-  <si>
-    <t>sdstrim:  </t>
-  </si>
-  <si>
-    <t>sdscatprintf: </t>
-  </si>
-  <si>
-    <t> (ua.malloc;(free + 0);a);free</t>
+    <t>malloc;(ua.(0 + ((malloc + 0) + 0));a);(malloc + 0);(ua.free;a);free</t>
+  </si>
+  <si>
+    <t>sdscmp:</t>
+  </si>
+  <si>
+    <t>sdstoupper:</t>
+  </si>
+  <si>
+    <t>sdstolower:</t>
+  </si>
+  <si>
+    <t>sdsrange:</t>
+  </si>
+  <si>
+    <t>sdstrim:</t>
+  </si>
+  <si>
+    <t>sdscatprintf:</t>
+  </si>
+  <si>
+    <t>(ua.malloc;(free + 0);a);free</t>
   </si>
   <si>
     <t>sds sdscatprintf(sds s, const char *fmt, ...) {
@@ -6135,11 +6076,10 @@
  t = sdscatvprintf(s, fmt, ap);
  va_end(ap);
  return t;
-}
-</t>
-  </si>
-  <si>
-    <t>sdscatvprintf:  </t>
+}</t>
+  </si>
+  <si>
+    <t>sdscatvprintf:</t>
   </si>
   <si>
     <t>(ua.malloc;(free + 0);a);free</t>
@@ -6166,68 +6106,67 @@
  t = sdscat(s, buf);
  free(buf);
  return t;
-}
-</t>
-  </si>
-  <si>
-    <t>sdscpy:  </t>
-  </si>
-  <si>
-    <t>sdscpylen:  </t>
-  </si>
-  <si>
-    <t>sdscatsds:  </t>
-  </si>
-  <si>
-    <t>sdscat:  </t>
-  </si>
-  <si>
-    <t>sdscatlen:  </t>
-  </si>
-  <si>
-    <t>sdsgrowzero:  </t>
-  </si>
-  <si>
-    <t>sdsIncrLen:  </t>
-  </si>
-  <si>
-    <t>sdsAllocSize:  </t>
-  </si>
-  <si>
-    <t>sdsRemoveFreeSpace:  </t>
-  </si>
-  <si>
-    <t>sdsMakeRoomFor:  </t>
-  </si>
-  <si>
-    <t>sdsclear:  </t>
-  </si>
-  <si>
-    <t>sdsupdatelen:  </t>
+}</t>
+  </si>
+  <si>
+    <t>sdscpy:</t>
+  </si>
+  <si>
+    <t>sdscpylen:</t>
+  </si>
+  <si>
+    <t>sdscatsds:</t>
+  </si>
+  <si>
+    <t>sdscat:</t>
+  </si>
+  <si>
+    <t>sdscatlen:</t>
+  </si>
+  <si>
+    <t>sdsgrowzero:</t>
+  </si>
+  <si>
+    <t>sdsIncrLen:</t>
+  </si>
+  <si>
+    <t>sdsAllocSize:</t>
+  </si>
+  <si>
+    <t>sdsRemoveFreeSpace:</t>
+  </si>
+  <si>
+    <t>sdsMakeRoomFor:</t>
+  </si>
+  <si>
+    <t>sdsclear:</t>
+  </si>
+  <si>
+    <t>sdsupdatelen:</t>
   </si>
   <si>
     <t>sdsfree:  free</t>
   </si>
   <si>
-    <t>sdsdup:  </t>
+    <t>sdsdup:</t>
   </si>
   <si>
     <t>sdsdup:  (malloc + 0)</t>
   </si>
   <si>
-    <t>sdsnew: </t>
+    <t>sdsnew:</t>
   </si>
   <si>
     <t>sdsnew:  (malloc + 0)</t>
   </si>
   <si>
-    <t>sdsempty: </t>
+    <t>sdsempty:</t>
   </si>
   <si>
     <t>sdsempty:  (malloc + 0)</t>
   </si>
   <si>
-    <t>sdsnewlen: </t>
+    <t>sdsnewlen:</t>
   </si>
   <si>
     <t>sdsnewlen:  (malloc + 0)</t>
@@ -6239,13 +6178,13 @@
     <t>luna.c</t>
   </si>
   <si>
-    <t>main:  </t>
+    <t>main:</t>
   </si>
   <si>
     <t>((ua.free;a) + 0)</t>
   </si>
   <si>
-    <t> ((ua.free;a) + 0)</t>
+    <t>((ua.free;a) + 0)</t>
   </si>
   <si>
     <t>int
@@ -6278,32 +6217,31 @@
     exit(1);
   }
   return eval(source, path);
-}
-</t>
-  </si>
-  <si>
-    <t>eval:  </t>
-  </si>
-  <si>
-    <t>parse_args:  </t>
-  </si>
-  <si>
-    <t>repl:  </t>
-  </si>
-  <si>
-    <t>version:  </t>
-  </si>
-  <si>
-    <t>usage:  </t>
+}</t>
+  </si>
+  <si>
+    <t>eval:</t>
+  </si>
+  <si>
+    <t>parse_args:</t>
+  </si>
+  <si>
+    <t>repl:</t>
+  </si>
+  <si>
+    <t>version:</t>
+  </si>
+  <si>
+    <t>usage:</t>
   </si>
   <si>
     <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/base64.c</t>
   </si>
   <si>
-    <t>decode_base64: </t>
-  </si>
-  <si>
-    <t> malloc;(ua.(free + (free + ((free + 0) + ((free + 0) + 0))));a)</t>
+    <t>decode_base64:</t>
+  </si>
+  <si>
+    <t>malloc;(ua.(free + (free + ((free + 0) + ((free + 0) + 0))));a)</t>
   </si>
   <si>
     <t>LIBETPAN_EXPORT
@@ -6346,14 +6284,13 @@
   }
   *output = 0;
   return out;
-}
-</t>
-  </si>
-  <si>
-    <t>encode_base64:  </t>
-  </si>
-  <si>
-    <t>  malloc</t>
+}</t>
+  </si>
+  <si>
+    <t>encode_base64:</t>
+  </si>
+  <si>
+    <t>malloc</t>
   </si>
   <si>
     <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/carray.c</t>
@@ -6362,28 +6299,28 @@
     <t>carray.c</t>
   </si>
   <si>
-    <t>carray_free:  </t>
-  </si>
-  <si>
-    <t>carray_delete_slow:  </t>
-  </si>
-  <si>
-    <t>carray_delete:  </t>
-  </si>
-  <si>
-    <t>carray_delete_fast:  </t>
-  </si>
-  <si>
-    <t>carray_set_size:  </t>
-  </si>
-  <si>
-    <t>carray_add:  </t>
-  </si>
-  <si>
-    <t>carray_new: </t>
-  </si>
-  <si>
-    <t> malloc;malloc;(free + 0)</t>
+    <t>carray_free:</t>
+  </si>
+  <si>
+    <t>carray_delete_slow:</t>
+  </si>
+  <si>
+    <t>carray_delete:</t>
+  </si>
+  <si>
+    <t>carray_delete_fast:</t>
+  </si>
+  <si>
+    <t>carray_set_size:</t>
+  </si>
+  <si>
+    <t>carray_add:</t>
+  </si>
+  <si>
+    <t>carray_new:</t>
+  </si>
+  <si>
+    <t>malloc;malloc;(free + 0)</t>
   </si>
   <si>
     <t>LIBETPAN_EXPORT
@@ -6410,16 +6347,16 @@
     <t>chash.c</t>
   </si>
   <si>
-    <t>chash_resize:  </t>
-  </si>
-  <si>
-    <t>chash_next:  </t>
-  </si>
-  <si>
-    <t>chash_begin:  </t>
-  </si>
-  <si>
-    <t>chash_clear:  </t>
+    <t>chash_resize:</t>
+  </si>
+  <si>
+    <t>chash_next:</t>
+  </si>
+  <si>
+    <t>chash_begin:</t>
+  </si>
+  <si>
+    <t>chash_clear:</t>
   </si>
   <si>
     <t>(ua.(ua.(free + 0);(free + 0);free;a);a)</t>
@@ -6447,7 +6384,7 @@
 }</t>
   </si>
   <si>
-    <t>chash_free:  </t>
+    <t>chash_free:</t>
   </si>
   <si>
     <t>(ua.(ua.(free + 0);(free + 0);free;a);a);free;free</t>
@@ -6478,10 +6415,10 @@
 }</t>
   </si>
   <si>
-    <t>chash_delete: </t>
-  </si>
-  <si>
-    <t> (ua.(((0 + ((free + 0);(free + 0);free)) + 0) + 0);a)</t>
+    <t>chash_delete:</t>
+  </si>
+  <si>
+    <t>(ua.(((0 + ((free + 0);(free + 0);free)) + 0) + 0);a)</t>
   </si>
   <si>
     <t>(ua.(((0 + ((free + 0);(free + 0);free)) + 0) + 0);a)</t>
@@ -6528,11 +6465,10 @@
     iter = iter-&gt;next;
   }
   return -1; /* not found */
-}
-</t>
-  </si>
-  <si>
-    <t>chash_set:  </t>
+}</t>
+  </si>
+  <si>
+    <t>chash_set:</t>
   </si>
   <si>
     <t>(ua.(((0 + ((malloc;free) + 0)) + 0) + 0);a);malloc;(malloc + 0);(malloc + 0);(free + 0);free</t>
@@ -6621,14 +6557,13 @@
  free:
   free(cell);
  err:
-  return -1;
-</t>
-  </si>
-  <si>
-    <t>chash_get:  </t>
-  </si>
-  <si>
-    <t>chash_new: </t>
+  return -1;</t>
+  </si>
+  <si>
+    <t>chash_get:</t>
+  </si>
+  <si>
+    <t>chash_new:</t>
   </si>
   <si>
     <t>LIBETPAN_EXPORT
@@ -6653,10 +6588,10 @@
 }</t>
   </si>
   <si>
-    <t>chash_dup: </t>
-  </si>
-  <si>
-    <t>chash_func:  </t>
+    <t>chash_dup:</t>
+  </si>
+  <si>
+    <t>chash_func:</t>
   </si>
   <si>
     <t>https://github.com/dinhviethoa/libetpan/blob/master/src/data-types/clist.c</t>
@@ -6665,106 +6600,407 @@
     <t>clist.c</t>
   </si>
   <si>
-    <t>clist_nth:  </t>
-  </si>
-  <si>
-    <t>clist_nth_data:  </t>
-  </si>
-  <si>
-    <t>internal_clist_nth:  </t>
-  </si>
-  <si>
-    <t>clist_concat:  </t>
-  </si>
-  <si>
-    <t>clist_foreach:  </t>
-  </si>
-  <si>
-    <t>clist_delete:  </t>
-  </si>
-  <si>
-    <t>clist_insert_after:  </t>
-  </si>
-  <si>
-    <t>clist_insert_before:  </t>
-  </si>
-  <si>
-    <t>clist_free:  </t>
-  </si>
-  <si>
-    <t>clist_new: </t>
+    <t>clist_nth:</t>
+  </si>
+  <si>
+    <t>clist_nth_data:</t>
+  </si>
+  <si>
+    <t>internal_clist_nth:</t>
+  </si>
+  <si>
+    <t>clist_concat:</t>
+  </si>
+  <si>
+    <t>clist_foreach:</t>
+  </si>
+  <si>
+    <t>clist_delete:</t>
+  </si>
+  <si>
+    <t>clist_insert_after:</t>
+  </si>
+  <si>
+    <t>clist_insert_before:</t>
+  </si>
+  <si>
+    <t>clist_free:</t>
+  </si>
+  <si>
+    <t>clist_new:</t>
+  </si>
+  <si>
+    <t>STATIC STATUS
+last_argument()
+{
+    CHAR **av;
+    CHAR *p;
+    STATUS s;
+    int  ac;
+    if (H.Size == 1 || (p = H.Lines[H.Size - 2]) == NULL)
+ return ring_bell();
+    if ((p = (CHAR *)strdup((char *)p)) == NULL)
+ return CSstay;
+    ac = argify(p, &amp;av);
+    if (Repeat != NO_ARG)
+ s = Repeat &lt; ac ? insert_string(av[Repeat]) : ring_bell();
+    else
+ s = ac ? insert_string(av[ac - 1]) : CSstay;
+    if (ac)
+ DISPOSE(av);
+    DISPOSE(p);
+    return s;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+yank()
+{
+    if (Yanked &amp;&amp; *Yanked)
+ return insert_string(Yanked);
+    return CSstay;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+quote()
+{
+    unsigned int c;
+    return (int)(c = TTYget()) == EOF ? CSeof : insert_char((int)c);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>void
+add_history(p)
+    char *p;
+{
+    if (p == NULL || *p == '\0')
+ return;
+#if defined(UNIQUE_HISTORY)
+    if (H.Size &amp;&amp; strcmp(p, (char *)H.Lines[H.Size - 1]) == 0)
+        return;
+#endif /* defined(UNIQUE_HISTORY) */
+    hist_add((CHAR *)p);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>char *
+readline(prompt)
+    CONST char *prompt;
+{
+    CHAR *line;
+    int  s;
+    if (Line == NULL) {
+ Length = MEM_INC;
+ if ((Line = NEW(CHAR, Length)) == NULL)
+     return NULL;
+    }
+    TTYinfo();
+    rl_ttyset(0);
+    hist_add(NIL);
+    ScreenSize = SCREEN_INC;
+    Screen = NEW(char, ScreenSize);
+    Prompt = prompt ? prompt : (char *)NIL;
+    TTYputs((CONST CHAR *)Prompt);
+    if ((line = editinput()) != NULL) {
+ line = (CHAR *)strdup((char *)line);
+ TTYputs((CHAR *)NEWLINE);
+ TTYflush();
+    }
+    rl_ttyset(1);
+    DISPOSE(Screen);
+    DISPOSE(H.Lines[--H.Size]);
+    if (Signal &gt; 0) {
+ s = Signal;
+ Signal = 0;
+ (void)kill(getpid(), s);
+    }
+    return (char *)line;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC void
+hist_add(p)
+    CHAR *p;
+{
+    int  i;
+    if ((p = (CHAR *)strdup((char *)p)) == NULL)
+ return;
+    if (H.Size &lt; HIST_SIZE)
+ H.Lines[H.Size++] = p;
+    else {
+ DISPOSE(H.Lines[0]);
+ for (i = 0; i &lt; HIST_SIZE - 1; i++)
+     H.Lines[i] = H.Lines[i + 1];
+ H.Lines[i] = p;
+    }
+    H.Pos = H.Size - 1;
+STATIC void
+hist_add(p)
+    CHAR *p;
+{
+    int  i;
+    if ((p = (CHAR *)strdup((char *)p)) == NULL)
+ return;
+    if (H.Size &lt; HIST_SIZE)
+ H.Lines[H.Size++] = p;
+    else {
+ DISPOSE(H.Lines[0]);
+ for (i = 0; i &lt; HIST_SIZE - 1; i++)
+     H.Lines[i] = H.Lines[i + 1];
+ H.Lines[i] = p;
+    }
+    H.Pos = H.Size - 1;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+emacs(c)
+    unsigned int c;
+{
+    STATUS  s;
+    KEYMAP  *kp;
+    if (rl_meta_chars &amp;&amp; ISMETA(c)) {
+ Pushed = 1;
+ PushBack = UNMETA(c);
+ return meta();
+    }
+    for (kp = Map; kp-&gt;Function; kp++)
+ if (kp-&gt;Key == c)
+     break;
+    s = kp-&gt;Function ? (*kp-&gt;Function)() : insert_char((int)c);
+    if (!Pushed)
+ /* No pushback means no repeat count; hacky, but true. */
+ Repeat = NO_ARG;
+    return s;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+insert_char(c)
+    int  c;
+{
+    STATUS s;
+    CHAR buff[2];
+    CHAR *p;
+    CHAR *q;
+    int  i;
+    if (Repeat == NO_ARG || Repeat &lt; 2) {
+ buff[0] = c;
+ buff[1] = '\0';
+ return insert_string(buff);
+    }
+    if ((p = NEW(CHAR, Repeat + 1)) == NULL)
+ return CSstay;
+    for (i = Repeat, q = p; --i &gt;= 0; )
+ *q++ = c;
+    *q = '\0';
+    Repeat = 0;
+    s = insert_string(p);
+    DISPOSE(p);
+    return s;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+h_search()
+{
+    static int Searching;
+    CONST char *old_prompt;
+    CHAR *(*move)();
+    CHAR *p;
+    if (Searching)
+ return ring_bell();
+    Searching = 1;
+    clear_line();
+    old_prompt = Prompt;
+    Prompt = "Search: ";
+    TTYputs((CONST CHAR *)Prompt);
+    move = Repeat == NO_ARG ? prev_hist : next_hist;
+    p = editinput();
+    Prompt = old_prompt;
+    Searching = 0;
+    TTYputs((CONST CHAR *)Prompt);
+    if (p == NULL &amp;&amp; Signal &gt; 0) {
+ Signal = 0;
+ clear_line();
+ return redisplay();
+    }
+    p = search_hist(p, move);
+    clear_line();
+    if (p == NULL) {
+ (void)ring_bell();
+ return redisplay();
+    }
+    return do_insert_hist(p);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+h_last()
+{
+    return do_insert_hist(H.Lines[H.Pos = H.Size - 1]);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+h_first()
+{
+    return do_insert_hist(H.Lines[H.Pos = 0]);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+h_next()
+{
+    return do_hist(next_hist);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"STATIC STATUS
+h_prev()
+{
+    return do_hist(prev_hist);
+}"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+do_hist(move)
+    CHAR *(*move)();
+{
+    CHAR *p;
+    int  i;
+    i = 0;
+    do {
+ if ((p = (*move)()) == NULL)
+     return ring_bell();
+    } while (++i &lt; Repeat);
+    return do_insert_hist(p);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+do_insert_hist(p)
+    CHAR *p;
+{
+    if (p == NULL)
+ return ring_bell();
+    Point = 0;
+    reposition();
+    ceol();
+    End = 0;
+    return insert_string(p);
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>STATIC STATUS
+insert_string(p)
+    CHAR *p;
+{
+    SIZE_T len;
+    int  i;
+    CHAR *new;
+    CHAR *q;
+    len = strlen((char *)p);
+    if (End + len &gt;= Length) {
+ if ((new = NEW(CHAR, Length + len + MEM_INC)) == NULL)
+     return CSstay;
+ if (Length) {
+     COPYFROMTO(new, Line, Length);
+     DISPOSE(Line);
+ }
+ Line = new;
+ Length += len + MEM_INC;
+    }
+    for (q = &amp;Line[Point], i = End - Point; --i &gt;= 0; )
+ q[len + i] = q[i];
+    COPYFROMTO(&amp;Line[Point], p, len);
+    End += len;
+    Line[End] = '\0';
+    TTYstring(&amp;Line[Point]);
+    Point += len;
+    return Point == End ? CSstay : CSmove;
+}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FFC0504D"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
       <family val="2"/>
-      <color rgb="00FF0000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
-      <family val="0"/>
-      <sz val="12"/>
     </font>
     <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <b val="true"/>
+      <u/>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <b val="true"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="0"/>
-      <color rgb="00C0504D"/>
-      <sz val="12"/>
-    </font>
-    <font>
+      <color theme="11"/>
       <name val="宋体"/>
       <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="10">
@@ -6776,55 +7012,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009BBB59"/>
-        <bgColor rgb="00969696"/>
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0077933C"/>
-        <bgColor rgb="00579D1C"/>
+        <fgColor rgb="FF77933C"/>
+        <bgColor rgb="FF579D1C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B3A2C7"/>
-        <bgColor rgb="00C0C0C0"/>
+        <fgColor rgb="FFB3A2C7"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00579D1C"/>
-        <bgColor rgb="0077933C"/>
+        <fgColor rgb="FF579D1C"/>
+        <bgColor rgb="FF77933C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0047B8B8"/>
-        <bgColor rgb="0033A3A3"/>
+        <fgColor rgb="FF47B8B8"/>
+        <bgColor rgb="FF33A3A3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0033A3A3"/>
-        <bgColor rgb="0047B8B8"/>
+        <fgColor rgb="FF33A3A3"/>
+        <bgColor rgb="FF47B8B8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="009966CC"/>
-        <bgColor rgb="00969696"/>
+        <fgColor rgb="FF9966CC"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -6832,93 +7068,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="5" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="6" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="7" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="8" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="9" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="4">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -6977,33 +7194,358 @@
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="办公室">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="办公室">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="办公室">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G551"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK551"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="27.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="17.4274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="32.678431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="48.2627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="45.4117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="93.6745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="10.8941176470588"/>
+    <col min="1" max="2" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47" style="1" customWidth="1"/>
+    <col min="6" max="6" width="81.1640625" style="2" customWidth="1"/>
+    <col min="7" max="1025" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="1" s="3">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7026,7 +7568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="160" outlineLevel="0" r="2">
+    <row r="2" spans="1:7" ht="150">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -7046,27 +7588,27 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="3">
+    <row r="3" spans="1:7">
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="4">
+    <row r="4" spans="1:7">
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="5">
+    <row r="5" spans="1:7">
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="6">
+    <row r="6" spans="1:7">
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="270.8" outlineLevel="0" r="7">
+    <row r="7" spans="1:7" ht="255">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -7086,12 +7628,12 @@
         <v>21</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="8">
+    <row r="8" spans="1:7">
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="302.5" outlineLevel="0" r="9">
+    <row r="9" spans="1:7" ht="285">
       <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
@@ -7105,7 +7647,7 @@
         <v>26</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="318.3" outlineLevel="0" r="10">
+    <row r="10" spans="1:7" ht="300">
       <c r="C10" s="1" t="s">
         <v>27</v>
       </c>
@@ -7119,7 +7661,7 @@
         <v>29</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="11">
+    <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
@@ -7130,12 +7672,12 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="12">
+    <row r="12" spans="1:7" ht="30">
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="365.8" outlineLevel="0" r="13">
+    <row r="13" spans="1:7" ht="345">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
@@ -7149,7 +7691,7 @@
         <v>36</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="365.8" outlineLevel="0" r="14">
+    <row r="14" spans="1:7" ht="345">
       <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
@@ -7163,7 +7705,7 @@
         <v>40</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="3090.8" outlineLevel="0" r="15">
+    <row r="15" spans="1:7" ht="409">
       <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
@@ -7177,22 +7719,22 @@
         <v>44</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="16">
+    <row r="16" spans="1:7">
       <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="17">
+    <row r="17" spans="1:6">
       <c r="C17" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="18">
+    <row r="18" spans="1:6">
       <c r="C18" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="873.3" outlineLevel="0" r="19">
+    <row r="19" spans="1:6" ht="409">
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7206,7 +7748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="20">
+    <row r="20" spans="1:6">
       <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
@@ -7217,22 +7759,22 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="21">
+    <row r="21" spans="1:6">
       <c r="C21" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="22">
+    <row r="22" spans="1:6">
       <c r="C22" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="23">
+    <row r="23" spans="1:6">
       <c r="C23" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="24">
+    <row r="24" spans="1:6">
       <c r="C24" s="1" t="s">
         <v>58</v>
       </c>
@@ -7243,17 +7785,17 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="25">
+    <row r="25" spans="1:6">
       <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="26">
+    <row r="26" spans="1:6">
       <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="27">
+    <row r="27" spans="1:6">
       <c r="C27" s="1" t="s">
         <v>62</v>
       </c>
@@ -7264,7 +7806,7 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="28">
+    <row r="28" spans="1:6">
       <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
@@ -7275,7 +7817,7 @@
         <v>64</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="889.15" outlineLevel="0" r="29">
+    <row r="29" spans="1:6" ht="409">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
@@ -7295,7 +7837,7 @@
         <v>70</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="368.2" outlineLevel="0" r="30">
+    <row r="30" spans="1:6" ht="409">
       <c r="C30" s="1" t="s">
         <v>71</v>
       </c>
@@ -7309,7 +7851,7 @@
         <v>72</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="31">
+    <row r="31" spans="1:6">
       <c r="C31" s="1" t="s">
         <v>73</v>
       </c>
@@ -7320,7 +7862,7 @@
         <v>74</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="365.8" outlineLevel="0" r="32">
+    <row r="32" spans="1:6" ht="345">
       <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
@@ -7334,7 +7876,7 @@
         <v>77</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="270.8" outlineLevel="0" r="33">
+    <row r="33" spans="1:6" ht="255">
       <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
@@ -7348,7 +7890,7 @@
         <v>81</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="34">
+    <row r="34" spans="1:6" ht="45">
       <c r="C34" s="1" t="s">
         <v>82</v>
       </c>
@@ -7359,22 +7901,22 @@
         <v>83</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="35">
+    <row r="35" spans="1:6">
       <c r="C35" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="36">
+    <row r="36" spans="1:6">
       <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="37">
+    <row r="37" spans="1:6">
       <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="38">
+    <row r="38" spans="1:6">
       <c r="C38" s="1" t="s">
         <v>87</v>
       </c>
@@ -7385,7 +7927,7 @@
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="39">
+    <row r="39" spans="1:6">
       <c r="C39" s="1" t="s">
         <v>88</v>
       </c>
@@ -7396,7 +7938,7 @@
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="40">
+    <row r="40" spans="1:6" ht="30">
       <c r="C40" s="1" t="s">
         <v>91</v>
       </c>
@@ -7407,12 +7949,12 @@
         <v>92</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="41">
+    <row r="41" spans="1:6" ht="30">
       <c r="C41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="42">
+    <row r="42" spans="1:6" ht="75">
       <c r="A42" s="1" t="s">
         <v>94</v>
       </c>
@@ -7429,37 +7971,37 @@
         <v>97</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="43">
+    <row r="43" spans="1:6">
       <c r="C43" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="44">
+    <row r="44" spans="1:6">
       <c r="C44" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="45">
+    <row r="45" spans="1:6">
       <c r="C45" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="46">
+    <row r="46" spans="1:6">
       <c r="C46" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="47">
+    <row r="47" spans="1:6">
       <c r="C47" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="48">
+    <row r="48" spans="1:6">
       <c r="C48" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="49">
+    <row r="49" spans="1:6">
       <c r="C49" s="1" t="s">
         <v>104</v>
       </c>
@@ -7470,7 +8012,7 @@
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="50">
+    <row r="50" spans="1:6">
       <c r="C50" s="1" t="s">
         <v>107</v>
       </c>
@@ -7481,22 +8023,22 @@
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="51">
+    <row r="51" spans="1:6">
       <c r="C51" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="52">
+    <row r="52" spans="1:6">
       <c r="C52" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="53">
+    <row r="53" spans="1:6">
       <c r="C53" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="54">
+    <row r="54" spans="1:6" ht="30">
       <c r="A54" s="1" t="s">
         <v>112</v>
       </c>
@@ -7507,12 +8049,12 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="55">
+    <row r="55" spans="1:6">
       <c r="C55" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1000" outlineLevel="0" r="56">
+    <row r="56" spans="1:6" ht="409">
       <c r="C56" s="1" t="s">
         <v>115</v>
       </c>
@@ -7526,12 +8068,12 @@
         <v>118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="57">
+    <row r="57" spans="1:6">
       <c r="C57" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="58">
+    <row r="58" spans="1:6">
       <c r="C58" s="1" t="s">
         <v>120</v>
       </c>
@@ -7542,77 +8084,77 @@
         <v>25</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="59">
+    <row r="59" spans="1:6">
       <c r="C59" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="60">
+    <row r="60" spans="1:6">
       <c r="C60" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="61">
+    <row r="61" spans="1:6">
       <c r="C61" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="62">
+    <row r="62" spans="1:6">
       <c r="C62" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="63">
+    <row r="63" spans="1:6">
       <c r="C63" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="64">
+    <row r="64" spans="1:6">
       <c r="C64" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="65">
+    <row r="65" spans="1:6">
       <c r="C65" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="66">
+    <row r="66" spans="1:6">
       <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="67">
+    <row r="67" spans="1:6">
       <c r="C67" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="68">
+    <row r="68" spans="1:6">
       <c r="C68" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="69">
+    <row r="69" spans="1:6">
       <c r="C69" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="70">
+    <row r="70" spans="1:6">
       <c r="C70" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="71">
+    <row r="71" spans="1:6">
       <c r="C71" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="72">
+    <row r="72" spans="1:6">
       <c r="C72" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="207.5" outlineLevel="0" r="73">
+    <row r="73" spans="1:6" ht="180">
       <c r="A73" s="1" t="s">
         <v>136</v>
       </c>
@@ -7632,7 +8174,7 @@
         <v>141</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="603.3" outlineLevel="0" r="74">
+    <row r="74" spans="1:6" ht="409">
       <c r="C74" s="1" t="s">
         <v>142</v>
       </c>
@@ -7646,7 +8188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="75">
+    <row r="75" spans="1:6" ht="60">
       <c r="C75" s="1" t="s">
         <v>145</v>
       </c>
@@ -7660,7 +8202,7 @@
         <v>147</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1823.3" outlineLevel="0" r="76">
+    <row r="76" spans="1:6" ht="409">
       <c r="C76" s="1" t="s">
         <v>148</v>
       </c>
@@ -7674,7 +8216,7 @@
         <v>150</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="77">
+    <row r="77" spans="1:6" ht="30">
       <c r="C77" s="1" t="s">
         <v>151</v>
       </c>
@@ -7688,7 +8230,7 @@
         <v>154</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="78">
+    <row r="78" spans="1:6" ht="30">
       <c r="C78" s="1" t="s">
         <v>155</v>
       </c>
@@ -7702,7 +8244,7 @@
         <v>156</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="79">
+    <row r="79" spans="1:6" ht="30">
       <c r="C79" s="1" t="s">
         <v>157</v>
       </c>
@@ -7716,7 +8258,7 @@
         <v>158</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="128.3" outlineLevel="0" r="80">
+    <row r="80" spans="1:6" ht="105">
       <c r="C80" s="1" t="s">
         <v>159</v>
       </c>
@@ -7730,7 +8272,7 @@
         <v>160</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="207.5" outlineLevel="0" r="81">
+    <row r="81" spans="3:6" ht="225">
       <c r="C81" s="1" t="s">
         <v>161</v>
       </c>
@@ -7744,7 +8286,7 @@
         <v>163</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="82">
+    <row r="82" spans="3:6" ht="195">
       <c r="C82" s="1" t="s">
         <v>164</v>
       </c>
@@ -7758,7 +8300,7 @@
         <v>167</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="255" outlineLevel="0" r="83">
+    <row r="83" spans="3:6" ht="225">
       <c r="C83" s="1" t="s">
         <v>168</v>
       </c>
@@ -7772,7 +8314,7 @@
         <v>171</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="84">
+    <row r="84" spans="3:6" ht="75">
       <c r="C84" s="1" t="s">
         <v>172</v>
       </c>
@@ -7786,7 +8328,7 @@
         <v>175</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="85">
+    <row r="85" spans="3:6" ht="45">
       <c r="C85" s="1" t="s">
         <v>176</v>
       </c>
@@ -7800,7 +8342,7 @@
         <v>177</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="239.15" outlineLevel="0" r="86">
+    <row r="86" spans="3:6" ht="210">
       <c r="C86" s="1" t="s">
         <v>178</v>
       </c>
@@ -7814,7 +8356,7 @@
         <v>180</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="745.8" outlineLevel="0" r="87">
+    <row r="87" spans="3:6" ht="409">
       <c r="C87" s="1" t="s">
         <v>181</v>
       </c>
@@ -7828,7 +8370,7 @@
         <v>182</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="350" outlineLevel="0" r="88">
+    <row r="88" spans="3:6" ht="315">
       <c r="C88" s="1" t="s">
         <v>183</v>
       </c>
@@ -7842,7 +8384,7 @@
         <v>186</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="89">
+    <row r="89" spans="3:6" ht="195">
       <c r="C89" s="1" t="s">
         <v>187</v>
       </c>
@@ -7856,7 +8398,7 @@
         <v>190</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="239.15" outlineLevel="0" r="90">
+    <row r="90" spans="3:6" ht="210">
       <c r="C90" s="1" t="s">
         <v>191</v>
       </c>
@@ -7870,7 +8412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="191.65" outlineLevel="0" r="91">
+    <row r="91" spans="3:6" ht="165">
       <c r="C91" s="1" t="s">
         <v>193</v>
       </c>
@@ -7884,7 +8426,7 @@
         <v>195</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="97">
+    <row r="97" spans="1:6" ht="120">
       <c r="A97" s="1" t="s">
         <v>196</v>
       </c>
@@ -7892,7 +8434,7 @@
         <v>197</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="98">
+    <row r="98" spans="1:6" ht="120">
       <c r="A98" s="1" t="s">
         <v>198</v>
       </c>
@@ -7909,37 +8451,37 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="99">
+    <row r="99" spans="1:6">
       <c r="C99" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="100">
+    <row r="100" spans="1:6">
       <c r="C100" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="101">
+    <row r="101" spans="1:6">
       <c r="C101" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="102">
+    <row r="102" spans="1:6">
       <c r="C102" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="103">
+    <row r="103" spans="1:6">
       <c r="C103" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="104">
+    <row r="104" spans="1:6">
       <c r="C104" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="105">
+    <row r="105" spans="1:6" ht="120">
       <c r="A105" s="1" t="s">
         <v>208</v>
       </c>
@@ -7956,17 +8498,17 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="106">
+    <row r="106" spans="1:6">
       <c r="C106" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="107">
+    <row r="107" spans="1:6">
       <c r="C107" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="108">
+    <row r="108" spans="1:6" ht="120">
       <c r="A108" s="1" t="s">
         <v>210</v>
       </c>
@@ -7986,7 +8528,7 @@
         <v>215</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="397.5" outlineLevel="0" r="109">
+    <row r="109" spans="1:6" ht="360">
       <c r="C109" s="1" t="s">
         <v>216</v>
       </c>
@@ -8000,7 +8542,7 @@
         <v>217</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="111">
+    <row r="111" spans="1:6" ht="120">
       <c r="A111" s="1" t="s">
         <v>218</v>
       </c>
@@ -8017,7 +8559,7 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="112">
+    <row r="112" spans="1:6" ht="120">
       <c r="A112" s="1" t="s">
         <v>220</v>
       </c>
@@ -8034,7 +8576,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="508.3" outlineLevel="0" r="113">
+    <row r="113" spans="1:6" ht="409">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
@@ -8051,7 +8593,7 @@
         <v>224</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="114">
+    <row r="114" spans="1:6" ht="45">
       <c r="C114" s="1" t="s">
         <v>225</v>
       </c>
@@ -8062,7 +8604,7 @@
         <v>227</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="115">
+    <row r="115" spans="1:6">
       <c r="C115" s="1" t="s">
         <v>228</v>
       </c>
@@ -8073,7 +8615,7 @@
         <v>229</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="460.8" outlineLevel="0" r="116">
+    <row r="116" spans="1:6" ht="409">
       <c r="C116" s="1" t="s">
         <v>230</v>
       </c>
@@ -8084,7 +8626,7 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="460.8" outlineLevel="0" r="117">
+    <row r="117" spans="1:6" ht="409">
       <c r="C117" s="1" t="s">
         <v>232</v>
       </c>
@@ -8095,7 +8637,7 @@
         <v>234</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="381.65" outlineLevel="0" r="118">
+    <row r="118" spans="1:6" ht="409">
       <c r="C118" s="1" t="s">
         <v>235</v>
       </c>
@@ -8106,7 +8648,7 @@
         <v>237</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="119">
+    <row r="119" spans="1:6" ht="105">
       <c r="C119" s="1" t="s">
         <v>238</v>
       </c>
@@ -8117,7 +8659,7 @@
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="120">
+    <row r="120" spans="1:6" ht="75">
       <c r="C120" s="1" t="s">
         <v>241</v>
       </c>
@@ -8128,7 +8670,7 @@
         <v>242</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="121">
+    <row r="121" spans="1:6" ht="60">
       <c r="C121" s="1" t="s">
         <v>243</v>
       </c>
@@ -8139,7 +8681,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="122">
+    <row r="122" spans="1:6" ht="105">
       <c r="C122" s="1" t="s">
         <v>246</v>
       </c>
@@ -8150,7 +8692,7 @@
         <v>247</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="112.5" outlineLevel="0" r="123">
+    <row r="123" spans="1:6" ht="150">
       <c r="C123" s="1" t="s">
         <v>248</v>
       </c>
@@ -8161,12 +8703,12 @@
         <v>250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="124">
+    <row r="124" spans="1:6">
       <c r="C124" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="125">
+    <row r="125" spans="1:6">
       <c r="C125" s="1" t="s">
         <v>252</v>
       </c>
@@ -8174,7 +8716,7 @@
         <v>252</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="126">
+    <row r="126" spans="1:6">
       <c r="C126" s="1" t="s">
         <v>253</v>
       </c>
@@ -8182,7 +8724,7 @@
         <v>253</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="127">
+    <row r="127" spans="1:6">
       <c r="C127" s="1" t="s">
         <v>254</v>
       </c>
@@ -8193,7 +8735,7 @@
         <v>255</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="128">
+    <row r="128" spans="1:6" ht="75">
       <c r="C128" s="1" t="s">
         <v>256</v>
       </c>
@@ -8207,7 +8749,7 @@
         <v>257</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="129">
+    <row r="129" spans="1:6" ht="30">
       <c r="C129" s="1" t="s">
         <v>258</v>
       </c>
@@ -8218,7 +8760,7 @@
         <v>259</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="130">
+    <row r="130" spans="1:6">
       <c r="C130" s="1" t="s">
         <v>260</v>
       </c>
@@ -8226,7 +8768,7 @@
         <v>260</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="131">
+    <row r="131" spans="1:6">
       <c r="C131" s="1" t="s">
         <v>261</v>
       </c>
@@ -8234,7 +8776,7 @@
         <v>261</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="334.15" outlineLevel="0" r="132">
+    <row r="132" spans="1:6" ht="300">
       <c r="C132" s="1" t="s">
         <v>262</v>
       </c>
@@ -8248,7 +8790,7 @@
         <v>263</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="133">
+    <row r="133" spans="1:6">
       <c r="C133" s="1" t="s">
         <v>264</v>
       </c>
@@ -8259,7 +8801,7 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="134">
+    <row r="134" spans="1:6">
       <c r="C134" s="1" t="s">
         <v>265</v>
       </c>
@@ -8270,7 +8812,7 @@
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="135">
+    <row r="135" spans="1:6">
       <c r="C135" s="1" t="s">
         <v>267</v>
       </c>
@@ -8281,7 +8823,7 @@
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="136">
+    <row r="136" spans="1:6">
       <c r="C136" s="1" t="s">
         <v>206</v>
       </c>
@@ -8292,7 +8834,7 @@
         <v>108</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="137">
+    <row r="137" spans="1:6">
       <c r="C137" s="1" t="s">
         <v>207</v>
       </c>
@@ -8303,7 +8845,7 @@
         <v>266</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="138">
+    <row r="138" spans="1:6" ht="120">
       <c r="A138" s="1" t="s">
         <v>269</v>
       </c>
@@ -8311,7 +8853,7 @@
         <v>270</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="139">
+    <row r="139" spans="1:6" ht="90">
       <c r="A139" s="1" t="s">
         <v>271</v>
       </c>
@@ -8322,12 +8864,12 @@
         <v>273</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="140">
+    <row r="140" spans="1:6">
       <c r="C140" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="141">
+    <row r="141" spans="1:6">
       <c r="C141" s="1" t="s">
         <v>275</v>
       </c>
@@ -8338,17 +8880,17 @@
         <v>277</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="142">
+    <row r="142" spans="1:6">
       <c r="C142" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="143">
+    <row r="143" spans="1:6">
       <c r="C143" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="144">
+    <row r="144" spans="1:6" ht="90">
       <c r="A144" s="1" t="s">
         <v>280</v>
       </c>
@@ -8360,7 +8902,7 @@
       </c>
       <c r="F144" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="145">
+    <row r="145" spans="1:6">
       <c r="C145" s="1" t="s">
         <v>283</v>
       </c>
@@ -8371,7 +8913,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="146">
+    <row r="146" spans="1:6">
       <c r="C146" s="1" t="s">
         <v>284</v>
       </c>
@@ -8382,7 +8924,7 @@
         <v>285</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="191.65" outlineLevel="0" r="147" s="11">
+    <row r="147" spans="1:6" s="11" customFormat="1" ht="180">
       <c r="A147" s="11" t="s">
         <v>286</v>
       </c>
@@ -8402,7 +8944,7 @@
         <v>291</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="413.3" outlineLevel="0" r="148" s="11">
+    <row r="148" spans="1:6" s="11" customFormat="1" ht="390">
       <c r="C148" s="11" t="s">
         <v>292</v>
       </c>
@@ -8416,7 +8958,7 @@
         <v>295</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="149">
+    <row r="149" spans="1:6" ht="120">
       <c r="A149" s="1" t="s">
         <v>296</v>
       </c>
@@ -8428,13 +8970,13 @@
       </c>
       <c r="D149" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="150">
+    <row r="150" spans="1:6">
       <c r="C150" s="1" t="s">
         <v>299</v>
       </c>
       <c r="D150" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="151">
+    <row r="151" spans="1:6" ht="165">
       <c r="A151" s="1" t="s">
         <v>300</v>
       </c>
@@ -8442,7 +8984,7 @@
         <v>301</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="152">
+    <row r="152" spans="1:6" ht="105">
       <c r="A152" s="1" t="s">
         <v>302</v>
       </c>
@@ -8454,35 +8996,35 @@
       </c>
       <c r="D152" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="153">
+    <row r="153" spans="1:6">
       <c r="C153" s="1" t="s">
         <v>305</v>
       </c>
       <c r="D153" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="154">
+    <row r="154" spans="1:6">
       <c r="C154" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="155">
+    <row r="155" spans="1:6">
       <c r="C155" s="1" t="s">
         <v>307</v>
       </c>
       <c r="D155" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="156">
+    <row r="156" spans="1:6">
       <c r="C156" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="157">
+    <row r="157" spans="1:6">
       <c r="C157" s="1" t="s">
         <v>309</v>
       </c>
       <c r="D157" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="920.8" outlineLevel="0" r="158">
+    <row r="158" spans="1:6" ht="409">
       <c r="C158" s="1" t="s">
         <v>310</v>
       </c>
@@ -8496,59 +9038,59 @@
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="159">
+    <row r="159" spans="1:6">
       <c r="C159" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="160">
+    <row r="160" spans="1:6">
       <c r="C160" s="1" t="s">
         <v>315</v>
       </c>
       <c r="D160" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="161">
+    <row r="161" spans="1:6">
       <c r="C161" s="1" t="s">
         <v>316</v>
       </c>
       <c r="D161" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="162">
+    <row r="162" spans="1:6">
       <c r="C162" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="163">
+    <row r="163" spans="1:6">
       <c r="C163" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="164">
+    <row r="164" spans="1:6">
       <c r="C164" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="165">
+    <row r="165" spans="1:6">
       <c r="C165" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="166">
+    <row r="166" spans="1:6">
       <c r="C166" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="167">
+    <row r="167" spans="1:6">
       <c r="C167" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="168">
+    <row r="168" spans="1:6">
       <c r="C168" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="169">
+    <row r="169" spans="1:6" ht="120">
       <c r="A169" s="1" t="s">
         <v>324</v>
       </c>
@@ -8565,12 +9107,12 @@
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="170">
+    <row r="170" spans="1:6">
       <c r="C170" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="255" outlineLevel="0" r="171">
+    <row r="171" spans="1:6" ht="240">
       <c r="C171" s="1" t="s">
         <v>330</v>
       </c>
@@ -8584,18 +9126,18 @@
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="172">
+    <row r="172" spans="1:6">
       <c r="C172" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="173">
+    <row r="173" spans="1:6">
       <c r="C173" s="1" t="s">
         <v>333</v>
       </c>
       <c r="D173" s="12"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="174">
+    <row r="174" spans="1:6" ht="165">
       <c r="A174" s="1" t="s">
         <v>334</v>
       </c>
@@ -8606,37 +9148,37 @@
         <v>336</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="175">
+    <row r="175" spans="1:6">
       <c r="C175" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="176">
+    <row r="176" spans="1:6">
       <c r="C176" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="177">
+    <row r="177" spans="3:6">
       <c r="C177" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="178">
+    <row r="178" spans="3:6">
       <c r="C178" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="179">
+    <row r="179" spans="3:6">
       <c r="C179" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="180">
+    <row r="180" spans="3:6">
       <c r="C180" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="181">
+    <row r="181" spans="3:6" ht="105">
       <c r="C181" s="1" t="s">
         <v>343</v>
       </c>
@@ -8650,7 +9192,7 @@
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="182">
+    <row r="182" spans="3:6" ht="90">
       <c r="C182" s="1" t="s">
         <v>346</v>
       </c>
@@ -8664,7 +9206,7 @@
         <v>347</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="183">
+    <row r="183" spans="3:6">
       <c r="C183" s="1" t="s">
         <v>348</v>
       </c>
@@ -8675,7 +9217,7 @@
         <v>349</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="184">
+    <row r="184" spans="3:6">
       <c r="C184" s="1" t="s">
         <v>350</v>
       </c>
@@ -8686,7 +9228,7 @@
         <v>351</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="185">
+    <row r="185" spans="3:6" ht="45">
       <c r="C185" s="1" t="s">
         <v>352</v>
       </c>
@@ -8700,7 +9242,7 @@
         <v>354</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="540" outlineLevel="0" r="186">
+    <row r="186" spans="3:6" ht="409">
       <c r="C186" s="1" t="s">
         <v>355</v>
       </c>
@@ -8714,7 +9256,7 @@
         <v>357</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="187">
+    <row r="187" spans="3:6">
       <c r="C187" s="1" t="s">
         <v>358</v>
       </c>
@@ -8725,17 +9267,17 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="188">
+    <row r="188" spans="3:6">
       <c r="C188" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="189">
+    <row r="189" spans="3:6">
       <c r="C189" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="190">
+    <row r="190" spans="3:6">
       <c r="C190" s="1" t="s">
         <v>361</v>
       </c>
@@ -8746,7 +9288,7 @@
         <v>362</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1253.3" outlineLevel="0" r="191">
+    <row r="191" spans="3:6" ht="409">
       <c r="C191" s="1" t="s">
         <v>363</v>
       </c>
@@ -8760,7 +9302,7 @@
         <v>364</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1015.8" outlineLevel="0" r="192">
+    <row r="192" spans="3:6" ht="409">
       <c r="C192" s="1" t="s">
         <v>365</v>
       </c>
@@ -8774,92 +9316,92 @@
         <v>367</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="193">
+    <row r="193" spans="3:3">
       <c r="C193" s="1" t="s">
         <v>368</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="194">
+    <row r="194" spans="3:3">
       <c r="C194" s="1" t="s">
         <v>369</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="195">
+    <row r="195" spans="3:3">
       <c r="C195" s="1" t="s">
         <v>370</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="196">
+    <row r="196" spans="3:3">
       <c r="C196" s="1" t="s">
         <v>371</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="197">
+    <row r="197" spans="3:3">
       <c r="C197" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="198">
+    <row r="198" spans="3:3">
       <c r="C198" s="1" t="s">
         <v>373</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="199">
+    <row r="199" spans="3:3">
       <c r="C199" s="1" t="s">
         <v>374</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="200">
+    <row r="200" spans="3:3">
       <c r="C200" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="201">
+    <row r="201" spans="3:3">
       <c r="C201" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="202">
+    <row r="202" spans="3:3">
       <c r="C202" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="203">
+    <row r="203" spans="3:3">
       <c r="C203" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="204">
+    <row r="204" spans="3:3">
       <c r="C204" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="205">
+    <row r="205" spans="3:3">
       <c r="C205" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="206">
+    <row r="206" spans="3:3">
       <c r="C206" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="207">
+    <row r="207" spans="3:3">
       <c r="C207" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="208">
+    <row r="208" spans="3:3">
       <c r="C208" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="209">
+    <row r="209" spans="1:6">
       <c r="C209" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="210">
+    <row r="210" spans="1:6" ht="105">
       <c r="A210" s="1" t="s">
         <v>385</v>
       </c>
@@ -8870,12 +9412,12 @@
         <v>387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="211">
+    <row r="211" spans="1:6">
       <c r="C211" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="492.5" outlineLevel="0" r="212">
+    <row r="212" spans="1:6" ht="409">
       <c r="C212" s="1" t="s">
         <v>389</v>
       </c>
@@ -8889,7 +9431,7 @@
         <v>391</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="873.3" outlineLevel="0" r="213">
+    <row r="213" spans="1:6" ht="409">
       <c r="C213" s="1" t="s">
         <v>392</v>
       </c>
@@ -8903,7 +9445,7 @@
         <v>395</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="214">
+    <row r="214" spans="1:6">
       <c r="C214" s="1" t="s">
         <v>396</v>
       </c>
@@ -8914,27 +9456,27 @@
         <v>398</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="215">
+    <row r="215" spans="1:6">
       <c r="C215" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="216">
+    <row r="216" spans="1:6">
       <c r="C216" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="217">
+    <row r="217" spans="1:6">
       <c r="C217" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="218">
+    <row r="218" spans="1:6">
       <c r="C218" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="2790" outlineLevel="0" r="219">
+    <row r="219" spans="1:6" ht="409">
       <c r="A219" s="1" t="s">
         <v>403</v>
       </c>
@@ -8954,7 +9496,7 @@
         <v>406</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="873.3" outlineLevel="0" r="220">
+    <row r="220" spans="1:6" ht="409">
       <c r="C220" s="1" t="s">
         <v>392</v>
       </c>
@@ -8968,42 +9510,42 @@
         <v>409</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="221">
+    <row r="221" spans="1:6">
       <c r="C221" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="222">
+    <row r="222" spans="1:6">
       <c r="C222" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="223">
+    <row r="223" spans="1:6">
       <c r="C223" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="224">
+    <row r="224" spans="1:6">
       <c r="C224" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="225">
+    <row r="225" spans="1:6">
       <c r="C225" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="226">
+    <row r="226" spans="1:6">
       <c r="C226" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="227">
+    <row r="227" spans="1:6">
       <c r="C227" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="228">
+    <row r="228" spans="1:6">
       <c r="C228" s="1" t="s">
         <v>417</v>
       </c>
@@ -9014,7 +9556,7 @@
         <v>418</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="229">
+    <row r="229" spans="1:6">
       <c r="C229" s="1" t="s">
         <v>402</v>
       </c>
@@ -9025,7 +9567,7 @@
         <v>268</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="230">
+    <row r="230" spans="1:6">
       <c r="C230" s="1" t="s">
         <v>396</v>
       </c>
@@ -9036,37 +9578,37 @@
         <v>419</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="231">
+    <row r="231" spans="1:6">
       <c r="C231" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="232">
+    <row r="232" spans="1:6">
       <c r="C232" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="233">
+    <row r="233" spans="1:6">
       <c r="C233" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="234">
+    <row r="234" spans="1:6">
       <c r="C234" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="235">
+    <row r="235" spans="1:6">
       <c r="C235" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="236">
+    <row r="236" spans="1:6">
       <c r="C236" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="334.15" outlineLevel="0" r="237">
+    <row r="237" spans="1:6" ht="375">
       <c r="A237" s="1" t="s">
         <v>425</v>
       </c>
@@ -9083,634 +9625,676 @@
         <v>429</v>
       </c>
       <c r="F237" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="30">
+      <c r="C238" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="238">
-      <c r="B238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="E238" s="1" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
+      <c r="C239" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D239" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="E238" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="239">
-      <c r="C239" s="1" t="s">
+      <c r="E239" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D239" s="13" t="s">
+    </row>
+    <row r="240" spans="1:6" ht="30">
+      <c r="C240" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="E239" s="13" t="s">
+    </row>
+    <row r="241" spans="3:6">
+      <c r="C241" s="1" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="240">
-      <c r="C240" s="1" t="s">
+      <c r="D241" s="13" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="241">
-      <c r="C241" s="1" t="s">
+      <c r="E241" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="D241" s="13" t="s">
+    </row>
+    <row r="242" spans="3:6">
+      <c r="C242" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="E241" s="13" t="s">
+    </row>
+    <row r="243" spans="3:6">
+      <c r="C243" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="242">
-      <c r="C242" s="1" t="s">
+    <row r="244" spans="3:6">
+      <c r="C244" s="1" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="243">
-      <c r="C243" s="1" t="s">
+      <c r="D244" s="13" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="244">
-      <c r="C244" s="1" t="s">
+      <c r="E244" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="D244" s="13" t="s">
+    </row>
+    <row r="245" spans="3:6" ht="105">
+      <c r="C245" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="E244" s="13" t="s">
+      <c r="D245" s="5" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="245">
-      <c r="C245" s="1" t="s">
+      <c r="E245" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="F245" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="246" spans="3:6">
+      <c r="C246" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="E245" s="5" t="s">
+    </row>
+    <row r="247" spans="3:6">
+      <c r="C247" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="246">
-      <c r="C246" s="1" t="s">
+    <row r="248" spans="3:6">
+      <c r="C248" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="247">
-      <c r="C247" s="1" t="s">
+      <c r="D248" s="13" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="248">
-      <c r="C248" s="1" t="s">
+      <c r="E248" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="D248" s="13" t="s">
+    </row>
+    <row r="249" spans="3:6" ht="105">
+      <c r="C249" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="E248" s="13" t="s">
+      <c r="D249" s="5" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="249">
-      <c r="C249" s="1" t="s">
+      <c r="E249" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="250" spans="3:6">
+      <c r="C250" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="D249" s="5" t="s">
+    </row>
+    <row r="251" spans="3:6">
+      <c r="C251" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="E249" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="250">
-      <c r="C250" s="1" t="s">
+    </row>
+    <row r="252" spans="3:6">
+      <c r="C252" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="251">
-      <c r="C251" s="1" t="s">
+    <row r="253" spans="3:6">
+      <c r="C253" s="1" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="252">
-      <c r="C252" s="1" t="s">
+      <c r="D253" s="13" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="253">
-      <c r="C253" s="1" t="s">
+      <c r="E253" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="254" spans="3:6">
+      <c r="C254" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D253" s="13" t="s">
+    </row>
+    <row r="255" spans="3:6" ht="195">
+      <c r="C255" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E253" s="13" t="s">
+      <c r="D255" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E255" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="256" spans="3:6" ht="409">
+      <c r="C256" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="E256" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="257" spans="3:6">
+      <c r="C257" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="258" spans="3:6">
+      <c r="C258" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="259" spans="3:6" ht="409">
+      <c r="C259" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="260" spans="3:6" ht="60">
+      <c r="C260" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D260" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="E260" s="13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="261" spans="3:6" ht="60">
+      <c r="C261" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D261" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="E261" s="13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="262" spans="3:6" ht="315">
+      <c r="C262" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E262" s="5" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="254">
-      <c r="C254" s="1" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="255">
-      <c r="C255" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D255" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="80.8" outlineLevel="0" r="256">
-      <c r="C256" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="D256" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="E256" s="5" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="257">
-      <c r="C257" s="1" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="258">
-      <c r="C258" s="1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="259">
-      <c r="C259" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D259" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E259" s="5" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="260">
-      <c r="C260" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D260" s="13" t="s">
-        <v>473</v>
-      </c>
-      <c r="E260" s="13" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="261">
-      <c r="C261" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="D261" s="13" t="s">
-        <v>476</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="262">
-      <c r="C262" s="1" t="s">
+      <c r="F262" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="263" spans="3:6">
+      <c r="C263" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="D262" s="5" t="s">
+    </row>
+    <row r="264" spans="3:6" ht="390">
+      <c r="C264" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E262" s="5" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="263">
-      <c r="C263" s="1" t="s">
+      <c r="D264" s="5" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="264">
-      <c r="C264" s="1" t="s">
+      <c r="E264" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="265" spans="3:6" ht="30">
+      <c r="C265" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D265" s="14" t="s">
         <v>482</v>
       </c>
-      <c r="E264" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="265">
-      <c r="C265" s="1" t="s">
+      <c r="E265" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="D265" s="14" t="s">
+    </row>
+    <row r="266" spans="3:6" ht="105">
+      <c r="C266" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="E265" s="14" t="s">
+      <c r="D266" s="13" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="266">
-      <c r="C266" s="1" t="s">
+      <c r="E266" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="D266" s="13" t="s">
+    </row>
+    <row r="267" spans="3:6">
+      <c r="C267" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E266" s="13" t="s">
+    </row>
+    <row r="268" spans="3:6">
+      <c r="C268" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="267">
-      <c r="C267" s="1" t="s">
+      <c r="D268" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="E268" s="13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="269" spans="3:6">
+      <c r="C269" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="268">
-      <c r="C268" s="1" t="s">
+      <c r="D269" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="D268" s="13" t="s">
-        <v>487</v>
-      </c>
-      <c r="E268" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="269">
-      <c r="C269" s="1" t="s">
+      <c r="E269" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="D269" s="13" t="s">
+    </row>
+    <row r="270" spans="3:6">
+      <c r="C270" s="1" t="s">
         <v>492</v>
-      </c>
-      <c r="E269" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="270">
-      <c r="C270" s="1" t="s">
-        <v>494</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E270" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="271" spans="3:6" ht="409">
+      <c r="C271" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D271" s="5" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="271">
-      <c r="C271" s="1" t="s">
+      <c r="E271" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D271" s="5" t="s">
+      <c r="F271" s="2" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="272" spans="3:6">
+      <c r="C272" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="E271" s="5" t="s">
+      <c r="D272" s="5" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="272">
-      <c r="C272" s="1" t="s">
+      <c r="E272" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="D272" s="5" t="s">
+    </row>
+    <row r="273" spans="3:6">
+      <c r="C273" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="E272" s="5" t="s">
+    </row>
+    <row r="274" spans="3:6" ht="75">
+      <c r="C274" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="273">
-      <c r="C273" s="1" t="s">
+      <c r="D274" s="5" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="274">
-      <c r="C274" s="1" t="s">
+      <c r="E274" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F274" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="275" spans="3:6" ht="75">
+      <c r="C275" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="D274" s="5" t="s">
+      <c r="D275" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E274" s="5" t="s">
+      <c r="E275" s="5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="275">
-      <c r="C275" s="1" t="s">
+      <c r="F275" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="276" spans="3:6" ht="75">
+      <c r="C276" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="D275" s="5" t="s">
+      <c r="D276" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="E275" s="5" t="s">
+      <c r="E276" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="277" spans="3:6" ht="75">
+      <c r="C277" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="E277" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F277" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="278" spans="3:6" ht="210">
+      <c r="C278" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D278" s="5" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="276">
-      <c r="C276" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="D276" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="E276" s="5" t="s">
+      <c r="E278" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F278" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="279" spans="3:6" ht="180">
+      <c r="C279" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D279" s="5" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="277">
-      <c r="C277" s="1" t="s">
-        <v>509</v>
-      </c>
-      <c r="D277" s="5" t="s">
+      <c r="E279" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F279" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="280" spans="3:6">
+      <c r="C280" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="281" spans="3:6">
+      <c r="C281" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="282" spans="3:6">
+      <c r="C282" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="283" spans="3:6">
+      <c r="C283" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="284" spans="3:6" ht="409">
+      <c r="C284" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D284" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="E277" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="278">
-      <c r="C278" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="D278" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="E278" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="279">
-      <c r="C279" s="1" t="s">
-        <v>511</v>
-      </c>
-      <c r="D279" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="280">
-      <c r="C280" s="1" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="281">
-      <c r="C281" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="282">
-      <c r="C282" s="1" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="283">
-      <c r="C283" s="1" t="s">
+      <c r="E284" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="285" spans="3:6">
+      <c r="C285" s="1" t="s">
         <v>515</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="284">
-      <c r="C284" s="1" t="s">
+    <row r="286" spans="3:6" ht="30">
+      <c r="C286" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="D284" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="E284" s="5" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="285">
-      <c r="C285" s="1" t="s">
+    </row>
+    <row r="287" spans="3:6">
+      <c r="C287" s="1" t="s">
         <v>517</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="286">
-      <c r="C286" s="1" t="s">
+    <row r="288" spans="3:6">
+      <c r="C288" s="1" t="s">
         <v>518</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="287">
-      <c r="C287" s="1" t="s">
+    <row r="289" spans="1:6">
+      <c r="C289" s="1" t="s">
         <v>519</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="288">
-      <c r="C288" s="1" t="s">
+    <row r="290" spans="1:6">
+      <c r="C290" s="1" t="s">
         <v>520</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="289">
-      <c r="C289" s="1" t="s">
+    <row r="291" spans="1:6">
+      <c r="C291" s="1" t="s">
         <v>521</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="290">
-      <c r="C290" s="1" t="s">
+    <row r="292" spans="1:6">
+      <c r="C292" s="1" t="s">
         <v>522</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="291">
-      <c r="C291" s="1" t="s">
+    <row r="293" spans="1:6">
+      <c r="C293" s="1" t="s">
         <v>523</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="292">
-      <c r="C292" s="1" t="s">
+    <row r="294" spans="1:6">
+      <c r="C294" s="1" t="s">
         <v>524</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="293">
-      <c r="C293" s="1" t="s">
+    <row r="295" spans="1:6">
+      <c r="C295" s="1" t="s">
         <v>525</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="294">
-      <c r="C294" s="1" t="s">
+    <row r="296" spans="1:6">
+      <c r="C296" s="1" t="s">
         <v>526</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="295">
-      <c r="C295" s="1" t="s">
+    <row r="297" spans="1:6">
+      <c r="C297" s="1" t="s">
         <v>527</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="296">
-      <c r="C296" s="1" t="s">
+    <row r="298" spans="1:6">
+      <c r="C298" s="1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="297">
-      <c r="C297" s="1" t="s">
+    <row r="299" spans="1:6">
+      <c r="C299" s="1" t="s">
         <v>529</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="298">
-      <c r="C298" s="1" t="s">
+    <row r="300" spans="1:6">
+      <c r="C300" s="1" t="s">
         <v>530</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="299">
-      <c r="C299" s="1" t="s">
+    <row r="301" spans="1:6">
+      <c r="C301" s="1" t="s">
         <v>531</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="300">
-      <c r="C300" s="1" t="s">
+    <row r="302" spans="1:6">
+      <c r="C302" s="1" t="s">
         <v>532</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="301">
-      <c r="C301" s="1" t="s">
+    <row r="303" spans="1:6">
+      <c r="C303" s="1" t="s">
         <v>533</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="302">
-      <c r="C302" s="1" t="s">
+    <row r="304" spans="1:6" ht="409">
+      <c r="A304" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="303">
-      <c r="C303" s="1" t="s">
+      <c r="B304" s="1" t="s">
         <v>535</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="605.7" outlineLevel="0" r="304">
-      <c r="A304" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="C304" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D304" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E304" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="F304" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="C305" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E304" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="F304" s="2" t="s">
+    </row>
+    <row r="306" spans="1:6">
+      <c r="C306" s="1" t="s">
         <v>539</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="305">
-      <c r="C305" s="1" t="s">
+    <row r="307" spans="1:6">
+      <c r="C307" s="1" t="s">
         <v>540</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="306">
-      <c r="C306" s="1" t="s">
+    <row r="308" spans="1:6">
+      <c r="C308" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="307">
-      <c r="C307" s="1" t="s">
+      <c r="E308" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="120">
+      <c r="A309" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="308">
-      <c r="C308" s="1" t="s">
+      <c r="B309" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E308" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="309">
-      <c r="A309" s="1" t="s">
+      <c r="C309" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="B309" s="1" t="s">
+    </row>
+    <row r="310" spans="1:6" ht="75">
+      <c r="B310" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="C309" s="1" t="s">
+      <c r="C310" s="1" t="s">
         <v>546</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="310">
-      <c r="B310" s="1" t="s">
+    <row r="311" spans="1:6">
+      <c r="C311" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="C310" s="1" t="s">
+    </row>
+    <row r="312" spans="1:6">
+      <c r="C312" s="1" t="s">
         <v>548</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="311">
-      <c r="C311" s="1" t="s">
+    <row r="313" spans="1:6">
+      <c r="C313" s="1" t="s">
         <v>549</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="312">
-      <c r="C312" s="1" t="s">
+    <row r="314" spans="1:6">
+      <c r="C314" s="1" t="s">
         <v>550</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="313">
-      <c r="C313" s="1" t="s">
+    <row r="315" spans="1:6">
+      <c r="C315" s="1" t="s">
         <v>551</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="314">
-      <c r="C314" s="1" t="s">
+    <row r="316" spans="1:6" ht="90">
+      <c r="C316" s="1" t="s">
         <v>552</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="315">
-      <c r="C315" s="1" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="96.65" outlineLevel="0" r="316">
-      <c r="C316" s="1" t="s">
-        <v>554</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E316" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="C317" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F316" s="2" t="s">
+    </row>
+    <row r="318" spans="1:6" ht="135">
+      <c r="A318" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="317">
-      <c r="C317" s="1" t="s">
+      <c r="B318" s="1" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="318">
-      <c r="A318" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="B318" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="C318" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="319">
+    <row r="319" spans="1:6" ht="210">
       <c r="C319" s="1" t="s">
         <v>392</v>
       </c>
@@ -9721,132 +10305,132 @@
         <v>10</v>
       </c>
       <c r="F319" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="C320" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="315">
+      <c r="A321" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="320">
-      <c r="C320" s="1" t="s">
+      <c r="B321" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="334.15" outlineLevel="0" r="321">
-      <c r="A321" s="1" t="s">
+      <c r="C321" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B321" s="1" t="s">
+      <c r="D321" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="C321" s="1" t="s">
+      <c r="E321" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F321" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="D321" s="5" t="s">
+    </row>
+    <row r="322" spans="1:6" ht="330">
+      <c r="C322" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="E321" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="F321" s="2" t="s">
+      <c r="D322" s="5" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="350" outlineLevel="0" r="322">
-      <c r="C322" s="1" t="s">
+      <c r="E322" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="D322" s="5" t="s">
+      <c r="F322" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E322" s="5" t="s">
+    </row>
+    <row r="323" spans="1:6">
+      <c r="C323" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="F322" s="2" t="s">
+    </row>
+    <row r="324" spans="1:6">
+      <c r="C324" s="1" t="s">
         <v>570</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="323">
-      <c r="C323" s="1" t="s">
+    <row r="325" spans="1:6">
+      <c r="C325" s="1" t="s">
         <v>571</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="324">
-      <c r="C324" s="1" t="s">
+    <row r="326" spans="1:6" ht="120">
+      <c r="A326" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="325">
-      <c r="C325" s="1" t="s">
+      <c r="B326" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="326">
-      <c r="A326" s="1" t="s">
+      <c r="C326" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="B326" s="1" t="s">
+    </row>
+    <row r="327" spans="1:6" ht="409">
+      <c r="C327" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C326" s="1" t="s">
+      <c r="D327" s="5" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="619.15" outlineLevel="0" r="327">
-      <c r="C327" s="1" t="s">
+      <c r="E327" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F327" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="D327" s="5" t="s">
+    </row>
+    <row r="328" spans="1:6" ht="409">
+      <c r="C328" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="E327" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F327" s="2" t="s">
+      <c r="D328" s="5" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="571.65" outlineLevel="0" r="328">
-      <c r="C328" s="1" t="s">
+      <c r="E328" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D328" s="5" t="s">
+      <c r="F328" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="E328" s="5" t="s">
+    </row>
+    <row r="329" spans="1:6">
+      <c r="C329" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="F328" s="2" t="s">
+      <c r="D329" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="329">
-      <c r="C329" s="1" t="s">
+      <c r="E329" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D329" s="1" t="s">
+    </row>
+    <row r="330" spans="1:6">
+      <c r="C330" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E329" s="1" t="s">
+    </row>
+    <row r="331" spans="1:6">
+      <c r="C331" s="1" t="s">
         <v>586</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="330">
-      <c r="C330" s="1" t="s">
+    <row r="332" spans="1:6" ht="120">
+      <c r="A332" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="331">
-      <c r="C331" s="1" t="s">
+      <c r="B332" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="332">
-      <c r="A332" s="1" t="s">
+      <c r="C332" s="1" t="s">
         <v>589</v>
-      </c>
-      <c r="B332" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C332" s="1" t="s">
-        <v>591</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>201</v>
@@ -9855,535 +10439,535 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="333">
+    <row r="333" spans="1:6">
       <c r="C333" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
+      <c r="C334" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="D333" s="1" t="s">
+    </row>
+    <row r="335" spans="1:6" ht="409">
+      <c r="C335" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E333" s="1" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="334">
-      <c r="C334" s="1" t="s">
+      <c r="D335" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E335" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="F335" s="2" t="s">
         <v>594</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="682.5" outlineLevel="0" r="335">
-      <c r="C335" s="1" t="s">
+    <row r="336" spans="1:6">
+      <c r="C336" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="D335" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="E335" s="5" t="s">
-        <v>463</v>
-      </c>
-      <c r="F335" s="2" t="s">
+    </row>
+    <row r="337" spans="1:6">
+      <c r="C337" s="1" t="s">
         <v>596</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="336">
-      <c r="C336" s="1" t="s">
+    <row r="338" spans="1:6" ht="409">
+      <c r="C338" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="337">
-      <c r="C337" s="1" t="s">
+      <c r="D338" s="5" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="2916.65" outlineLevel="0" r="338">
-      <c r="C338" s="1" t="s">
+      <c r="E338" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="F338" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="D338" s="5" t="s">
+    </row>
+    <row r="339" spans="1:6">
+      <c r="C339" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E338" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="F338" s="2" t="s">
+    </row>
+    <row r="340" spans="1:6" ht="30">
+      <c r="C340" s="1" t="s">
         <v>601</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="339">
-      <c r="C339" s="1" t="s">
+    <row r="341" spans="1:6">
+      <c r="C341" s="1" t="s">
         <v>602</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="340">
-      <c r="C340" s="1" t="s">
+    <row r="342" spans="1:6">
+      <c r="C342" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="341">
-      <c r="C341" s="1" t="s">
+    <row r="343" spans="1:6" ht="409">
+      <c r="C343" s="1" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="342">
-      <c r="C342" s="1" t="s">
+      <c r="D343" s="5" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="619.15" outlineLevel="0" r="343">
-      <c r="C343" s="1" t="s">
+      <c r="E343" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="F343" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D343" s="5" t="s">
+    </row>
+    <row r="344" spans="1:6" ht="409">
+      <c r="A344" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="E343" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="F343" s="2" t="s">
+      <c r="B344" s="1" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="344">
-      <c r="A344" s="1" t="s">
+      <c r="C344" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B344" s="1" t="s">
+      <c r="D344" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="C344" s="1" t="s">
+      <c r="E344" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="F344" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="D344" s="5" t="s">
+    </row>
+    <row r="345" spans="1:6" ht="30">
+      <c r="C345" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="E344" s="5" t="s">
-        <v>612</v>
-      </c>
-      <c r="F344" s="2" t="s">
+    </row>
+    <row r="346" spans="1:6" ht="409">
+      <c r="A346" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="345">
-      <c r="C345" s="1" t="s">
+      <c r="C346" s="1" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="603.3" outlineLevel="0" r="346">
-      <c r="A346" s="1" t="s">
+      <c r="D346" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="E346" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D346" s="5" t="s">
+      <c r="F346" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E346" s="5" t="s">
+    </row>
+    <row r="347" spans="1:6">
+      <c r="C347" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="F346" s="2" t="s">
+    </row>
+    <row r="348" spans="1:6">
+      <c r="C348" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="347">
-      <c r="C347" s="1" t="s">
+    <row r="349" spans="1:6">
+      <c r="C349" s="1" t="s">
         <v>620</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="348">
-      <c r="C348" s="1" t="s">
+    <row r="350" spans="1:6">
+      <c r="C350" s="1" t="s">
         <v>621</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="349">
-      <c r="C349" s="1" t="s">
+    <row r="351" spans="1:6">
+      <c r="C351" s="1" t="s">
         <v>622</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="350">
-      <c r="C350" s="1" t="s">
+    <row r="352" spans="1:6">
+      <c r="C352" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="351">
-      <c r="C351" s="1" t="s">
+    <row r="353" spans="2:6">
+      <c r="C353" s="1" t="s">
         <v>624</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="352">
-      <c r="C352" s="1" t="s">
+    <row r="354" spans="2:6">
+      <c r="C354" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="353">
-      <c r="C353" s="1" t="s">
+    <row r="355" spans="2:6">
+      <c r="C355" s="1" t="s">
         <v>626</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="354">
-      <c r="C354" s="1" t="s">
+    <row r="356" spans="2:6">
+      <c r="C356" s="1" t="s">
         <v>627</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="355">
-      <c r="C355" s="1" t="s">
+    <row r="357" spans="2:6">
+      <c r="C357" s="1" t="s">
         <v>628</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="356">
-      <c r="C356" s="1" t="s">
+    <row r="358" spans="2:6">
+      <c r="C358" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="357">
-      <c r="C357" s="1" t="s">
+    <row r="359" spans="2:6" ht="30">
+      <c r="C359" s="1" t="s">
         <v>630</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="358">
-      <c r="C358" s="1" t="s">
+    <row r="360" spans="2:6">
+      <c r="C360" s="1" t="s">
         <v>631</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="359">
-      <c r="C359" s="1" t="s">
+    <row r="361" spans="2:6">
+      <c r="C361" s="1" t="s">
         <v>632</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="360">
-      <c r="C360" s="1" t="s">
+    <row r="362" spans="2:6">
+      <c r="C362" s="1" t="s">
         <v>633</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="361">
-      <c r="C361" s="1" t="s">
+    <row r="363" spans="2:6">
+      <c r="C363" s="1" t="s">
         <v>634</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="362">
-      <c r="C362" s="1" t="s">
+    <row r="364" spans="2:6">
+      <c r="C364" s="1" t="s">
         <v>635</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="363">
-      <c r="C363" s="1" t="s">
+    <row r="365" spans="2:6">
+      <c r="C365" s="1" t="s">
         <v>636</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="364">
-      <c r="C364" s="1" t="s">
+    <row r="366" spans="2:6">
+      <c r="C366" s="1" t="s">
         <v>637</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="365">
-      <c r="C365" s="1" t="s">
+    <row r="367" spans="2:6">
+      <c r="C367" s="1" t="s">
         <v>638</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="366">
-      <c r="C366" s="1" t="s">
+    <row r="368" spans="2:6" ht="285">
+      <c r="B368" s="1" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="367">
-      <c r="C367" s="1" t="s">
+      <c r="C368" s="1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="302.5" outlineLevel="0" r="368">
-      <c r="B368" s="1" t="s">
+      <c r="D368" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="C368" s="1" t="s">
+      <c r="E368" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="D368" s="5" t="s">
+      <c r="F368" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E368" s="5" t="s">
+    </row>
+    <row r="369" spans="1:6">
+      <c r="C369" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="F368" s="2" t="s">
+    </row>
+    <row r="370" spans="1:6" ht="409">
+      <c r="C370" s="1" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="369">
-      <c r="C369" s="1" t="s">
+      <c r="D370" s="5" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1839.15" outlineLevel="0" r="370">
-      <c r="C370" s="1" t="s">
+      <c r="E370" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F370" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="D370" s="5" t="s">
+    </row>
+    <row r="371" spans="1:6">
+      <c r="C371" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="E370" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="F370" s="2" t="s">
+    </row>
+    <row r="372" spans="1:6" ht="30">
+      <c r="C372" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="371">
-      <c r="C371" s="1" t="s">
+    <row r="373" spans="1:6">
+      <c r="C373" s="1" t="s">
         <v>650</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="372">
-      <c r="C372" s="1" t="s">
+    <row r="374" spans="1:6">
+      <c r="C374" s="1" t="s">
         <v>651</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="373">
-      <c r="C373" s="1" t="s">
+    <row r="375" spans="1:6">
+      <c r="C375" s="1" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="374">
-      <c r="C374" s="1" t="s">
+      <c r="D375" s="13" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="375">
-      <c r="C375" s="1" t="s">
+      <c r="E375" s="13" t="s">
         <v>654</v>
       </c>
-      <c r="D375" s="13" t="s">
+    </row>
+    <row r="376" spans="1:6">
+      <c r="C376" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E375" s="13" t="s">
+    </row>
+    <row r="377" spans="1:6">
+      <c r="C377" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="376">
-      <c r="C376" s="1" t="s">
+    <row r="378" spans="1:6" ht="409">
+      <c r="A378" s="1" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="377">
-      <c r="C377" s="1" t="s">
+      <c r="B378" s="1" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="857.5" outlineLevel="0" r="378">
-      <c r="A378" s="1" t="s">
+      <c r="C378" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B378" s="1" t="s">
+      <c r="D378" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="C378" s="1" t="s">
+      <c r="E378" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D378" s="5" t="s">
+      <c r="F378" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="E378" s="5" t="s">
+    </row>
+    <row r="379" spans="1:6">
+      <c r="C379" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="F378" s="2" t="s">
+    </row>
+    <row r="380" spans="1:6" ht="135">
+      <c r="A380" s="1" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="379">
-      <c r="C379" s="1" t="s">
+      <c r="B380" s="1" t="s">
         <v>665</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="380">
-      <c r="A380" s="1" t="s">
+    <row r="381" spans="1:6" ht="409">
+      <c r="A381" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B380" s="1" t="s">
+      <c r="B381" s="1" t="s">
         <v>667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="3106.65" outlineLevel="0" r="381">
-      <c r="A381" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B381" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="C381" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D381" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E381" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F381" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" ht="409">
+      <c r="B382" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="E381" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="F381" s="2" t="s">
+      <c r="D382" s="5" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="777.5" outlineLevel="0" r="382">
-      <c r="B382" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="C382" s="1" t="s">
+      <c r="E382" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="F382" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="D382" s="5" t="s">
+    </row>
+    <row r="383" spans="1:6">
+      <c r="C383" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="E382" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="F382" s="16" t="s">
+    </row>
+    <row r="384" spans="1:6">
+      <c r="C384" s="1" t="s">
         <v>674</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="383">
-      <c r="C383" s="1" t="s">
+    <row r="385" spans="1:6">
+      <c r="C385" s="1" t="s">
         <v>675</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="384">
-      <c r="C384" s="1" t="s">
+    <row r="386" spans="1:6">
+      <c r="C386" s="1" t="s">
         <v>676</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="385">
-      <c r="C385" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="386">
-      <c r="C386" s="1" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="387">
+    <row r="387" spans="1:6">
       <c r="C387" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="2203.3" outlineLevel="0" r="388">
+    <row r="388" spans="1:6" ht="409">
       <c r="A388" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B388" s="1" t="s">
+      <c r="D388" s="8" t="s">
         <v>680</v>
       </c>
-      <c r="C388" s="1" t="s">
+      <c r="E388" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="D388" s="8" t="s">
+      <c r="F388" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="E388" s="8" t="s">
+    </row>
+    <row r="389" spans="1:6">
+      <c r="C389" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="F388" s="2" t="s">
+    </row>
+    <row r="390" spans="1:6">
+      <c r="C390" s="1" t="s">
         <v>684</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="389">
-      <c r="C389" s="1" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="390">
-      <c r="C390" s="1" t="s">
-        <v>686</v>
       </c>
       <c r="D390" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E390" s="13" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="C391" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="C392" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="391">
-      <c r="C391" s="1" t="s">
+      <c r="D392" s="13" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="392">
-      <c r="C392" s="1" t="s">
+      <c r="E392" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="D392" s="13" t="s">
+    </row>
+    <row r="393" spans="1:6">
+      <c r="C393" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E392" s="13" t="s">
+      <c r="D393" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="E393" s="13" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="C394" s="1" t="s">
         <v>691</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="393">
-      <c r="C393" s="1" t="s">
+    <row r="395" spans="1:6">
+      <c r="C395" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="D393" s="13" t="s">
-        <v>690</v>
-      </c>
-      <c r="E393" s="13" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="394">
-      <c r="C394" s="1" t="s">
+    </row>
+    <row r="396" spans="1:6">
+      <c r="C396" s="1" t="s">
         <v>693</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="395">
-      <c r="C395" s="1" t="s">
+    <row r="397" spans="1:6">
+      <c r="C397" s="1" t="s">
         <v>694</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="396">
-      <c r="C396" s="1" t="s">
+    <row r="398" spans="1:6">
+      <c r="C398" s="1" t="s">
         <v>695</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="397">
-      <c r="C397" s="1" t="s">
+    <row r="399" spans="1:6" ht="120">
+      <c r="A399" s="1" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="398">
-      <c r="C398" s="1" t="s">
+      <c r="B399" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="399">
-      <c r="A399" s="1" t="s">
+      <c r="C399" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="B399" s="1" t="s">
+    </row>
+    <row r="400" spans="1:6" ht="30">
+      <c r="C400" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="C399" s="1" t="s">
+    </row>
+    <row r="401" spans="1:6">
+      <c r="C401" s="1" t="s">
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="400">
-      <c r="C400" s="1" t="s">
+    <row r="402" spans="1:6">
+      <c r="C402" s="1" t="s">
         <v>701</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="401">
-      <c r="C401" s="1" t="s">
+    <row r="403" spans="1:6">
+      <c r="C403" s="1" t="s">
         <v>702</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="402">
-      <c r="C402" s="1" t="s">
+    <row r="404" spans="1:6">
+      <c r="C404" s="1" t="s">
         <v>703</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="403">
-      <c r="C403" s="1" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="404">
-      <c r="C404" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>201</v>
@@ -10392,56 +10976,56 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="405">
+    <row r="405" spans="1:6">
       <c r="C405" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="C406" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="D406" s="1" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="406">
-      <c r="C406" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="D406" s="1" t="s">
-        <v>708</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="407">
+    <row r="407" spans="1:6">
       <c r="C407" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="C408" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" ht="120">
+      <c r="A409" s="1" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="408">
-      <c r="C408" s="1" t="s">
+      <c r="B409" s="1" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="409">
-      <c r="A409" s="1" t="s">
+      <c r="C409" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="B409" s="1" t="s">
+    </row>
+    <row r="410" spans="1:6">
+      <c r="C410" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C409" s="1" t="s">
+    </row>
+    <row r="411" spans="1:6">
+      <c r="C411" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="410">
-      <c r="C410" s="1" t="s">
+    <row r="412" spans="1:6">
+      <c r="C412" s="1" t="s">
         <v>714</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="411">
-      <c r="C411" s="1" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="412">
-      <c r="C412" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>201</v>
@@ -10450,164 +11034,164 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="555.8" outlineLevel="0" r="413">
+    <row r="413" spans="1:6" ht="409">
       <c r="C413" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="D413" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="E413" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="D413" s="5" t="s">
+      <c r="F413" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="E413" s="5" t="s">
+    </row>
+    <row r="414" spans="1:6">
+      <c r="C414" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="F413" s="2" t="s">
+    </row>
+    <row r="415" spans="1:6" ht="300">
+      <c r="A415" s="1" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="414">
-      <c r="C414" s="1" t="s">
+      <c r="B415" s="1" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="318.3" outlineLevel="0" r="415">
-      <c r="A415" s="1" t="s">
+      <c r="C415" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B415" s="1" t="s">
+      <c r="D415" s="17" t="s">
         <v>723</v>
       </c>
-      <c r="C415" s="1" t="s">
+      <c r="E415" s="17" t="s">
         <v>724</v>
       </c>
-      <c r="D415" s="17" t="s">
+      <c r="F415" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="E415" s="17" t="s">
+    </row>
+    <row r="416" spans="1:6">
+      <c r="C416" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="F415" s="2" t="s">
+    </row>
+    <row r="417" spans="3:6">
+      <c r="C417" s="1" t="s">
         <v>727</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="416">
-      <c r="C416" s="1" t="s">
+    <row r="418" spans="3:6" ht="409">
+      <c r="C418" s="1" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="417">
-      <c r="C417" s="1" t="s">
+      <c r="D418" s="5" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1981.65" outlineLevel="0" r="418">
-      <c r="C418" s="1" t="s">
+      <c r="E418" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="F418" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D418" s="5" t="s">
+    </row>
+    <row r="419" spans="3:6">
+      <c r="C419" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E418" s="5" t="s">
-        <v>578</v>
-      </c>
-      <c r="F418" s="2" t="s">
+    </row>
+    <row r="420" spans="3:6" ht="409">
+      <c r="C420" s="1" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="419">
-      <c r="C419" s="1" t="s">
+      <c r="D420" s="5" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1221.65" outlineLevel="0" r="420">
-      <c r="C420" s="1" t="s">
+      <c r="E420" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F420" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="D420" s="5" t="s">
+    </row>
+    <row r="421" spans="3:6" ht="409">
+      <c r="C421" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="E420" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F420" s="2" t="s">
+      <c r="D421" s="5" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="745.8" outlineLevel="0" r="421">
-      <c r="C421" s="1" t="s">
+      <c r="E421" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="D421" s="5" t="s">
+      <c r="F421" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="E421" s="5" t="s">
+    </row>
+    <row r="422" spans="3:6">
+      <c r="C422" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="F421" s="2" t="s">
+    </row>
+    <row r="423" spans="3:6">
+      <c r="C423" s="1" t="s">
         <v>740</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="422">
-      <c r="C422" s="1" t="s">
+    <row r="424" spans="3:6" ht="30">
+      <c r="C424" s="1" t="s">
         <v>741</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="423">
-      <c r="C423" s="1" t="s">
+    <row r="425" spans="3:6">
+      <c r="C425" s="1" t="s">
         <v>742</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="17.5" outlineLevel="0" r="424">
-      <c r="C424" s="1" t="s">
+    <row r="426" spans="3:6">
+      <c r="C426" s="1" t="s">
         <v>743</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="425">
-      <c r="C425" s="1" t="s">
+    <row r="427" spans="3:6">
+      <c r="C427" s="1" t="s">
         <v>744</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="426">
-      <c r="C426" s="1" t="s">
+    <row r="428" spans="3:6">
+      <c r="C428" s="1" t="s">
         <v>745</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="427">
-      <c r="C427" s="1" t="s">
+    <row r="429" spans="3:6">
+      <c r="C429" s="1" t="s">
         <v>746</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="428">
-      <c r="C428" s="1" t="s">
+    <row r="430" spans="3:6">
+      <c r="C430" s="1" t="s">
         <v>747</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="429">
-      <c r="C429" s="1" t="s">
+    <row r="431" spans="3:6" ht="150">
+      <c r="C431" s="1" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="430">
-      <c r="C430" s="1" t="s">
+      <c r="D431" s="5" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="160" outlineLevel="0" r="431">
-      <c r="C431" s="1" t="s">
+      <c r="E431" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F431" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="D431" s="5" t="s">
+    </row>
+    <row r="432" spans="3:6">
+      <c r="C432" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="E431" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="F431" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="432">
-      <c r="C432" s="1" t="s">
-        <v>753</v>
       </c>
       <c r="D432" s="1" t="s">
         <v>11</v>
@@ -10616,820 +11200,820 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="433">
+    <row r="433" spans="1:5" ht="30">
       <c r="A433" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B433" s="1" t="s">
+      <c r="D433" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="C433" s="1" t="s">
+      <c r="E433" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="45">
+      <c r="C434" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="D433" s="1" t="s">
+      <c r="D434" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="E433" s="1" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="434">
-      <c r="C434" s="1" t="s">
+      <c r="E434" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D434" s="1" t="s">
+    </row>
+    <row r="435" spans="1:5" ht="240">
+      <c r="C435" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="E434" s="1" t="s">
+      <c r="D435" s="1" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="223.3" outlineLevel="0" r="435">
-      <c r="C435" s="1" t="s">
+      <c r="E435" s="1" t="s">
         <v>761</v>
       </c>
-      <c r="D435" s="1" t="s">
+    </row>
+    <row r="436" spans="1:5" ht="105">
+      <c r="C436" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="E435" s="1" t="s">
+      <c r="D436" s="1" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="128.3" outlineLevel="0" r="436">
-      <c r="C436" s="1" t="s">
+      <c r="E436" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D436" s="1" t="s">
+    </row>
+    <row r="437" spans="1:5" ht="45">
+      <c r="C437" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="E436" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="437">
-      <c r="C437" s="1" t="s">
+      <c r="E437" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="D437" s="1" t="s">
+    </row>
+    <row r="438" spans="1:5" ht="60">
+      <c r="C438" s="1" t="s">
         <v>768</v>
       </c>
-      <c r="E437" s="1" t="s">
+      <c r="D438" s="1" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="438">
-      <c r="C438" s="1" t="s">
+      <c r="E438" s="1" t="s">
         <v>770</v>
       </c>
-      <c r="D438" s="1" t="s">
+    </row>
+    <row r="439" spans="1:5" ht="45">
+      <c r="C439" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="E438" s="1" t="s">
+      <c r="D439" s="1" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="439">
-      <c r="C439" s="1" t="s">
+      <c r="E439" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="D439" s="1" t="s">
+    </row>
+    <row r="440" spans="1:5" ht="45">
+      <c r="C440" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="E439" s="1" t="s">
+      <c r="D440" s="1" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="440">
-      <c r="C440" s="1" t="s">
+      <c r="E440" s="1" t="s">
         <v>776</v>
       </c>
-      <c r="D440" s="1" t="s">
+    </row>
+    <row r="441" spans="1:5">
+      <c r="C441" s="1" t="s">
         <v>777</v>
       </c>
-      <c r="E440" s="1" t="s">
+      <c r="D441" s="1" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="441">
-      <c r="C441" s="1" t="s">
+      <c r="E441" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="D441" s="1" t="s">
+    </row>
+    <row r="442" spans="1:5" ht="150">
+      <c r="C442" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="E441" s="1" t="s">
+      <c r="D442" s="1" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="144.15" outlineLevel="0" r="442">
-      <c r="C442" s="1" t="s">
+      <c r="E442" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="D442" s="1" t="s">
+    </row>
+    <row r="443" spans="1:5" ht="45">
+      <c r="C443" s="1" t="s">
         <v>783</v>
       </c>
-      <c r="E442" s="1" t="s">
+      <c r="D443" s="1" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="443">
-      <c r="C443" s="1" t="s">
+      <c r="E443" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D443" s="1" t="s">
+    </row>
+    <row r="444" spans="1:5" ht="45">
+      <c r="C444" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="E443" s="1" t="s">
+      <c r="D444" s="1" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="444">
-      <c r="C444" s="1" t="s">
+      <c r="E444" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D444" s="1" t="s">
+    </row>
+    <row r="445" spans="1:5">
+      <c r="C445" s="1" t="s">
         <v>789</v>
-      </c>
-      <c r="E444" s="1" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="445">
-      <c r="C445" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="446">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5">
       <c r="C446" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D446" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E446" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="30">
+      <c r="C447" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="D447" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="447">
-      <c r="C447" s="1" t="s">
+      <c r="E447" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="D447" s="1" t="s">
+    </row>
+    <row r="448" spans="1:5" ht="30">
+      <c r="C448" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="E447" s="1" t="s">
+      <c r="D448" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E448" s="1" t="s">
         <v>797</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="448">
-      <c r="C448" s="1" t="s">
+    <row r="449" spans="3:5" ht="60">
+      <c r="C449" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="D448" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E448" s="1" t="s">
+      <c r="D449" s="1" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="49.15" outlineLevel="0" r="449">
-      <c r="C449" s="1" t="s">
+      <c r="E449" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="D449" s="1" t="s">
+    </row>
+    <row r="450" spans="3:5" ht="30">
+      <c r="C450" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="E449" s="1" t="s">
+      <c r="D450" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="E450" s="1" t="s">
         <v>802</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="450">
-      <c r="C450" s="1" t="s">
+    <row r="451" spans="3:5" ht="30">
+      <c r="C451" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="D450" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="E450" s="1" t="s">
+      <c r="D451" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="451">
-      <c r="C451" s="1" t="s">
+      <c r="E451" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="D451" s="1" t="s">
+    </row>
+    <row r="452" spans="3:5" ht="30">
+      <c r="C452" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="E451" s="1" t="s">
+      <c r="D452" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="452">
-      <c r="C452" s="1" t="s">
+      <c r="E452" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="D452" s="1" t="s">
+    </row>
+    <row r="453" spans="3:5">
+      <c r="C453" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="E452" s="1" t="s">
+      <c r="E453" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="454" spans="3:5">
+      <c r="C454" s="1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="453">
-      <c r="C453" s="1" t="s">
+      <c r="D454" s="1" t="s">
         <v>811</v>
       </c>
-      <c r="E453" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="454">
-      <c r="C454" s="1" t="s">
+      <c r="E454" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D454" s="1" t="s">
+    </row>
+    <row r="455" spans="3:5" ht="30">
+      <c r="C455" s="1" t="s">
         <v>813</v>
       </c>
-      <c r="E454" s="1" t="s">
+      <c r="E455" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="456" spans="3:5">
+      <c r="C456" s="1" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="455">
-      <c r="C455" s="1" t="s">
+      <c r="E456" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="457" spans="3:5" ht="30">
+      <c r="C457" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="E455" s="1" t="s">
+      <c r="E457" s="1" t="s">
         <v>815</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="456">
-      <c r="C456" s="1" t="s">
+    <row r="458" spans="3:5" ht="30">
+      <c r="C458" s="1" t="s">
         <v>816</v>
       </c>
-      <c r="E456" s="1" t="s">
+      <c r="E458" s="1" t="s">
         <v>816</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="457">
-      <c r="C457" s="1" t="s">
+    <row r="459" spans="3:5" ht="30">
+      <c r="C459" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="E457" s="1" t="s">
+      <c r="E459" s="1" t="s">
         <v>817</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="458">
-      <c r="C458" s="1" t="s">
+    <row r="460" spans="3:5" ht="30">
+      <c r="C460" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="E458" s="1" t="s">
+      <c r="E460" s="1" t="s">
         <v>818</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="459">
-      <c r="C459" s="1" t="s">
+    <row r="461" spans="3:5" ht="30">
+      <c r="C461" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="E459" s="1" t="s">
+      <c r="E461" s="1" t="s">
         <v>819</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="460">
-      <c r="C460" s="1" t="s">
+    <row r="462" spans="3:5" ht="45">
+      <c r="C462" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="E460" s="1" t="s">
+      <c r="E462" s="1" t="s">
         <v>820</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="461">
-      <c r="C461" s="1" t="s">
+    <row r="463" spans="3:5">
+      <c r="C463" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="E461" s="1" t="s">
+      <c r="E463" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="462">
-      <c r="C462" s="1" t="s">
+    <row r="464" spans="3:5" ht="45">
+      <c r="C464" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="E462" s="1" t="s">
+      <c r="E464" s="1" t="s">
         <v>822</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="463">
-      <c r="C463" s="1" t="s">
+    <row r="465" spans="2:5" ht="30">
+      <c r="C465" s="1" t="s">
         <v>823</v>
       </c>
-      <c r="E463" s="1" t="s">
+      <c r="E465" s="1" t="s">
         <v>823</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="464">
-      <c r="C464" s="1" t="s">
+    <row r="466" spans="2:5">
+      <c r="C466" s="1" t="s">
         <v>824</v>
       </c>
-      <c r="E464" s="1" t="s">
+      <c r="E466" s="1" t="s">
         <v>824</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="465">
-      <c r="C465" s="1" t="s">
+    <row r="467" spans="2:5" ht="30">
+      <c r="C467" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="E465" s="1" t="s">
+      <c r="E467" s="1" t="s">
         <v>825</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="466">
-      <c r="C466" s="1" t="s">
+    <row r="468" spans="2:5" ht="30">
+      <c r="C468" s="1" t="s">
         <v>826</v>
       </c>
-      <c r="E466" s="1" t="s">
+      <c r="E468" s="1" t="s">
         <v>826</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="467">
-      <c r="C467" s="1" t="s">
+    <row r="469" spans="2:5" ht="30">
+      <c r="C469" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="E467" s="1" t="s">
+      <c r="E469" s="1" t="s">
         <v>827</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="468">
-      <c r="C468" s="1" t="s">
+    <row r="470" spans="2:5">
+      <c r="C470" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="E468" s="1" t="s">
+      <c r="E470" s="1" t="s">
         <v>828</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="469">
-      <c r="C469" s="1" t="s">
+    <row r="471" spans="2:5">
+      <c r="C471" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="E469" s="1" t="s">
+      <c r="E471" s="1" t="s">
         <v>829</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="470">
-      <c r="C470" s="1" t="s">
+    <row r="472" spans="2:5" ht="30">
+      <c r="C472" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="E470" s="1" t="s">
+      <c r="E472" s="1" t="s">
         <v>830</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="471">
-      <c r="C471" s="1" t="s">
+    <row r="473" spans="2:5" ht="30">
+      <c r="B473" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="E471" s="1" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="472">
-      <c r="C472" s="1" t="s">
+      <c r="C473" s="1" t="s">
         <v>832</v>
-      </c>
-      <c r="E472" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="473">
-      <c r="B473" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="E473" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="474">
+    <row r="474" spans="2:5">
       <c r="B474" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="475" spans="2:5">
+      <c r="C475" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C474" s="1" t="s">
+      <c r="E475" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="476" spans="2:5">
+      <c r="C476" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="E474" s="1" t="s">
+      <c r="E476" s="1" t="s">
         <v>836</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="475">
-      <c r="C475" s="1" t="s">
+    <row r="477" spans="2:5">
+      <c r="C477" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="E475" s="1" t="s">
+      <c r="E477" s="1" t="s">
         <v>837</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="476">
-      <c r="C476" s="1" t="s">
+    <row r="478" spans="2:5">
+      <c r="C478" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="E476" s="1" t="s">
+      <c r="E478" s="1" t="s">
         <v>838</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="477">
-      <c r="C477" s="1" t="s">
+    <row r="479" spans="2:5">
+      <c r="C479" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="E477" s="1" t="s">
+      <c r="E479" s="1" t="s">
         <v>839</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="478">
-      <c r="C478" s="1" t="s">
+    <row r="480" spans="2:5">
+      <c r="C480" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="E478" s="1" t="s">
+      <c r="E480" s="1" t="s">
         <v>840</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="479">
-      <c r="C479" s="1" t="s">
+    <row r="481" spans="2:6" ht="30">
+      <c r="B481" s="1" t="s">
         <v>841</v>
       </c>
-      <c r="E479" s="1" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="480">
-      <c r="C480" s="1" t="s">
+      <c r="C481" s="1" t="s">
         <v>842</v>
       </c>
-      <c r="E480" s="1" t="s">
+      <c r="E481" s="1" t="s">
         <v>842</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="481">
-      <c r="B481" s="1" t="s">
+    <row r="482" spans="2:6">
+      <c r="B482" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C481" s="1" t="s">
+      <c r="C482" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="E481" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="482">
-      <c r="B482" s="1" t="s">
+      <c r="D482" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="C482" s="1" t="s">
+      <c r="E482" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="D482" s="1" t="s">
+    </row>
+    <row r="483" spans="2:6">
+      <c r="C483" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="E482" s="1" t="s">
+      <c r="D483" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="484" spans="2:6">
+      <c r="C484" s="1" t="s">
         <v>848</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="483">
-      <c r="C483" s="1" t="s">
+      <c r="E484" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="485" spans="2:6" ht="409">
+      <c r="C485" s="1" t="s">
         <v>849</v>
       </c>
-      <c r="D483" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E483" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="484">
-      <c r="C484" s="1" t="s">
+      <c r="D485" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="E484" s="1" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1997.5" outlineLevel="0" r="485">
-      <c r="C485" s="1" t="s">
+      <c r="E485" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="D485" s="5" t="s">
+      <c r="F485" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="E485" s="5" t="s">
+    </row>
+    <row r="486" spans="2:6">
+      <c r="C486" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="F485" s="2" t="s">
+      <c r="E486" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="487" spans="2:6">
+      <c r="C487" s="1" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="486">
-      <c r="C486" s="1" t="s">
+      <c r="E487" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="488" spans="2:6" ht="409">
+      <c r="C488" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="E486" s="1" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="487">
-      <c r="C487" s="1" t="s">
+      <c r="D488" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="E487" s="1" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="555.8" outlineLevel="0" r="488">
-      <c r="C488" s="1" t="s">
+      <c r="E488" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="D488" s="5" t="s">
+      <c r="F488" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E488" s="5" t="s">
+    </row>
+    <row r="489" spans="2:6">
+      <c r="C489" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="F488" s="2" t="s">
+      <c r="D489" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="490" spans="2:6">
+      <c r="C490" s="1" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="489">
-      <c r="C489" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="D489" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E489" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="490">
-      <c r="C490" s="1" t="s">
-        <v>862</v>
-      </c>
       <c r="D490" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E490" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="33.3" outlineLevel="0" r="491">
+    <row r="491" spans="2:6" ht="30">
       <c r="C491" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="E491" s="1" t="s">
         <v>863</v>
       </c>
-      <c r="D491" s="1" t="s">
+    </row>
+    <row r="492" spans="2:6">
+      <c r="C492" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="E491" s="1" t="s">
+    </row>
+    <row r="493" spans="2:6">
+      <c r="C493" s="1" t="s">
         <v>865</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="492">
-      <c r="C492" s="1" t="s">
+    <row r="494" spans="2:6">
+      <c r="C494" s="1" t="s">
         <v>866</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="493">
-      <c r="C493" s="1" t="s">
+    <row r="495" spans="2:6">
+      <c r="C495" s="1" t="s">
         <v>867</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="494">
-      <c r="C494" s="1" t="s">
+    <row r="496" spans="2:6">
+      <c r="C496" s="1" t="s">
         <v>868</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="495">
-      <c r="C495" s="1" t="s">
+    <row r="497" spans="3:6" ht="120">
+      <c r="C497" s="1" t="s">
         <v>869</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="496">
-      <c r="C496" s="1" t="s">
+      <c r="D497" s="5" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="144.15" outlineLevel="0" r="497">
-      <c r="C497" s="1" t="s">
+      <c r="E497" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="F497" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D497" s="5" t="s">
+    </row>
+    <row r="498" spans="3:6" ht="345">
+      <c r="C498" s="1" t="s">
         <v>872</v>
       </c>
-      <c r="E497" s="5" t="s">
-        <v>872</v>
-      </c>
-      <c r="F497" s="2" t="s">
+      <c r="D498" s="5" t="s">
         <v>873</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="381.65" outlineLevel="0" r="498">
-      <c r="C498" s="1" t="s">
+      <c r="E498" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="F498" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="D498" s="5" t="s">
+    </row>
+    <row r="499" spans="3:6">
+      <c r="C499" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="E498" s="5" t="s">
+      <c r="E499" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="F498" s="2" t="s">
+    </row>
+    <row r="500" spans="3:6">
+      <c r="C500" s="1" t="s">
         <v>876</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="499">
-      <c r="C499" s="1" t="s">
+      <c r="E500" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="501" spans="3:6">
+      <c r="C501" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="E499" s="1" t="s">
+      <c r="E501" s="1" t="s">
         <v>877</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="500">
-      <c r="C500" s="1" t="s">
+    <row r="502" spans="3:6">
+      <c r="C502" s="1" t="s">
         <v>878</v>
       </c>
-      <c r="E500" s="1" t="s">
+      <c r="E502" s="1" t="s">
         <v>878</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="501">
-      <c r="C501" s="1" t="s">
+    <row r="503" spans="3:6">
+      <c r="C503" s="1" t="s">
         <v>879</v>
       </c>
-      <c r="E501" s="1" t="s">
+      <c r="E503" s="1" t="s">
         <v>879</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="502">
-      <c r="C502" s="1" t="s">
+    <row r="504" spans="3:6">
+      <c r="C504" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="E502" s="1" t="s">
+      <c r="E504" s="1" t="s">
         <v>880</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="503">
-      <c r="C503" s="1" t="s">
+    <row r="505" spans="3:6">
+      <c r="C505" s="1" t="s">
         <v>881</v>
       </c>
-      <c r="E503" s="1" t="s">
+      <c r="E505" s="1" t="s">
         <v>881</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="504">
-      <c r="C504" s="1" t="s">
+    <row r="506" spans="3:6">
+      <c r="C506" s="1" t="s">
         <v>882</v>
       </c>
-      <c r="E504" s="1" t="s">
+      <c r="E506" s="1" t="s">
         <v>882</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="505">
-      <c r="C505" s="1" t="s">
+    <row r="507" spans="3:6">
+      <c r="C507" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="E505" s="1" t="s">
+      <c r="E507" s="1" t="s">
         <v>883</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="506">
-      <c r="C506" s="1" t="s">
+    <row r="508" spans="3:6">
+      <c r="C508" s="1" t="s">
         <v>884</v>
       </c>
-      <c r="E506" s="1" t="s">
+      <c r="E508" s="1" t="s">
         <v>884</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="507">
-      <c r="C507" s="1" t="s">
+    <row r="509" spans="3:6">
+      <c r="C509" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="E507" s="1" t="s">
+      <c r="E509" s="1" t="s">
         <v>885</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="508">
-      <c r="C508" s="1" t="s">
+    <row r="510" spans="3:6">
+      <c r="C510" s="1" t="s">
         <v>886</v>
       </c>
-      <c r="E508" s="1" t="s">
+      <c r="E510" s="1" t="s">
         <v>886</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="509">
-      <c r="C509" s="1" t="s">
+    <row r="511" spans="3:6">
+      <c r="C511" s="1" t="s">
         <v>887</v>
       </c>
-      <c r="E509" s="1" t="s">
+      <c r="E511" s="1" t="s">
         <v>887</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="510">
-      <c r="C510" s="1" t="s">
+    <row r="512" spans="3:6">
+      <c r="C512" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="E510" s="1" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="511">
-      <c r="C511" s="1" t="s">
+      <c r="D512" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E512" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="E511" s="1" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="512">
-      <c r="C512" s="1" t="s">
+    </row>
+    <row r="513" spans="1:6">
+      <c r="C513" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="D512" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E512" s="1" t="s">
+      <c r="D513" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E513" s="1" t="s">
         <v>891</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="513">
-      <c r="C513" s="1" t="s">
+    <row r="514" spans="1:6">
+      <c r="C514" s="1" t="s">
         <v>892</v>
       </c>
-      <c r="D513" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E513" s="1" t="s">
+      <c r="D514" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E514" s="1" t="s">
         <v>893</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="514">
-      <c r="C514" s="1" t="s">
+    <row r="515" spans="1:6">
+      <c r="C515" s="1" t="s">
         <v>894</v>
       </c>
-      <c r="D514" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E514" s="1" t="s">
+      <c r="D515" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E515" s="1" t="s">
         <v>895</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="515">
-      <c r="C515" s="1" t="s">
+    <row r="516" spans="1:6" ht="409">
+      <c r="A516" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D515" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="E515" s="1" t="s">
+      <c r="B516" s="1" t="s">
         <v>897</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="587.5" outlineLevel="0" r="516">
-      <c r="A516" s="1" t="s">
+      <c r="C516" s="1" t="s">
         <v>898</v>
       </c>
-      <c r="B516" s="1" t="s">
+      <c r="D516" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="C516" s="1" t="s">
+      <c r="E516" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="D516" s="5" t="s">
+      <c r="F516" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="E516" s="5" t="s">
+    </row>
+    <row r="517" spans="1:6">
+      <c r="C517" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="F516" s="2" t="s">
+    </row>
+    <row r="518" spans="1:6">
+      <c r="C518" s="1" t="s">
         <v>903</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="517">
-      <c r="C517" s="1" t="s">
+    <row r="519" spans="1:6">
+      <c r="C519" s="1" t="s">
         <v>904</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="518">
-      <c r="C518" s="1" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="519">
-      <c r="C519" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>200</v>
@@ -11438,62 +12022,62 @@
         <v>201</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="520">
+    <row r="520" spans="1:6">
       <c r="C520" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
+      <c r="C521" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" ht="409">
+      <c r="A522" s="1" t="s">
         <v>907</v>
-      </c>
-      <c r="E520" s="1" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="521">
-      <c r="C521" s="1" t="s">
-        <v>908</v>
-      </c>
-      <c r="E521" s="1" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="810" outlineLevel="0" r="522">
-      <c r="A522" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="B522" s="1" t="s">
         <v>297</v>
       </c>
       <c r="C522" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D522" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E522" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="F522" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="D522" s="5" t="s">
+    </row>
+    <row r="523" spans="1:6">
+      <c r="C523" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="E522" s="5" t="s">
-        <v>911</v>
-      </c>
-      <c r="F522" s="2" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="523">
-      <c r="C523" s="1" t="s">
-        <v>913</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E523" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" ht="135">
+      <c r="A524" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B524" s="1" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="524">
-      <c r="A524" s="1" t="s">
+      <c r="C524" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="B524" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="C524" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>419</v>
@@ -11502,151 +12086,151 @@
         <v>106</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="525">
+    <row r="525" spans="1:6">
       <c r="C525" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
+      <c r="C526" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
+      <c r="C527" s="1" t="s">
         <v>918</v>
       </c>
-      <c r="E525" s="1" t="s">
+      <c r="E527" s="1" t="s">
         <v>918</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="526">
-      <c r="C526" s="1" t="s">
+    <row r="528" spans="1:6">
+      <c r="C528" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="E526" s="1" t="s">
+      <c r="E528" s="1" t="s">
         <v>919</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="527">
-      <c r="C527" s="1" t="s">
+    <row r="529" spans="1:6">
+      <c r="C529" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="E527" s="1" t="s">
+      <c r="E529" s="1" t="s">
         <v>920</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="528">
-      <c r="C528" s="1" t="s">
+    <row r="530" spans="1:6" ht="285">
+      <c r="C530" s="1" t="s">
         <v>921</v>
       </c>
-      <c r="E528" s="1" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="529">
-      <c r="C529" s="1" t="s">
+      <c r="D530" s="5" t="s">
         <v>922</v>
       </c>
-      <c r="E529" s="1" t="s">
+      <c r="E530" s="5" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="302.5" outlineLevel="0" r="530">
-      <c r="C530" s="1" t="s">
+      <c r="F530" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="D530" s="5" t="s">
+    </row>
+    <row r="531" spans="1:6" ht="135">
+      <c r="A531" s="1" t="s">
         <v>924</v>
       </c>
-      <c r="E530" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="F530" s="2" t="s">
+      <c r="B531" s="1" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="531">
-      <c r="A531" s="1" t="s">
+      <c r="C531" s="1" t="s">
         <v>926</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>927</v>
-      </c>
-      <c r="C531" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>11</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="532">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
       <c r="C532" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
+      <c r="C533" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" ht="315">
+      <c r="C534" s="1" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="533">
-      <c r="C533" s="1" t="s">
+      <c r="D534" s="5" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="334.15" outlineLevel="0" r="534">
-      <c r="C534" s="1" t="s">
+      <c r="E534" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="F534" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="D534" s="5" t="s">
+    </row>
+    <row r="535" spans="1:6" ht="315">
+      <c r="C535" s="1" t="s">
         <v>932</v>
       </c>
-      <c r="E534" s="5" t="s">
-        <v>932</v>
-      </c>
-      <c r="F534" s="2" t="s">
+      <c r="D535" s="5" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="334.15" outlineLevel="0" r="535">
-      <c r="C535" s="1" t="s">
+      <c r="E535" s="5" t="s">
         <v>934</v>
       </c>
-      <c r="D535" s="5" t="s">
+      <c r="F535" s="2" t="s">
         <v>935</v>
       </c>
-      <c r="E535" s="5" t="s">
+    </row>
+    <row r="536" spans="1:6" ht="409">
+      <c r="C536" s="1" t="s">
         <v>936</v>
       </c>
-      <c r="F535" s="2" t="s">
+      <c r="D536" s="5" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="745.8" outlineLevel="0" r="536">
-      <c r="C536" s="1" t="s">
+      <c r="E536" s="5" t="s">
         <v>938</v>
       </c>
-      <c r="D536" s="5" t="s">
+      <c r="F536" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="E536" s="5" t="s">
+    </row>
+    <row r="537" spans="1:6" ht="409">
+      <c r="C537" s="1" t="s">
         <v>940</v>
       </c>
-      <c r="F536" s="2" t="s">
+      <c r="D537" s="5" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="1570" outlineLevel="0" r="537">
-      <c r="C537" s="1" t="s">
+      <c r="E537" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="F537" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="D537" s="5" t="s">
+    </row>
+    <row r="538" spans="1:6">
+      <c r="C538" s="1" t="s">
         <v>943</v>
       </c>
-      <c r="E537" s="5" t="s">
-        <v>943</v>
-      </c>
-      <c r="F537" s="2" t="s">
+    </row>
+    <row r="539" spans="1:6" ht="360">
+      <c r="C539" s="1" t="s">
         <v>944</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="538">
-      <c r="C538" s="1" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="381.65" outlineLevel="0" r="539">
-      <c r="C539" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="D539" s="5" t="s">
         <v>121</v>
@@ -11655,12 +12239,12 @@
         <v>121</v>
       </c>
       <c r="F539" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="540">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
       <c r="C540" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>31</v>
@@ -11669,45 +12253,45 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="541">
+    <row r="541" spans="1:6">
       <c r="C541" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" ht="135">
+      <c r="A542" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B542" s="1" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="65" outlineLevel="0" r="542">
-      <c r="A542" s="1" t="s">
+      <c r="C542" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="B542" s="1" t="s">
+    </row>
+    <row r="543" spans="1:6">
+      <c r="C543" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="C542" s="1" t="s">
+    </row>
+    <row r="544" spans="1:6">
+      <c r="C544" s="1" t="s">
         <v>952</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="543">
-      <c r="C543" s="1" t="s">
+    <row r="545" spans="3:5">
+      <c r="C545" s="1" t="s">
         <v>953</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="544">
-      <c r="C544" s="1" t="s">
+    <row r="546" spans="3:5">
+      <c r="C546" s="1" t="s">
         <v>954</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="545">
-      <c r="C545" s="1" t="s">
+    <row r="547" spans="3:5">
+      <c r="C547" s="1" t="s">
         <v>955</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="546">
-      <c r="C546" s="1" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="547">
-      <c r="C547" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>11</v>
@@ -11716,9 +12300,9 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="548">
+    <row r="548" spans="3:5">
       <c r="C548" s="1" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>266</v>
@@ -11727,9 +12311,9 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="549">
+    <row r="549" spans="3:5">
       <c r="C549" s="1" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>266</v>
@@ -11738,20 +12322,20 @@
         <v>31</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="550">
+    <row r="550" spans="3:5">
       <c r="C550" s="1" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D550" s="1" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="18.3" outlineLevel="0" r="551">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="551" spans="3:5">
       <c r="C551" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>31</v>
@@ -11761,18 +12345,19 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink display="https://github.com/felixangell/alloy/blob/master/src/alloyc" ref="A2" r:id="rId1"/>
-    <hyperlink display="https://github.com/Orc/discount/blob/master/css.c" ref="A147" r:id="rId2"/>
-    <hyperlink display="https://github.com/APE-Project/APE_Server/blob/master/src/base64.c" ref="A149" r:id="rId3"/>
-    <hyperlink display="https://github.com/APE-Project/APE_Server/blob/master/src/cmd.c" ref="A152" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://github.com/felixangell/alloy/blob/master/src/alloyc"/>
+    <hyperlink ref="A147" r:id="rId2"/>
+    <hyperlink ref="A149" r:id="rId3"/>
+    <hyperlink ref="A152" r:id="rId4"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>